--- a/AAII_Financials/Yearly/PAM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PAM_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1819600</v>
+        <v>2264000</v>
       </c>
       <c r="E8" s="3">
-        <v>1355600</v>
+        <v>1611600</v>
       </c>
       <c r="F8" s="3">
-        <v>415100</v>
+        <v>1200600</v>
       </c>
       <c r="G8" s="3">
-        <v>118400</v>
+        <v>367600</v>
       </c>
       <c r="H8" s="3">
-        <v>102600</v>
+        <v>104800</v>
       </c>
       <c r="I8" s="3">
-        <v>88200</v>
+        <v>90800</v>
       </c>
       <c r="J8" s="3">
+        <v>78100</v>
+      </c>
+      <c r="K8" s="3">
         <v>110700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>136900</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1191300</v>
+        <v>1623900</v>
       </c>
       <c r="E9" s="3">
-        <v>973800</v>
+        <v>1055100</v>
       </c>
       <c r="F9" s="3">
-        <v>293800</v>
+        <v>862500</v>
       </c>
       <c r="G9" s="3">
-        <v>112900</v>
+        <v>260200</v>
       </c>
       <c r="H9" s="3">
-        <v>99700</v>
+        <v>100000</v>
       </c>
       <c r="I9" s="3">
-        <v>92600</v>
+        <v>88300</v>
       </c>
       <c r="J9" s="3">
+        <v>82000</v>
+      </c>
+      <c r="K9" s="3">
         <v>220500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>257900</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>628300</v>
+        <v>640100</v>
       </c>
       <c r="E10" s="3">
-        <v>381700</v>
+        <v>556500</v>
       </c>
       <c r="F10" s="3">
-        <v>121200</v>
+        <v>338100</v>
       </c>
       <c r="G10" s="3">
-        <v>5400</v>
+        <v>107400</v>
       </c>
       <c r="H10" s="3">
-        <v>2900</v>
+        <v>4800</v>
       </c>
       <c r="I10" s="3">
-        <v>-4400</v>
+        <v>2600</v>
       </c>
       <c r="J10" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="K10" s="3">
         <v>-109800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-120900</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,22 +824,23 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>500</v>
+        <v>4300</v>
       </c>
       <c r="E12" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="F12" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>8</v>
+        <v>600</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1100</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>8</v>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-337300</v>
+        <v>-67900</v>
       </c>
       <c r="E14" s="3">
-        <v>-184500</v>
+        <v>-298800</v>
       </c>
       <c r="F14" s="3">
-        <v>85100</v>
+        <v>-163400</v>
       </c>
       <c r="G14" s="3">
-        <v>4300</v>
+        <v>75400</v>
       </c>
       <c r="H14" s="3">
-        <v>-1200</v>
+        <v>3800</v>
       </c>
       <c r="I14" s="3">
-        <v>700</v>
+        <v>-1000</v>
       </c>
       <c r="J14" s="3">
+        <v>600</v>
+      </c>
+      <c r="K14" s="3">
         <v>1800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>34200</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>12800</v>
+        <v>21100</v>
       </c>
       <c r="E15" s="3">
-        <v>5700</v>
+        <v>11400</v>
       </c>
       <c r="F15" s="3">
-        <v>1900</v>
+        <v>5000</v>
       </c>
       <c r="G15" s="3">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="H15" s="3">
+        <v>700</v>
+      </c>
+      <c r="I15" s="3">
+        <v>500</v>
+      </c>
+      <c r="J15" s="3">
+        <v>400</v>
+      </c>
+      <c r="K15" s="3">
+        <v>500</v>
+      </c>
+      <c r="L15" s="3">
         <v>600</v>
       </c>
-      <c r="I15" s="3">
-        <v>400</v>
-      </c>
-      <c r="J15" s="3">
-        <v>500</v>
-      </c>
-      <c r="K15" s="3">
-        <v>600</v>
-      </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1009600</v>
+        <v>1505400</v>
       </c>
       <c r="E17" s="3">
-        <v>936600</v>
+        <v>894100</v>
       </c>
       <c r="F17" s="3">
-        <v>382300</v>
+        <v>829500</v>
       </c>
       <c r="G17" s="3">
-        <v>58100</v>
+        <v>338600</v>
       </c>
       <c r="H17" s="3">
-        <v>88000</v>
+        <v>51500</v>
       </c>
       <c r="I17" s="3">
-        <v>59700</v>
+        <v>77900</v>
       </c>
       <c r="J17" s="3">
+        <v>52800</v>
+      </c>
+      <c r="K17" s="3">
         <v>122000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>144700</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>810100</v>
+        <v>758600</v>
       </c>
       <c r="E18" s="3">
-        <v>419000</v>
+        <v>717400</v>
       </c>
       <c r="F18" s="3">
-        <v>32800</v>
+        <v>371100</v>
       </c>
       <c r="G18" s="3">
-        <v>60200</v>
+        <v>29000</v>
       </c>
       <c r="H18" s="3">
-        <v>14600</v>
+        <v>53300</v>
       </c>
       <c r="I18" s="3">
-        <v>28500</v>
+        <v>12900</v>
       </c>
       <c r="J18" s="3">
+        <v>25300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-11300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7800</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-539500</v>
+        <v>77700</v>
       </c>
       <c r="E20" s="3">
-        <v>-67500</v>
+        <v>-477800</v>
       </c>
       <c r="F20" s="3">
-        <v>-7000</v>
+        <v>-59800</v>
       </c>
       <c r="G20" s="3">
-        <v>28600</v>
+        <v>-6200</v>
       </c>
       <c r="H20" s="3">
-        <v>11800</v>
+        <v>25300</v>
       </c>
       <c r="I20" s="3">
-        <v>-4000</v>
+        <v>10500</v>
       </c>
       <c r="J20" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7000</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>416600</v>
+        <v>1040400</v>
       </c>
       <c r="E21" s="3">
-        <v>479700</v>
+        <v>368900</v>
       </c>
       <c r="F21" s="3">
-        <v>62200</v>
+        <v>424800</v>
       </c>
       <c r="G21" s="3">
-        <v>100700</v>
+        <v>55100</v>
       </c>
       <c r="H21" s="3">
-        <v>34200</v>
+        <v>89200</v>
       </c>
       <c r="I21" s="3">
-        <v>30700</v>
+        <v>30300</v>
       </c>
       <c r="J21" s="3">
+        <v>27100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-7900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9600</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>131000</v>
+        <v>171200</v>
       </c>
       <c r="E22" s="3">
-        <v>100900</v>
+        <v>116000</v>
       </c>
       <c r="F22" s="3">
-        <v>51000</v>
+        <v>89400</v>
       </c>
       <c r="G22" s="3">
-        <v>15500</v>
+        <v>45100</v>
       </c>
       <c r="H22" s="3">
-        <v>16000</v>
+        <v>13700</v>
       </c>
       <c r="I22" s="3">
-        <v>12400</v>
+        <v>14200</v>
       </c>
       <c r="J22" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K22" s="3">
         <v>6500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>19200</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>139600</v>
+        <v>665100</v>
       </c>
       <c r="E23" s="3">
-        <v>250500</v>
+        <v>123700</v>
       </c>
       <c r="F23" s="3">
-        <v>-25200</v>
+        <v>221900</v>
       </c>
       <c r="G23" s="3">
-        <v>73300</v>
+        <v>-22300</v>
       </c>
       <c r="H23" s="3">
-        <v>10400</v>
+        <v>64900</v>
       </c>
       <c r="I23" s="3">
-        <v>12100</v>
+        <v>9200</v>
       </c>
       <c r="J23" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-20600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-20100</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>10900</v>
+        <v>89700</v>
       </c>
       <c r="E24" s="3">
-        <v>-16300</v>
+        <v>9600</v>
       </c>
       <c r="F24" s="3">
-        <v>-19900</v>
+        <v>-14400</v>
       </c>
       <c r="G24" s="3">
-        <v>9700</v>
+        <v>-17600</v>
       </c>
       <c r="H24" s="3">
-        <v>1700</v>
+        <v>8600</v>
       </c>
       <c r="I24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1000</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>128800</v>
+        <v>575500</v>
       </c>
       <c r="E26" s="3">
-        <v>266800</v>
+        <v>114000</v>
       </c>
       <c r="F26" s="3">
-        <v>-5400</v>
+        <v>236300</v>
       </c>
       <c r="G26" s="3">
-        <v>63600</v>
+        <v>-4700</v>
       </c>
       <c r="H26" s="3">
-        <v>8800</v>
+        <v>56300</v>
       </c>
       <c r="I26" s="3">
-        <v>12300</v>
+        <v>7800</v>
       </c>
       <c r="J26" s="3">
+        <v>10900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-18400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-19100</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>89500</v>
+        <v>483300</v>
       </c>
       <c r="E27" s="3">
-        <v>209800</v>
+        <v>79300</v>
       </c>
       <c r="F27" s="3">
-        <v>-1400</v>
+        <v>185800</v>
       </c>
       <c r="G27" s="3">
-        <v>50700</v>
+        <v>-1200</v>
       </c>
       <c r="H27" s="3">
-        <v>12300</v>
+        <v>44900</v>
       </c>
       <c r="I27" s="3">
-        <v>6800</v>
+        <v>10900</v>
       </c>
       <c r="J27" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-11300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3300</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,39 +1343,45 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>49900</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-31300</v>
+        <v>44200</v>
       </c>
       <c r="F29" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G29" s="3" t="s">
+        <v>-27700</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
-        <v>-2100</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K29" s="3">
         <v>500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-2400</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>539500</v>
+        <v>-77700</v>
       </c>
       <c r="E32" s="3">
-        <v>67500</v>
+        <v>477800</v>
       </c>
       <c r="F32" s="3">
-        <v>7000</v>
+        <v>59800</v>
       </c>
       <c r="G32" s="3">
-        <v>-28600</v>
+        <v>6200</v>
       </c>
       <c r="H32" s="3">
-        <v>-11800</v>
+        <v>-25300</v>
       </c>
       <c r="I32" s="3">
-        <v>4000</v>
+        <v>-10500</v>
       </c>
       <c r="J32" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K32" s="3">
         <v>2800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7000</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>139400</v>
+        <v>483300</v>
       </c>
       <c r="E33" s="3">
-        <v>178500</v>
+        <v>123500</v>
       </c>
       <c r="F33" s="3">
+        <v>158100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
-        <v>50700</v>
-      </c>
       <c r="H33" s="3">
-        <v>12300</v>
+        <v>44900</v>
       </c>
       <c r="I33" s="3">
-        <v>4700</v>
+        <v>10900</v>
       </c>
       <c r="J33" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-10700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>900</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>139400</v>
+        <v>483300</v>
       </c>
       <c r="E35" s="3">
-        <v>178500</v>
+        <v>123500</v>
       </c>
       <c r="F35" s="3">
+        <v>158100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
-        <v>50700</v>
-      </c>
       <c r="H35" s="3">
-        <v>12300</v>
+        <v>44900</v>
       </c>
       <c r="I35" s="3">
-        <v>4700</v>
+        <v>10900</v>
       </c>
       <c r="J35" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-10700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>900</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>166700</v>
+        <v>197300</v>
       </c>
       <c r="E41" s="3">
-        <v>19500</v>
+        <v>147400</v>
       </c>
       <c r="F41" s="3">
-        <v>23500</v>
+        <v>17200</v>
       </c>
       <c r="G41" s="3">
-        <v>17100</v>
+        <v>20800</v>
       </c>
       <c r="H41" s="3">
-        <v>11100</v>
+        <v>15100</v>
       </c>
       <c r="I41" s="3">
-        <v>2000</v>
+        <v>9800</v>
       </c>
       <c r="J41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K41" s="3">
         <v>4600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9000</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>304200</v>
+        <v>366800</v>
       </c>
       <c r="E42" s="3">
-        <v>357300</v>
+        <v>269000</v>
       </c>
       <c r="F42" s="3">
-        <v>69600</v>
+        <v>316000</v>
       </c>
       <c r="G42" s="3">
-        <v>67500</v>
+        <v>61600</v>
       </c>
       <c r="H42" s="3">
-        <v>17000</v>
+        <v>59700</v>
       </c>
       <c r="I42" s="3">
-        <v>17700</v>
+        <v>15000</v>
       </c>
       <c r="J42" s="3">
+        <v>15600</v>
+      </c>
+      <c r="K42" s="3">
         <v>5000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>9600</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>482700</v>
+        <v>489000</v>
       </c>
       <c r="E43" s="3">
-        <v>465300</v>
+        <v>426900</v>
       </c>
       <c r="F43" s="3">
-        <v>231400</v>
+        <v>411500</v>
       </c>
       <c r="G43" s="3">
-        <v>78900</v>
+        <v>204700</v>
       </c>
       <c r="H43" s="3">
-        <v>47000</v>
+        <v>69800</v>
       </c>
       <c r="I43" s="3">
-        <v>37300</v>
+        <v>41600</v>
       </c>
       <c r="J43" s="3">
+        <v>33000</v>
+      </c>
+      <c r="K43" s="3">
         <v>28700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>35300</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>93400</v>
+        <v>115500</v>
       </c>
       <c r="E44" s="3">
-        <v>67000</v>
+        <v>82600</v>
       </c>
       <c r="F44" s="3">
-        <v>55500</v>
+        <v>59300</v>
       </c>
       <c r="G44" s="3">
-        <v>7200</v>
+        <v>49100</v>
       </c>
       <c r="H44" s="3">
-        <v>4200</v>
+        <v>6400</v>
       </c>
       <c r="I44" s="3">
-        <v>1300</v>
+        <v>3700</v>
       </c>
       <c r="J44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K44" s="3">
         <v>1700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2600</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4000</v>
+        <v>23700</v>
       </c>
       <c r="E45" s="3">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="F45" s="3">
-        <v>2600</v>
+        <v>4900</v>
       </c>
       <c r="G45" s="3">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="H45" s="3">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="I45" s="3">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="J45" s="3">
+        <v>500</v>
+      </c>
+      <c r="K45" s="3">
         <v>3800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7700</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1050900</v>
+        <v>1192400</v>
       </c>
       <c r="E46" s="3">
-        <v>914600</v>
+        <v>929500</v>
       </c>
       <c r="F46" s="3">
-        <v>382700</v>
+        <v>808900</v>
       </c>
       <c r="G46" s="3">
-        <v>160300</v>
+        <v>338500</v>
       </c>
       <c r="H46" s="3">
-        <v>72800</v>
+        <v>141800</v>
       </c>
       <c r="I46" s="3">
-        <v>58800</v>
+        <v>64400</v>
       </c>
       <c r="J46" s="3">
+        <v>52000</v>
+      </c>
+      <c r="K46" s="3">
         <v>35200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>49700</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>463100</v>
+        <v>541900</v>
       </c>
       <c r="E47" s="3">
-        <v>337700</v>
+        <v>409600</v>
       </c>
       <c r="F47" s="3">
-        <v>161300</v>
+        <v>298700</v>
       </c>
       <c r="G47" s="3">
-        <v>68700</v>
+        <v>142700</v>
       </c>
       <c r="H47" s="3">
-        <v>37700</v>
+        <v>60700</v>
       </c>
       <c r="I47" s="3">
-        <v>18600</v>
+        <v>33300</v>
       </c>
       <c r="J47" s="3">
+        <v>16400</v>
+      </c>
+      <c r="K47" s="3">
         <v>25600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>41700</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2290300</v>
+        <v>3071000</v>
       </c>
       <c r="E48" s="3">
-        <v>1844300</v>
+        <v>2025700</v>
       </c>
       <c r="F48" s="3">
-        <v>679400</v>
+        <v>1631200</v>
       </c>
       <c r="G48" s="3">
-        <v>239900</v>
+        <v>600900</v>
       </c>
       <c r="H48" s="3">
-        <v>152400</v>
+        <v>212200</v>
       </c>
       <c r="I48" s="3">
-        <v>114100</v>
+        <v>134800</v>
       </c>
       <c r="J48" s="3">
+        <v>100900</v>
+      </c>
+      <c r="K48" s="3">
         <v>199100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>329000</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>111400</v>
+        <v>146200</v>
       </c>
       <c r="E49" s="3">
-        <v>105000</v>
+        <v>98500</v>
       </c>
       <c r="F49" s="3">
-        <v>33300</v>
+        <v>92900</v>
       </c>
       <c r="G49" s="3">
-        <v>12100</v>
+        <v>29400</v>
       </c>
       <c r="H49" s="3">
-        <v>14400</v>
+        <v>10700</v>
       </c>
       <c r="I49" s="3">
-        <v>14900</v>
+        <v>12800</v>
       </c>
       <c r="J49" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K49" s="3">
         <v>59600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>91000</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2100</v>
+        <v>25500</v>
       </c>
       <c r="E52" s="3">
-        <v>337100</v>
+        <v>1800</v>
       </c>
       <c r="F52" s="3">
-        <v>20700</v>
+        <v>298200</v>
       </c>
       <c r="G52" s="3">
-        <v>900</v>
+        <v>18300</v>
       </c>
       <c r="H52" s="3">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="I52" s="3">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="J52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K52" s="3">
         <v>12300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>81600</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3917800</v>
+        <v>4977100</v>
       </c>
       <c r="E54" s="3">
-        <v>3525100</v>
+        <v>3465100</v>
       </c>
       <c r="F54" s="3">
-        <v>1277400</v>
+        <v>3117800</v>
       </c>
       <c r="G54" s="3">
-        <v>481800</v>
+        <v>1129800</v>
       </c>
       <c r="H54" s="3">
-        <v>278800</v>
+        <v>426200</v>
       </c>
       <c r="I54" s="3">
-        <v>207700</v>
+        <v>246600</v>
       </c>
       <c r="J54" s="3">
+        <v>183700</v>
+      </c>
+      <c r="K54" s="3">
         <v>187100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>316500</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>396000</v>
+        <v>330400</v>
       </c>
       <c r="E57" s="3">
-        <v>401200</v>
+        <v>350300</v>
       </c>
       <c r="F57" s="3">
-        <v>207800</v>
+        <v>354800</v>
       </c>
       <c r="G57" s="3">
-        <v>109400</v>
+        <v>183800</v>
       </c>
       <c r="H57" s="3">
-        <v>75000</v>
+        <v>96800</v>
       </c>
       <c r="I57" s="3">
-        <v>51100</v>
+        <v>66300</v>
       </c>
       <c r="J57" s="3">
+        <v>45200</v>
+      </c>
+      <c r="K57" s="3">
         <v>52600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>25300</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>236400</v>
+        <v>160400</v>
       </c>
       <c r="E58" s="3">
-        <v>142500</v>
+        <v>209100</v>
       </c>
       <c r="F58" s="3">
-        <v>176600</v>
+        <v>126100</v>
       </c>
       <c r="G58" s="3">
-        <v>21600</v>
+        <v>156200</v>
       </c>
       <c r="H58" s="3">
-        <v>13000</v>
+        <v>19100</v>
       </c>
       <c r="I58" s="3">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="J58" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K58" s="3">
         <v>13100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>47000</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>184900</v>
+        <v>256400</v>
       </c>
       <c r="E59" s="3">
-        <v>187500</v>
+        <v>163500</v>
       </c>
       <c r="F59" s="3">
-        <v>112500</v>
+        <v>165800</v>
       </c>
       <c r="G59" s="3">
-        <v>27300</v>
+        <v>99500</v>
       </c>
       <c r="H59" s="3">
-        <v>17500</v>
+        <v>24200</v>
       </c>
       <c r="I59" s="3">
-        <v>12700</v>
+        <v>15500</v>
       </c>
       <c r="J59" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K59" s="3">
         <v>15200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>24200</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>817200</v>
+        <v>747300</v>
       </c>
       <c r="E60" s="3">
-        <v>731200</v>
+        <v>722800</v>
       </c>
       <c r="F60" s="3">
-        <v>496900</v>
+        <v>646700</v>
       </c>
       <c r="G60" s="3">
-        <v>158400</v>
+        <v>439500</v>
       </c>
       <c r="H60" s="3">
-        <v>105400</v>
+        <v>140100</v>
       </c>
       <c r="I60" s="3">
-        <v>76300</v>
+        <v>93200</v>
       </c>
       <c r="J60" s="3">
+        <v>67500</v>
+      </c>
+      <c r="K60" s="3">
         <v>53000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>66100</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1267700</v>
+        <v>1544300</v>
       </c>
       <c r="E61" s="3">
-        <v>906100</v>
+        <v>1121200</v>
       </c>
       <c r="F61" s="3">
-        <v>252700</v>
+        <v>801400</v>
       </c>
       <c r="G61" s="3">
-        <v>110500</v>
+        <v>223500</v>
       </c>
       <c r="H61" s="3">
-        <v>62600</v>
+        <v>97700</v>
       </c>
       <c r="I61" s="3">
-        <v>48300</v>
+        <v>55400</v>
       </c>
       <c r="J61" s="3">
+        <v>42800</v>
+      </c>
+      <c r="K61" s="3">
         <v>36700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>65100</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>592900</v>
+        <v>576400</v>
       </c>
       <c r="E62" s="3">
-        <v>602300</v>
+        <v>524400</v>
       </c>
       <c r="F62" s="3">
-        <v>295100</v>
+        <v>532700</v>
       </c>
       <c r="G62" s="3">
-        <v>74400</v>
+        <v>261000</v>
       </c>
       <c r="H62" s="3">
-        <v>52100</v>
+        <v>65800</v>
       </c>
       <c r="I62" s="3">
-        <v>35500</v>
+        <v>46000</v>
       </c>
       <c r="J62" s="3">
+        <v>31400</v>
+      </c>
+      <c r="K62" s="3">
         <v>90700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>73600</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2973800</v>
+        <v>3297700</v>
       </c>
       <c r="E66" s="3">
-        <v>2591500</v>
+        <v>2630200</v>
       </c>
       <c r="F66" s="3">
-        <v>1094700</v>
+        <v>2292100</v>
       </c>
       <c r="G66" s="3">
-        <v>366300</v>
+        <v>968200</v>
       </c>
       <c r="H66" s="3">
-        <v>230500</v>
+        <v>324000</v>
       </c>
       <c r="I66" s="3">
-        <v>173000</v>
+        <v>203900</v>
       </c>
       <c r="J66" s="3">
+        <v>153000</v>
+      </c>
+      <c r="K66" s="3">
         <v>157300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>252600</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>420800</v>
+        <v>1031500</v>
       </c>
       <c r="E72" s="3">
-        <v>420900</v>
+        <v>372200</v>
       </c>
       <c r="F72" s="3">
-        <v>67500</v>
+        <v>372200</v>
       </c>
       <c r="G72" s="3">
-        <v>67700</v>
+        <v>59700</v>
       </c>
       <c r="H72" s="3">
-        <v>21400</v>
+        <v>59900</v>
       </c>
       <c r="I72" s="3">
-        <v>9000</v>
+        <v>18900</v>
       </c>
       <c r="J72" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-8600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10400</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>944000</v>
+        <v>1679300</v>
       </c>
       <c r="E76" s="3">
-        <v>933600</v>
+        <v>834900</v>
       </c>
       <c r="F76" s="3">
-        <v>182700</v>
+        <v>825700</v>
       </c>
       <c r="G76" s="3">
-        <v>115600</v>
+        <v>161600</v>
       </c>
       <c r="H76" s="3">
-        <v>48300</v>
+        <v>102200</v>
       </c>
       <c r="I76" s="3">
-        <v>34700</v>
+        <v>42700</v>
       </c>
       <c r="J76" s="3">
+        <v>30700</v>
+      </c>
+      <c r="K76" s="3">
         <v>29800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>63900</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>139400</v>
+        <v>483300</v>
       </c>
       <c r="E81" s="3">
-        <v>178500</v>
+        <v>123500</v>
       </c>
       <c r="F81" s="3">
+        <v>158100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
-        <v>50700</v>
-      </c>
       <c r="H81" s="3">
-        <v>12300</v>
+        <v>44900</v>
       </c>
       <c r="I81" s="3">
-        <v>4700</v>
+        <v>10900</v>
       </c>
       <c r="J81" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-10700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>900</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>145700</v>
+        <v>203800</v>
       </c>
       <c r="E83" s="3">
-        <v>127900</v>
+        <v>129100</v>
       </c>
       <c r="F83" s="3">
-        <v>36400</v>
+        <v>113300</v>
       </c>
       <c r="G83" s="3">
-        <v>11900</v>
+        <v>32200</v>
       </c>
       <c r="H83" s="3">
-        <v>7700</v>
+        <v>10500</v>
       </c>
       <c r="I83" s="3">
-        <v>6100</v>
+        <v>6800</v>
       </c>
       <c r="J83" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K83" s="3">
         <v>6200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>10200</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>378200</v>
+        <v>551900</v>
       </c>
       <c r="E89" s="3">
-        <v>264500</v>
+        <v>335000</v>
       </c>
       <c r="F89" s="3">
-        <v>98300</v>
+        <v>234300</v>
       </c>
       <c r="G89" s="3">
-        <v>72200</v>
+        <v>87000</v>
       </c>
       <c r="H89" s="3">
-        <v>42600</v>
+        <v>63900</v>
       </c>
       <c r="I89" s="3">
-        <v>29700</v>
+        <v>37700</v>
       </c>
       <c r="J89" s="3">
+        <v>26300</v>
+      </c>
+      <c r="K89" s="3">
         <v>19800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>29800</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-420000</v>
+        <v>-421800</v>
       </c>
       <c r="E91" s="3">
-        <v>-302300</v>
+        <v>-372000</v>
       </c>
       <c r="F91" s="3">
-        <v>-103200</v>
+        <v>-267800</v>
       </c>
       <c r="G91" s="3">
-        <v>-79300</v>
+        <v>-91400</v>
       </c>
       <c r="H91" s="3">
-        <v>-38500</v>
+        <v>-70200</v>
       </c>
       <c r="I91" s="3">
-        <v>-19800</v>
+        <v>-34100</v>
       </c>
       <c r="J91" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-11300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-42800</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>12200</v>
+        <v>-251700</v>
       </c>
       <c r="E94" s="3">
-        <v>-527900</v>
+        <v>10800</v>
       </c>
       <c r="F94" s="3">
-        <v>-185600</v>
+        <v>-467600</v>
       </c>
       <c r="G94" s="3">
-        <v>-117600</v>
+        <v>-164400</v>
       </c>
       <c r="H94" s="3">
-        <v>-40900</v>
+        <v>-104200</v>
       </c>
       <c r="I94" s="3">
-        <v>-26000</v>
+        <v>-36200</v>
       </c>
       <c r="J94" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-14900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-44900</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1400</v>
+        <v>-800</v>
       </c>
       <c r="E96" s="3">
         <v>-1200</v>
       </c>
       <c r="F96" s="3">
-        <v>-600</v>
+        <v>-1100</v>
       </c>
       <c r="G96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H96" s="3">
         <v>-400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-300</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-500</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-292800</v>
+        <v>-310000</v>
       </c>
       <c r="E100" s="3">
-        <v>231300</v>
+        <v>-259300</v>
       </c>
       <c r="F100" s="3">
-        <v>96400</v>
+        <v>204800</v>
       </c>
       <c r="G100" s="3">
-        <v>47100</v>
+        <v>85400</v>
       </c>
       <c r="H100" s="3">
-        <v>-2400</v>
+        <v>41800</v>
       </c>
       <c r="I100" s="3">
-        <v>-1600</v>
+        <v>-2200</v>
       </c>
       <c r="J100" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-9000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>10300</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>33200</v>
+        <v>74200</v>
       </c>
       <c r="E101" s="3">
-        <v>8400</v>
+        <v>29400</v>
       </c>
       <c r="F101" s="3">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="G101" s="3">
-        <v>1300</v>
+        <v>5300</v>
       </c>
       <c r="H101" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I101" s="3">
         <v>600</v>
-      </c>
-      <c r="I101" s="3">
-        <v>800</v>
       </c>
       <c r="J101" s="3">
         <v>700</v>
       </c>
       <c r="K101" s="3">
+        <v>700</v>
+      </c>
+      <c r="L101" s="3">
         <v>2700</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>130900</v>
+        <v>64400</v>
       </c>
       <c r="E102" s="3">
-        <v>-23700</v>
+        <v>115900</v>
       </c>
       <c r="F102" s="3">
-        <v>14900</v>
+        <v>-21000</v>
       </c>
       <c r="G102" s="3">
-        <v>3000</v>
+        <v>13200</v>
       </c>
       <c r="H102" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>2900</v>
-      </c>
       <c r="J102" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-3400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2100</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PAM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PAM_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2264000</v>
+        <v>2098500</v>
       </c>
       <c r="E8" s="3">
-        <v>1611600</v>
+        <v>1493800</v>
       </c>
       <c r="F8" s="3">
-        <v>1200600</v>
+        <v>1112800</v>
       </c>
       <c r="G8" s="3">
-        <v>367600</v>
+        <v>340700</v>
       </c>
       <c r="H8" s="3">
-        <v>104800</v>
+        <v>97200</v>
       </c>
       <c r="I8" s="3">
-        <v>90800</v>
+        <v>84200</v>
       </c>
       <c r="J8" s="3">
-        <v>78100</v>
+        <v>72400</v>
       </c>
       <c r="K8" s="3">
         <v>110700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1623900</v>
+        <v>1505200</v>
       </c>
       <c r="E9" s="3">
-        <v>1055100</v>
+        <v>978000</v>
       </c>
       <c r="F9" s="3">
-        <v>862500</v>
+        <v>799500</v>
       </c>
       <c r="G9" s="3">
-        <v>260200</v>
+        <v>241200</v>
       </c>
       <c r="H9" s="3">
-        <v>100000</v>
+        <v>92700</v>
       </c>
       <c r="I9" s="3">
-        <v>88300</v>
+        <v>81800</v>
       </c>
       <c r="J9" s="3">
-        <v>82000</v>
+        <v>76000</v>
       </c>
       <c r="K9" s="3">
         <v>220500</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>640100</v>
+        <v>593300</v>
       </c>
       <c r="E10" s="3">
-        <v>556500</v>
+        <v>515800</v>
       </c>
       <c r="F10" s="3">
-        <v>338100</v>
+        <v>313400</v>
       </c>
       <c r="G10" s="3">
-        <v>107400</v>
+        <v>99500</v>
       </c>
       <c r="H10" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="I10" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="J10" s="3">
-        <v>-3900</v>
+        <v>-3600</v>
       </c>
       <c r="K10" s="3">
         <v>-109800</v>
@@ -831,7 +831,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="E12" s="3">
         <v>400</v>
@@ -840,7 +840,7 @@
         <v>600</v>
       </c>
       <c r="G12" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>8</v>
@@ -897,19 +897,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-67900</v>
+        <v>-62900</v>
       </c>
       <c r="E14" s="3">
-        <v>-298800</v>
+        <v>-276900</v>
       </c>
       <c r="F14" s="3">
-        <v>-163400</v>
+        <v>-151500</v>
       </c>
       <c r="G14" s="3">
-        <v>75400</v>
+        <v>69900</v>
       </c>
       <c r="H14" s="3">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="I14" s="3">
         <v>-1000</v>
@@ -930,16 +930,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>21100</v>
+        <v>19600</v>
       </c>
       <c r="E15" s="3">
-        <v>11400</v>
+        <v>10500</v>
       </c>
       <c r="F15" s="3">
-        <v>5000</v>
+        <v>4700</v>
       </c>
       <c r="G15" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="H15" s="3">
         <v>700</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1505400</v>
+        <v>1395300</v>
       </c>
       <c r="E17" s="3">
-        <v>894100</v>
+        <v>828800</v>
       </c>
       <c r="F17" s="3">
-        <v>829500</v>
+        <v>768900</v>
       </c>
       <c r="G17" s="3">
-        <v>338600</v>
+        <v>313800</v>
       </c>
       <c r="H17" s="3">
-        <v>51500</v>
+        <v>47700</v>
       </c>
       <c r="I17" s="3">
-        <v>77900</v>
+        <v>72200</v>
       </c>
       <c r="J17" s="3">
-        <v>52800</v>
+        <v>49000</v>
       </c>
       <c r="K17" s="3">
         <v>122000</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>758600</v>
+        <v>703100</v>
       </c>
       <c r="E18" s="3">
-        <v>717400</v>
+        <v>665000</v>
       </c>
       <c r="F18" s="3">
-        <v>371100</v>
+        <v>344000</v>
       </c>
       <c r="G18" s="3">
-        <v>29000</v>
+        <v>26900</v>
       </c>
       <c r="H18" s="3">
-        <v>53300</v>
+        <v>49400</v>
       </c>
       <c r="I18" s="3">
-        <v>12900</v>
+        <v>12000</v>
       </c>
       <c r="J18" s="3">
-        <v>25300</v>
+        <v>23400</v>
       </c>
       <c r="K18" s="3">
         <v>-11300</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>77700</v>
+        <v>72000</v>
       </c>
       <c r="E20" s="3">
-        <v>-477800</v>
+        <v>-442900</v>
       </c>
       <c r="F20" s="3">
-        <v>-59800</v>
+        <v>-55400</v>
       </c>
       <c r="G20" s="3">
-        <v>-6200</v>
+        <v>-5800</v>
       </c>
       <c r="H20" s="3">
-        <v>25300</v>
+        <v>23500</v>
       </c>
       <c r="I20" s="3">
-        <v>10500</v>
+        <v>9700</v>
       </c>
       <c r="J20" s="3">
-        <v>-3600</v>
+        <v>-3300</v>
       </c>
       <c r="K20" s="3">
         <v>-2800</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1040400</v>
+        <v>964200</v>
       </c>
       <c r="E21" s="3">
-        <v>368900</v>
+        <v>341800</v>
       </c>
       <c r="F21" s="3">
-        <v>424800</v>
+        <v>393600</v>
       </c>
       <c r="G21" s="3">
-        <v>55100</v>
+        <v>51000</v>
       </c>
       <c r="H21" s="3">
-        <v>89200</v>
+        <v>82700</v>
       </c>
       <c r="I21" s="3">
-        <v>30300</v>
+        <v>28000</v>
       </c>
       <c r="J21" s="3">
-        <v>27100</v>
+        <v>25200</v>
       </c>
       <c r="K21" s="3">
         <v>-7900</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>171200</v>
+        <v>158700</v>
       </c>
       <c r="E22" s="3">
-        <v>116000</v>
+        <v>107500</v>
       </c>
       <c r="F22" s="3">
-        <v>89400</v>
+        <v>82900</v>
       </c>
       <c r="G22" s="3">
-        <v>45100</v>
+        <v>41800</v>
       </c>
       <c r="H22" s="3">
-        <v>13700</v>
+        <v>12700</v>
       </c>
       <c r="I22" s="3">
-        <v>14200</v>
+        <v>13100</v>
       </c>
       <c r="J22" s="3">
-        <v>11000</v>
+        <v>10200</v>
       </c>
       <c r="K22" s="3">
         <v>6500</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>665100</v>
+        <v>616500</v>
       </c>
       <c r="E23" s="3">
-        <v>123700</v>
+        <v>114600</v>
       </c>
       <c r="F23" s="3">
-        <v>221900</v>
+        <v>205700</v>
       </c>
       <c r="G23" s="3">
-        <v>-22300</v>
+        <v>-20700</v>
       </c>
       <c r="H23" s="3">
-        <v>64900</v>
+        <v>60200</v>
       </c>
       <c r="I23" s="3">
-        <v>9200</v>
+        <v>8500</v>
       </c>
       <c r="J23" s="3">
-        <v>10700</v>
+        <v>9900</v>
       </c>
       <c r="K23" s="3">
         <v>-20600</v>
@@ -1188,22 +1188,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>89700</v>
+        <v>83100</v>
       </c>
       <c r="E24" s="3">
-        <v>9600</v>
+        <v>8900</v>
       </c>
       <c r="F24" s="3">
-        <v>-14400</v>
+        <v>-13400</v>
       </c>
       <c r="G24" s="3">
-        <v>-17600</v>
+        <v>-16300</v>
       </c>
       <c r="H24" s="3">
-        <v>8600</v>
+        <v>8000</v>
       </c>
       <c r="I24" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="J24" s="3">
         <v>-200</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>575500</v>
+        <v>533400</v>
       </c>
       <c r="E26" s="3">
-        <v>114000</v>
+        <v>105700</v>
       </c>
       <c r="F26" s="3">
-        <v>236300</v>
+        <v>219000</v>
       </c>
       <c r="G26" s="3">
-        <v>-4700</v>
+        <v>-4400</v>
       </c>
       <c r="H26" s="3">
-        <v>56300</v>
+        <v>52200</v>
       </c>
       <c r="I26" s="3">
-        <v>7800</v>
+        <v>7200</v>
       </c>
       <c r="J26" s="3">
-        <v>10900</v>
+        <v>10100</v>
       </c>
       <c r="K26" s="3">
         <v>-18400</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>483300</v>
+        <v>448000</v>
       </c>
       <c r="E27" s="3">
-        <v>79300</v>
+        <v>73500</v>
       </c>
       <c r="F27" s="3">
-        <v>185800</v>
+        <v>172200</v>
       </c>
       <c r="G27" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="H27" s="3">
-        <v>44900</v>
+        <v>41600</v>
       </c>
       <c r="I27" s="3">
-        <v>10900</v>
+        <v>10100</v>
       </c>
       <c r="J27" s="3">
-        <v>6000</v>
+        <v>5600</v>
       </c>
       <c r="K27" s="3">
         <v>-11300</v>
@@ -1356,13 +1356,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>44200</v>
+        <v>41000</v>
       </c>
       <c r="F29" s="3">
-        <v>-27700</v>
+        <v>-25700</v>
       </c>
       <c r="G29" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>-1900</v>
+        <v>-1700</v>
       </c>
       <c r="K29" s="3">
         <v>500</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-77700</v>
+        <v>-72000</v>
       </c>
       <c r="E32" s="3">
-        <v>477800</v>
+        <v>442900</v>
       </c>
       <c r="F32" s="3">
-        <v>59800</v>
+        <v>55400</v>
       </c>
       <c r="G32" s="3">
-        <v>6200</v>
+        <v>5800</v>
       </c>
       <c r="H32" s="3">
-        <v>-25300</v>
+        <v>-23500</v>
       </c>
       <c r="I32" s="3">
-        <v>-10500</v>
+        <v>-9700</v>
       </c>
       <c r="J32" s="3">
-        <v>3600</v>
+        <v>3300</v>
       </c>
       <c r="K32" s="3">
         <v>2800</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>483300</v>
+        <v>448000</v>
       </c>
       <c r="E33" s="3">
-        <v>123500</v>
+        <v>114500</v>
       </c>
       <c r="F33" s="3">
-        <v>158100</v>
+        <v>146500</v>
       </c>
       <c r="G33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H33" s="3">
-        <v>44900</v>
+        <v>41600</v>
       </c>
       <c r="I33" s="3">
-        <v>10900</v>
+        <v>10100</v>
       </c>
       <c r="J33" s="3">
-        <v>4200</v>
+        <v>3900</v>
       </c>
       <c r="K33" s="3">
         <v>-10700</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>483300</v>
+        <v>448000</v>
       </c>
       <c r="E35" s="3">
-        <v>123500</v>
+        <v>114500</v>
       </c>
       <c r="F35" s="3">
-        <v>158100</v>
+        <v>146500</v>
       </c>
       <c r="G35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H35" s="3">
-        <v>44900</v>
+        <v>41600</v>
       </c>
       <c r="I35" s="3">
-        <v>10900</v>
+        <v>10100</v>
       </c>
       <c r="J35" s="3">
-        <v>4200</v>
+        <v>3900</v>
       </c>
       <c r="K35" s="3">
         <v>-10700</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>197300</v>
+        <v>183100</v>
       </c>
       <c r="E41" s="3">
-        <v>147400</v>
+        <v>136800</v>
       </c>
       <c r="F41" s="3">
-        <v>17200</v>
+        <v>16000</v>
       </c>
       <c r="G41" s="3">
-        <v>20800</v>
+        <v>19300</v>
       </c>
       <c r="H41" s="3">
-        <v>15100</v>
+        <v>14000</v>
       </c>
       <c r="I41" s="3">
-        <v>9800</v>
+        <v>9100</v>
       </c>
       <c r="J41" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K41" s="3">
         <v>4600</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>366800</v>
+        <v>340500</v>
       </c>
       <c r="E42" s="3">
-        <v>269000</v>
+        <v>249700</v>
       </c>
       <c r="F42" s="3">
-        <v>316000</v>
+        <v>293300</v>
       </c>
       <c r="G42" s="3">
-        <v>61600</v>
+        <v>57100</v>
       </c>
       <c r="H42" s="3">
-        <v>59700</v>
+        <v>55400</v>
       </c>
       <c r="I42" s="3">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="J42" s="3">
-        <v>15600</v>
+        <v>14500</v>
       </c>
       <c r="K42" s="3">
         <v>5000</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>489000</v>
+        <v>453900</v>
       </c>
       <c r="E43" s="3">
-        <v>426900</v>
+        <v>396200</v>
       </c>
       <c r="F43" s="3">
-        <v>411500</v>
+        <v>382000</v>
       </c>
       <c r="G43" s="3">
-        <v>204700</v>
+        <v>190000</v>
       </c>
       <c r="H43" s="3">
-        <v>69800</v>
+        <v>64800</v>
       </c>
       <c r="I43" s="3">
-        <v>41600</v>
+        <v>38600</v>
       </c>
       <c r="J43" s="3">
-        <v>33000</v>
+        <v>30600</v>
       </c>
       <c r="K43" s="3">
         <v>28700</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>115500</v>
+        <v>107200</v>
       </c>
       <c r="E44" s="3">
-        <v>82600</v>
+        <v>76600</v>
       </c>
       <c r="F44" s="3">
-        <v>59300</v>
+        <v>55000</v>
       </c>
       <c r="G44" s="3">
-        <v>49100</v>
+        <v>45600</v>
       </c>
       <c r="H44" s="3">
-        <v>6400</v>
+        <v>5900</v>
       </c>
       <c r="I44" s="3">
-        <v>3700</v>
+        <v>3400</v>
       </c>
       <c r="J44" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K44" s="3">
         <v>1700</v>
@@ -1784,19 +1784,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>23700</v>
+        <v>22000</v>
       </c>
       <c r="E45" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="F45" s="3">
-        <v>4900</v>
+        <v>4500</v>
       </c>
       <c r="G45" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="H45" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="I45" s="3">
         <v>1100</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1192400</v>
+        <v>1106800</v>
       </c>
       <c r="E46" s="3">
-        <v>929500</v>
+        <v>862700</v>
       </c>
       <c r="F46" s="3">
-        <v>808900</v>
+        <v>750800</v>
       </c>
       <c r="G46" s="3">
-        <v>338500</v>
+        <v>314100</v>
       </c>
       <c r="H46" s="3">
-        <v>141800</v>
+        <v>131600</v>
       </c>
       <c r="I46" s="3">
-        <v>64400</v>
+        <v>59700</v>
       </c>
       <c r="J46" s="3">
-        <v>52000</v>
+        <v>48300</v>
       </c>
       <c r="K46" s="3">
         <v>35200</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>541900</v>
+        <v>503000</v>
       </c>
       <c r="E47" s="3">
-        <v>409600</v>
+        <v>380200</v>
       </c>
       <c r="F47" s="3">
-        <v>298700</v>
+        <v>277200</v>
       </c>
       <c r="G47" s="3">
-        <v>142700</v>
+        <v>132400</v>
       </c>
       <c r="H47" s="3">
-        <v>60700</v>
+        <v>56400</v>
       </c>
       <c r="I47" s="3">
-        <v>33300</v>
+        <v>30900</v>
       </c>
       <c r="J47" s="3">
-        <v>16400</v>
+        <v>15200</v>
       </c>
       <c r="K47" s="3">
         <v>25600</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3071000</v>
+        <v>2850500</v>
       </c>
       <c r="E48" s="3">
-        <v>2025700</v>
+        <v>1880200</v>
       </c>
       <c r="F48" s="3">
-        <v>1631200</v>
+        <v>1514000</v>
       </c>
       <c r="G48" s="3">
-        <v>600900</v>
+        <v>557800</v>
       </c>
       <c r="H48" s="3">
-        <v>212200</v>
+        <v>196900</v>
       </c>
       <c r="I48" s="3">
-        <v>134800</v>
+        <v>125100</v>
       </c>
       <c r="J48" s="3">
-        <v>100900</v>
+        <v>93700</v>
       </c>
       <c r="K48" s="3">
         <v>199100</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>146200</v>
+        <v>135700</v>
       </c>
       <c r="E49" s="3">
-        <v>98500</v>
+        <v>91400</v>
       </c>
       <c r="F49" s="3">
-        <v>92900</v>
+        <v>86200</v>
       </c>
       <c r="G49" s="3">
-        <v>29400</v>
+        <v>27300</v>
       </c>
       <c r="H49" s="3">
-        <v>10700</v>
+        <v>10000</v>
       </c>
       <c r="I49" s="3">
-        <v>12800</v>
+        <v>11800</v>
       </c>
       <c r="J49" s="3">
-        <v>13200</v>
+        <v>12200</v>
       </c>
       <c r="K49" s="3">
         <v>59600</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>25500</v>
+        <v>23700</v>
       </c>
       <c r="E52" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="F52" s="3">
-        <v>298200</v>
+        <v>276700</v>
       </c>
       <c r="G52" s="3">
-        <v>18300</v>
+        <v>17000</v>
       </c>
       <c r="H52" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="J52" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K52" s="3">
         <v>12300</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4977100</v>
+        <v>4619600</v>
       </c>
       <c r="E54" s="3">
-        <v>3465100</v>
+        <v>3216300</v>
       </c>
       <c r="F54" s="3">
-        <v>3117800</v>
+        <v>2893900</v>
       </c>
       <c r="G54" s="3">
-        <v>1129800</v>
+        <v>1048600</v>
       </c>
       <c r="H54" s="3">
-        <v>426200</v>
+        <v>395600</v>
       </c>
       <c r="I54" s="3">
-        <v>246600</v>
+        <v>228900</v>
       </c>
       <c r="J54" s="3">
-        <v>183700</v>
+        <v>170500</v>
       </c>
       <c r="K54" s="3">
         <v>187100</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>330400</v>
+        <v>306700</v>
       </c>
       <c r="E57" s="3">
-        <v>350300</v>
+        <v>325100</v>
       </c>
       <c r="F57" s="3">
-        <v>354800</v>
+        <v>329400</v>
       </c>
       <c r="G57" s="3">
-        <v>183800</v>
+        <v>170600</v>
       </c>
       <c r="H57" s="3">
-        <v>96800</v>
+        <v>89800</v>
       </c>
       <c r="I57" s="3">
-        <v>66300</v>
+        <v>61500</v>
       </c>
       <c r="J57" s="3">
-        <v>45200</v>
+        <v>41900</v>
       </c>
       <c r="K57" s="3">
         <v>52600</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>160400</v>
+        <v>148900</v>
       </c>
       <c r="E58" s="3">
-        <v>209100</v>
+        <v>194000</v>
       </c>
       <c r="F58" s="3">
-        <v>126100</v>
+        <v>117000</v>
       </c>
       <c r="G58" s="3">
-        <v>156200</v>
+        <v>145000</v>
       </c>
       <c r="H58" s="3">
-        <v>19100</v>
+        <v>17700</v>
       </c>
       <c r="I58" s="3">
-        <v>11500</v>
+        <v>10600</v>
       </c>
       <c r="J58" s="3">
-        <v>11000</v>
+        <v>10200</v>
       </c>
       <c r="K58" s="3">
         <v>13100</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>256400</v>
+        <v>238000</v>
       </c>
       <c r="E59" s="3">
-        <v>163500</v>
+        <v>151800</v>
       </c>
       <c r="F59" s="3">
-        <v>165800</v>
+        <v>153900</v>
       </c>
       <c r="G59" s="3">
-        <v>99500</v>
+        <v>92300</v>
       </c>
       <c r="H59" s="3">
-        <v>24200</v>
+        <v>22400</v>
       </c>
       <c r="I59" s="3">
-        <v>15500</v>
+        <v>14400</v>
       </c>
       <c r="J59" s="3">
-        <v>11300</v>
+        <v>10500</v>
       </c>
       <c r="K59" s="3">
         <v>15200</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>747300</v>
+        <v>693600</v>
       </c>
       <c r="E60" s="3">
-        <v>722800</v>
+        <v>670900</v>
       </c>
       <c r="F60" s="3">
-        <v>646700</v>
+        <v>600300</v>
       </c>
       <c r="G60" s="3">
-        <v>439500</v>
+        <v>408000</v>
       </c>
       <c r="H60" s="3">
-        <v>140100</v>
+        <v>130000</v>
       </c>
       <c r="I60" s="3">
-        <v>93200</v>
+        <v>86500</v>
       </c>
       <c r="J60" s="3">
-        <v>67500</v>
+        <v>62600</v>
       </c>
       <c r="K60" s="3">
         <v>53000</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1544300</v>
+        <v>1433400</v>
       </c>
       <c r="E61" s="3">
-        <v>1121200</v>
+        <v>1040700</v>
       </c>
       <c r="F61" s="3">
-        <v>801400</v>
+        <v>743900</v>
       </c>
       <c r="G61" s="3">
-        <v>223500</v>
+        <v>207400</v>
       </c>
       <c r="H61" s="3">
-        <v>97700</v>
+        <v>90700</v>
       </c>
       <c r="I61" s="3">
-        <v>55400</v>
+        <v>51400</v>
       </c>
       <c r="J61" s="3">
-        <v>42800</v>
+        <v>39700</v>
       </c>
       <c r="K61" s="3">
         <v>36700</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>576400</v>
+        <v>535000</v>
       </c>
       <c r="E62" s="3">
-        <v>524400</v>
+        <v>486700</v>
       </c>
       <c r="F62" s="3">
-        <v>532700</v>
+        <v>494400</v>
       </c>
       <c r="G62" s="3">
-        <v>261000</v>
+        <v>242300</v>
       </c>
       <c r="H62" s="3">
-        <v>65800</v>
+        <v>61100</v>
       </c>
       <c r="I62" s="3">
-        <v>46000</v>
+        <v>42700</v>
       </c>
       <c r="J62" s="3">
-        <v>31400</v>
+        <v>29200</v>
       </c>
       <c r="K62" s="3">
         <v>90700</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3297700</v>
+        <v>3060900</v>
       </c>
       <c r="E66" s="3">
-        <v>2630200</v>
+        <v>2441300</v>
       </c>
       <c r="F66" s="3">
-        <v>2292100</v>
+        <v>2127500</v>
       </c>
       <c r="G66" s="3">
-        <v>968200</v>
+        <v>898600</v>
       </c>
       <c r="H66" s="3">
-        <v>324000</v>
+        <v>300700</v>
       </c>
       <c r="I66" s="3">
-        <v>203900</v>
+        <v>189300</v>
       </c>
       <c r="J66" s="3">
-        <v>153000</v>
+        <v>142000</v>
       </c>
       <c r="K66" s="3">
         <v>157300</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1031500</v>
+        <v>957400</v>
       </c>
       <c r="E72" s="3">
-        <v>372200</v>
+        <v>345500</v>
       </c>
       <c r="F72" s="3">
-        <v>372200</v>
+        <v>345500</v>
       </c>
       <c r="G72" s="3">
-        <v>59700</v>
+        <v>55400</v>
       </c>
       <c r="H72" s="3">
-        <v>59900</v>
+        <v>55600</v>
       </c>
       <c r="I72" s="3">
-        <v>18900</v>
+        <v>17600</v>
       </c>
       <c r="J72" s="3">
-        <v>8000</v>
+        <v>7400</v>
       </c>
       <c r="K72" s="3">
         <v>-8600</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1679300</v>
+        <v>1558700</v>
       </c>
       <c r="E76" s="3">
-        <v>834900</v>
+        <v>774900</v>
       </c>
       <c r="F76" s="3">
-        <v>825700</v>
+        <v>766400</v>
       </c>
       <c r="G76" s="3">
-        <v>161600</v>
+        <v>150000</v>
       </c>
       <c r="H76" s="3">
-        <v>102200</v>
+        <v>94900</v>
       </c>
       <c r="I76" s="3">
-        <v>42700</v>
+        <v>39600</v>
       </c>
       <c r="J76" s="3">
-        <v>30700</v>
+        <v>28500</v>
       </c>
       <c r="K76" s="3">
         <v>29800</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>483300</v>
+        <v>448000</v>
       </c>
       <c r="E81" s="3">
-        <v>123500</v>
+        <v>114500</v>
       </c>
       <c r="F81" s="3">
-        <v>158100</v>
+        <v>146500</v>
       </c>
       <c r="G81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H81" s="3">
-        <v>44900</v>
+        <v>41600</v>
       </c>
       <c r="I81" s="3">
-        <v>10900</v>
+        <v>10100</v>
       </c>
       <c r="J81" s="3">
-        <v>4200</v>
+        <v>3900</v>
       </c>
       <c r="K81" s="3">
         <v>-10700</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>203800</v>
+        <v>188900</v>
       </c>
       <c r="E83" s="3">
-        <v>129100</v>
+        <v>119600</v>
       </c>
       <c r="F83" s="3">
-        <v>113300</v>
+        <v>105000</v>
       </c>
       <c r="G83" s="3">
-        <v>32200</v>
+        <v>29900</v>
       </c>
       <c r="H83" s="3">
-        <v>10500</v>
+        <v>9800</v>
       </c>
       <c r="I83" s="3">
-        <v>6800</v>
+        <v>6300</v>
       </c>
       <c r="J83" s="3">
-        <v>5400</v>
+        <v>5000</v>
       </c>
       <c r="K83" s="3">
         <v>6200</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>551900</v>
+        <v>511500</v>
       </c>
       <c r="E89" s="3">
-        <v>335000</v>
+        <v>310500</v>
       </c>
       <c r="F89" s="3">
-        <v>234300</v>
+        <v>217200</v>
       </c>
       <c r="G89" s="3">
-        <v>87000</v>
+        <v>80700</v>
       </c>
       <c r="H89" s="3">
-        <v>63900</v>
+        <v>59200</v>
       </c>
       <c r="I89" s="3">
-        <v>37700</v>
+        <v>34900</v>
       </c>
       <c r="J89" s="3">
-        <v>26300</v>
+        <v>24400</v>
       </c>
       <c r="K89" s="3">
         <v>19800</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-421800</v>
+        <v>-391000</v>
       </c>
       <c r="E91" s="3">
-        <v>-372000</v>
+        <v>-344800</v>
       </c>
       <c r="F91" s="3">
-        <v>-267800</v>
+        <v>-248200</v>
       </c>
       <c r="G91" s="3">
-        <v>-91400</v>
+        <v>-84700</v>
       </c>
       <c r="H91" s="3">
-        <v>-70200</v>
+        <v>-65100</v>
       </c>
       <c r="I91" s="3">
-        <v>-34100</v>
+        <v>-31600</v>
       </c>
       <c r="J91" s="3">
-        <v>-17500</v>
+        <v>-16300</v>
       </c>
       <c r="K91" s="3">
         <v>-11300</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-251700</v>
+        <v>-233300</v>
       </c>
       <c r="E94" s="3">
-        <v>10800</v>
+        <v>10000</v>
       </c>
       <c r="F94" s="3">
-        <v>-467600</v>
+        <v>-433400</v>
       </c>
       <c r="G94" s="3">
-        <v>-164400</v>
+        <v>-152400</v>
       </c>
       <c r="H94" s="3">
-        <v>-104200</v>
+        <v>-96600</v>
       </c>
       <c r="I94" s="3">
-        <v>-36200</v>
+        <v>-33500</v>
       </c>
       <c r="J94" s="3">
-        <v>-23100</v>
+        <v>-21400</v>
       </c>
       <c r="K94" s="3">
         <v>-14900</v>
@@ -3301,10 +3301,10 @@
         <v>-800</v>
       </c>
       <c r="E96" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="F96" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="G96" s="3">
         <v>-500</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-310000</v>
+        <v>-287300</v>
       </c>
       <c r="E100" s="3">
-        <v>-259300</v>
+        <v>-240400</v>
       </c>
       <c r="F100" s="3">
-        <v>204800</v>
+        <v>189900</v>
       </c>
       <c r="G100" s="3">
-        <v>85400</v>
+        <v>79100</v>
       </c>
       <c r="H100" s="3">
-        <v>41800</v>
+        <v>38700</v>
       </c>
       <c r="I100" s="3">
-        <v>-2200</v>
+        <v>-2000</v>
       </c>
       <c r="J100" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="K100" s="3">
         <v>-9000</v>
@@ -3463,22 +3463,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>74200</v>
+        <v>68800</v>
       </c>
       <c r="E101" s="3">
-        <v>29400</v>
+        <v>27300</v>
       </c>
       <c r="F101" s="3">
-        <v>7500</v>
+        <v>6900</v>
       </c>
       <c r="G101" s="3">
-        <v>5300</v>
+        <v>4900</v>
       </c>
       <c r="H101" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I101" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J101" s="3">
         <v>700</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>64400</v>
+        <v>59700</v>
       </c>
       <c r="E102" s="3">
-        <v>115900</v>
+        <v>107400</v>
       </c>
       <c r="F102" s="3">
-        <v>-21000</v>
+        <v>-19500</v>
       </c>
       <c r="G102" s="3">
-        <v>13200</v>
+        <v>12300</v>
       </c>
       <c r="H102" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="I102" s="3">
         <v>-100</v>
       </c>
       <c r="J102" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="K102" s="3">
         <v>-3400</v>

--- a/AAII_Financials/Yearly/PAM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PAM_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2098500</v>
+        <v>1908300</v>
       </c>
       <c r="E8" s="3">
-        <v>1493800</v>
+        <v>1358400</v>
       </c>
       <c r="F8" s="3">
-        <v>1112800</v>
+        <v>1012000</v>
       </c>
       <c r="G8" s="3">
-        <v>340700</v>
+        <v>309900</v>
       </c>
       <c r="H8" s="3">
-        <v>97200</v>
+        <v>88400</v>
       </c>
       <c r="I8" s="3">
-        <v>84200</v>
+        <v>76600</v>
       </c>
       <c r="J8" s="3">
-        <v>72400</v>
+        <v>65800</v>
       </c>
       <c r="K8" s="3">
         <v>110700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1505200</v>
+        <v>1368800</v>
       </c>
       <c r="E9" s="3">
-        <v>978000</v>
+        <v>889300</v>
       </c>
       <c r="F9" s="3">
-        <v>799500</v>
+        <v>727000</v>
       </c>
       <c r="G9" s="3">
-        <v>241200</v>
+        <v>219400</v>
       </c>
       <c r="H9" s="3">
-        <v>92700</v>
+        <v>84300</v>
       </c>
       <c r="I9" s="3">
-        <v>81800</v>
+        <v>74400</v>
       </c>
       <c r="J9" s="3">
-        <v>76000</v>
+        <v>69100</v>
       </c>
       <c r="K9" s="3">
         <v>220500</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>593300</v>
+        <v>539500</v>
       </c>
       <c r="E10" s="3">
-        <v>515800</v>
+        <v>469100</v>
       </c>
       <c r="F10" s="3">
-        <v>313400</v>
+        <v>285000</v>
       </c>
       <c r="G10" s="3">
-        <v>99500</v>
+        <v>90500</v>
       </c>
       <c r="H10" s="3">
-        <v>4500</v>
+        <v>4100</v>
       </c>
       <c r="I10" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="J10" s="3">
-        <v>-3600</v>
+        <v>-3300</v>
       </c>
       <c r="K10" s="3">
         <v>-109800</v>
@@ -831,16 +831,16 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="E12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F12" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G12" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>8</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-62900</v>
+        <v>-57200</v>
       </c>
       <c r="E14" s="3">
-        <v>-276900</v>
+        <v>-251800</v>
       </c>
       <c r="F14" s="3">
-        <v>-151500</v>
+        <v>-137700</v>
       </c>
       <c r="G14" s="3">
-        <v>69900</v>
+        <v>63600</v>
       </c>
       <c r="H14" s="3">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="I14" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="J14" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K14" s="3">
         <v>1800</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>19600</v>
+        <v>17800</v>
       </c>
       <c r="E15" s="3">
-        <v>10500</v>
+        <v>9600</v>
       </c>
       <c r="F15" s="3">
-        <v>4700</v>
+        <v>4200</v>
       </c>
       <c r="G15" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H15" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J15" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K15" s="3">
         <v>500</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1395300</v>
+        <v>1268900</v>
       </c>
       <c r="E17" s="3">
-        <v>828800</v>
+        <v>753700</v>
       </c>
       <c r="F17" s="3">
-        <v>768900</v>
+        <v>699200</v>
       </c>
       <c r="G17" s="3">
-        <v>313800</v>
+        <v>285400</v>
       </c>
       <c r="H17" s="3">
-        <v>47700</v>
+        <v>43400</v>
       </c>
       <c r="I17" s="3">
-        <v>72200</v>
+        <v>65700</v>
       </c>
       <c r="J17" s="3">
-        <v>49000</v>
+        <v>44500</v>
       </c>
       <c r="K17" s="3">
         <v>122000</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>703100</v>
+        <v>639400</v>
       </c>
       <c r="E18" s="3">
-        <v>665000</v>
+        <v>604700</v>
       </c>
       <c r="F18" s="3">
-        <v>344000</v>
+        <v>312800</v>
       </c>
       <c r="G18" s="3">
-        <v>26900</v>
+        <v>24500</v>
       </c>
       <c r="H18" s="3">
-        <v>49400</v>
+        <v>45000</v>
       </c>
       <c r="I18" s="3">
-        <v>12000</v>
+        <v>10900</v>
       </c>
       <c r="J18" s="3">
-        <v>23400</v>
+        <v>21300</v>
       </c>
       <c r="K18" s="3">
         <v>-11300</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>72000</v>
+        <v>65500</v>
       </c>
       <c r="E20" s="3">
-        <v>-442900</v>
+        <v>-402700</v>
       </c>
       <c r="F20" s="3">
-        <v>-55400</v>
+        <v>-50400</v>
       </c>
       <c r="G20" s="3">
-        <v>-5800</v>
+        <v>-5200</v>
       </c>
       <c r="H20" s="3">
-        <v>23500</v>
+        <v>21300</v>
       </c>
       <c r="I20" s="3">
-        <v>9700</v>
+        <v>8800</v>
       </c>
       <c r="J20" s="3">
-        <v>-3300</v>
+        <v>-3000</v>
       </c>
       <c r="K20" s="3">
         <v>-2800</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>964200</v>
+        <v>877100</v>
       </c>
       <c r="E21" s="3">
-        <v>341800</v>
+        <v>311000</v>
       </c>
       <c r="F21" s="3">
-        <v>393600</v>
+        <v>358100</v>
       </c>
       <c r="G21" s="3">
-        <v>51000</v>
+        <v>46500</v>
       </c>
       <c r="H21" s="3">
-        <v>82700</v>
+        <v>75200</v>
       </c>
       <c r="I21" s="3">
-        <v>28000</v>
+        <v>25500</v>
       </c>
       <c r="J21" s="3">
-        <v>25200</v>
+        <v>22900</v>
       </c>
       <c r="K21" s="3">
         <v>-7900</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>158700</v>
+        <v>144300</v>
       </c>
       <c r="E22" s="3">
-        <v>107500</v>
+        <v>97800</v>
       </c>
       <c r="F22" s="3">
-        <v>82900</v>
+        <v>75400</v>
       </c>
       <c r="G22" s="3">
-        <v>41800</v>
+        <v>38000</v>
       </c>
       <c r="H22" s="3">
-        <v>12700</v>
+        <v>11600</v>
       </c>
       <c r="I22" s="3">
-        <v>13100</v>
+        <v>12000</v>
       </c>
       <c r="J22" s="3">
-        <v>10200</v>
+        <v>9300</v>
       </c>
       <c r="K22" s="3">
         <v>6500</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>616500</v>
+        <v>560600</v>
       </c>
       <c r="E23" s="3">
-        <v>114600</v>
+        <v>104200</v>
       </c>
       <c r="F23" s="3">
-        <v>205700</v>
+        <v>187000</v>
       </c>
       <c r="G23" s="3">
-        <v>-20700</v>
+        <v>-18800</v>
       </c>
       <c r="H23" s="3">
-        <v>60200</v>
+        <v>54700</v>
       </c>
       <c r="I23" s="3">
-        <v>8500</v>
+        <v>7800</v>
       </c>
       <c r="J23" s="3">
-        <v>9900</v>
+        <v>9000</v>
       </c>
       <c r="K23" s="3">
         <v>-20600</v>
@@ -1188,22 +1188,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>83100</v>
+        <v>75600</v>
       </c>
       <c r="E24" s="3">
-        <v>8900</v>
+        <v>8100</v>
       </c>
       <c r="F24" s="3">
-        <v>-13400</v>
+        <v>-12200</v>
       </c>
       <c r="G24" s="3">
-        <v>-16300</v>
+        <v>-14800</v>
       </c>
       <c r="H24" s="3">
-        <v>8000</v>
+        <v>7200</v>
       </c>
       <c r="I24" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="J24" s="3">
         <v>-200</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>533400</v>
+        <v>485000</v>
       </c>
       <c r="E26" s="3">
-        <v>105700</v>
+        <v>96100</v>
       </c>
       <c r="F26" s="3">
-        <v>219000</v>
+        <v>199200</v>
       </c>
       <c r="G26" s="3">
-        <v>-4400</v>
+        <v>-4000</v>
       </c>
       <c r="H26" s="3">
-        <v>52200</v>
+        <v>47500</v>
       </c>
       <c r="I26" s="3">
-        <v>7200</v>
+        <v>6500</v>
       </c>
       <c r="J26" s="3">
-        <v>10100</v>
+        <v>9200</v>
       </c>
       <c r="K26" s="3">
         <v>-18400</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>448000</v>
+        <v>407400</v>
       </c>
       <c r="E27" s="3">
-        <v>73500</v>
+        <v>66800</v>
       </c>
       <c r="F27" s="3">
-        <v>172200</v>
+        <v>156600</v>
       </c>
       <c r="G27" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="H27" s="3">
-        <v>41600</v>
+        <v>37800</v>
       </c>
       <c r="I27" s="3">
-        <v>10100</v>
+        <v>9200</v>
       </c>
       <c r="J27" s="3">
-        <v>5600</v>
+        <v>5100</v>
       </c>
       <c r="K27" s="3">
         <v>-11300</v>
@@ -1356,13 +1356,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>41000</v>
+        <v>37300</v>
       </c>
       <c r="F29" s="3">
-        <v>-25700</v>
+        <v>-23400</v>
       </c>
       <c r="G29" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="K29" s="3">
         <v>500</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-72000</v>
+        <v>-65500</v>
       </c>
       <c r="E32" s="3">
-        <v>442900</v>
+        <v>402700</v>
       </c>
       <c r="F32" s="3">
-        <v>55400</v>
+        <v>50400</v>
       </c>
       <c r="G32" s="3">
-        <v>5800</v>
+        <v>5200</v>
       </c>
       <c r="H32" s="3">
-        <v>-23500</v>
+        <v>-21300</v>
       </c>
       <c r="I32" s="3">
-        <v>-9700</v>
+        <v>-8800</v>
       </c>
       <c r="J32" s="3">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="K32" s="3">
         <v>2800</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>448000</v>
+        <v>407400</v>
       </c>
       <c r="E33" s="3">
-        <v>114500</v>
+        <v>104100</v>
       </c>
       <c r="F33" s="3">
-        <v>146500</v>
+        <v>133300</v>
       </c>
       <c r="G33" s="3">
         <v>-100</v>
       </c>
       <c r="H33" s="3">
-        <v>41600</v>
+        <v>37800</v>
       </c>
       <c r="I33" s="3">
-        <v>10100</v>
+        <v>9200</v>
       </c>
       <c r="J33" s="3">
-        <v>3900</v>
+        <v>3500</v>
       </c>
       <c r="K33" s="3">
         <v>-10700</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>448000</v>
+        <v>407400</v>
       </c>
       <c r="E35" s="3">
-        <v>114500</v>
+        <v>104100</v>
       </c>
       <c r="F35" s="3">
-        <v>146500</v>
+        <v>133300</v>
       </c>
       <c r="G35" s="3">
         <v>-100</v>
       </c>
       <c r="H35" s="3">
-        <v>41600</v>
+        <v>37800</v>
       </c>
       <c r="I35" s="3">
-        <v>10100</v>
+        <v>9200</v>
       </c>
       <c r="J35" s="3">
-        <v>3900</v>
+        <v>3500</v>
       </c>
       <c r="K35" s="3">
         <v>-10700</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>183100</v>
+        <v>166500</v>
       </c>
       <c r="E41" s="3">
-        <v>136800</v>
+        <v>124400</v>
       </c>
       <c r="F41" s="3">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="G41" s="3">
-        <v>19300</v>
+        <v>17500</v>
       </c>
       <c r="H41" s="3">
-        <v>14000</v>
+        <v>12700</v>
       </c>
       <c r="I41" s="3">
-        <v>9100</v>
+        <v>8300</v>
       </c>
       <c r="J41" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K41" s="3">
         <v>4600</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>340500</v>
+        <v>309600</v>
       </c>
       <c r="E42" s="3">
-        <v>249700</v>
+        <v>227100</v>
       </c>
       <c r="F42" s="3">
-        <v>293300</v>
+        <v>266700</v>
       </c>
       <c r="G42" s="3">
-        <v>57100</v>
+        <v>52000</v>
       </c>
       <c r="H42" s="3">
-        <v>55400</v>
+        <v>50400</v>
       </c>
       <c r="I42" s="3">
-        <v>14000</v>
+        <v>12700</v>
       </c>
       <c r="J42" s="3">
-        <v>14500</v>
+        <v>13200</v>
       </c>
       <c r="K42" s="3">
         <v>5000</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>453900</v>
+        <v>412800</v>
       </c>
       <c r="E43" s="3">
-        <v>396200</v>
+        <v>360300</v>
       </c>
       <c r="F43" s="3">
-        <v>382000</v>
+        <v>347400</v>
       </c>
       <c r="G43" s="3">
-        <v>190000</v>
+        <v>172700</v>
       </c>
       <c r="H43" s="3">
-        <v>64800</v>
+        <v>58900</v>
       </c>
       <c r="I43" s="3">
-        <v>38600</v>
+        <v>35100</v>
       </c>
       <c r="J43" s="3">
-        <v>30600</v>
+        <v>27900</v>
       </c>
       <c r="K43" s="3">
         <v>28700</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>107200</v>
+        <v>97500</v>
       </c>
       <c r="E44" s="3">
-        <v>76600</v>
+        <v>69700</v>
       </c>
       <c r="F44" s="3">
-        <v>55000</v>
+        <v>50000</v>
       </c>
       <c r="G44" s="3">
-        <v>45600</v>
+        <v>41500</v>
       </c>
       <c r="H44" s="3">
-        <v>5900</v>
+        <v>5400</v>
       </c>
       <c r="I44" s="3">
-        <v>3400</v>
+        <v>3100</v>
       </c>
       <c r="J44" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K44" s="3">
         <v>1700</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="E45" s="3">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="F45" s="3">
-        <v>4500</v>
+        <v>4100</v>
       </c>
       <c r="G45" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="H45" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="I45" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="J45" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K45" s="3">
         <v>3800</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1106800</v>
+        <v>1006400</v>
       </c>
       <c r="E46" s="3">
-        <v>862700</v>
+        <v>784500</v>
       </c>
       <c r="F46" s="3">
-        <v>750800</v>
+        <v>682800</v>
       </c>
       <c r="G46" s="3">
-        <v>314100</v>
+        <v>285700</v>
       </c>
       <c r="H46" s="3">
-        <v>131600</v>
+        <v>119700</v>
       </c>
       <c r="I46" s="3">
-        <v>59700</v>
+        <v>54300</v>
       </c>
       <c r="J46" s="3">
-        <v>48300</v>
+        <v>43900</v>
       </c>
       <c r="K46" s="3">
         <v>35200</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>503000</v>
+        <v>457400</v>
       </c>
       <c r="E47" s="3">
-        <v>380200</v>
+        <v>345700</v>
       </c>
       <c r="F47" s="3">
-        <v>277200</v>
+        <v>252100</v>
       </c>
       <c r="G47" s="3">
-        <v>132400</v>
+        <v>120400</v>
       </c>
       <c r="H47" s="3">
-        <v>56400</v>
+        <v>51300</v>
       </c>
       <c r="I47" s="3">
-        <v>30900</v>
+        <v>28100</v>
       </c>
       <c r="J47" s="3">
-        <v>15200</v>
+        <v>13900</v>
       </c>
       <c r="K47" s="3">
         <v>25600</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2850500</v>
+        <v>2592100</v>
       </c>
       <c r="E48" s="3">
-        <v>1880200</v>
+        <v>1709800</v>
       </c>
       <c r="F48" s="3">
-        <v>1514000</v>
+        <v>1376800</v>
       </c>
       <c r="G48" s="3">
-        <v>557800</v>
+        <v>507200</v>
       </c>
       <c r="H48" s="3">
-        <v>196900</v>
+        <v>179100</v>
       </c>
       <c r="I48" s="3">
-        <v>125100</v>
+        <v>113800</v>
       </c>
       <c r="J48" s="3">
-        <v>93700</v>
+        <v>85200</v>
       </c>
       <c r="K48" s="3">
         <v>199100</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>135700</v>
+        <v>123400</v>
       </c>
       <c r="E49" s="3">
-        <v>91400</v>
+        <v>83200</v>
       </c>
       <c r="F49" s="3">
-        <v>86200</v>
+        <v>78400</v>
       </c>
       <c r="G49" s="3">
-        <v>27300</v>
+        <v>24900</v>
       </c>
       <c r="H49" s="3">
-        <v>10000</v>
+        <v>9100</v>
       </c>
       <c r="I49" s="3">
-        <v>11800</v>
+        <v>10800</v>
       </c>
       <c r="J49" s="3">
-        <v>12200</v>
+        <v>11100</v>
       </c>
       <c r="K49" s="3">
         <v>59600</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>23700</v>
+        <v>21600</v>
       </c>
       <c r="E52" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="F52" s="3">
-        <v>276700</v>
+        <v>251700</v>
       </c>
       <c r="G52" s="3">
-        <v>17000</v>
+        <v>15400</v>
       </c>
       <c r="H52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I52" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J52" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K52" s="3">
         <v>12300</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4619600</v>
+        <v>4200900</v>
       </c>
       <c r="E54" s="3">
-        <v>3216300</v>
+        <v>2924700</v>
       </c>
       <c r="F54" s="3">
-        <v>2893900</v>
+        <v>2631600</v>
       </c>
       <c r="G54" s="3">
-        <v>1048600</v>
+        <v>953600</v>
       </c>
       <c r="H54" s="3">
-        <v>395600</v>
+        <v>359700</v>
       </c>
       <c r="I54" s="3">
-        <v>228900</v>
+        <v>208100</v>
       </c>
       <c r="J54" s="3">
-        <v>170500</v>
+        <v>155000</v>
       </c>
       <c r="K54" s="3">
         <v>187100</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>306700</v>
+        <v>278900</v>
       </c>
       <c r="E57" s="3">
-        <v>325100</v>
+        <v>295600</v>
       </c>
       <c r="F57" s="3">
-        <v>329400</v>
+        <v>299500</v>
       </c>
       <c r="G57" s="3">
-        <v>170600</v>
+        <v>155200</v>
       </c>
       <c r="H57" s="3">
-        <v>89800</v>
+        <v>81700</v>
       </c>
       <c r="I57" s="3">
-        <v>61500</v>
+        <v>56000</v>
       </c>
       <c r="J57" s="3">
-        <v>41900</v>
+        <v>38100</v>
       </c>
       <c r="K57" s="3">
         <v>52600</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>148900</v>
+        <v>135400</v>
       </c>
       <c r="E58" s="3">
-        <v>194000</v>
+        <v>176400</v>
       </c>
       <c r="F58" s="3">
-        <v>117000</v>
+        <v>106400</v>
       </c>
       <c r="G58" s="3">
-        <v>145000</v>
+        <v>131900</v>
       </c>
       <c r="H58" s="3">
-        <v>17700</v>
+        <v>16100</v>
       </c>
       <c r="I58" s="3">
-        <v>10600</v>
+        <v>9700</v>
       </c>
       <c r="J58" s="3">
-        <v>10200</v>
+        <v>9300</v>
       </c>
       <c r="K58" s="3">
         <v>13100</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>238000</v>
+        <v>216400</v>
       </c>
       <c r="E59" s="3">
-        <v>151800</v>
+        <v>138000</v>
       </c>
       <c r="F59" s="3">
-        <v>153900</v>
+        <v>140000</v>
       </c>
       <c r="G59" s="3">
-        <v>92300</v>
+        <v>83900</v>
       </c>
       <c r="H59" s="3">
-        <v>22400</v>
+        <v>20400</v>
       </c>
       <c r="I59" s="3">
-        <v>14400</v>
+        <v>13100</v>
       </c>
       <c r="J59" s="3">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="K59" s="3">
         <v>15200</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>693600</v>
+        <v>630700</v>
       </c>
       <c r="E60" s="3">
-        <v>670900</v>
+        <v>610100</v>
       </c>
       <c r="F60" s="3">
-        <v>600300</v>
+        <v>545900</v>
       </c>
       <c r="G60" s="3">
-        <v>408000</v>
+        <v>371000</v>
       </c>
       <c r="H60" s="3">
-        <v>130000</v>
+        <v>118200</v>
       </c>
       <c r="I60" s="3">
-        <v>86500</v>
+        <v>78700</v>
       </c>
       <c r="J60" s="3">
-        <v>62600</v>
+        <v>56900</v>
       </c>
       <c r="K60" s="3">
         <v>53000</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1433400</v>
+        <v>1303500</v>
       </c>
       <c r="E61" s="3">
-        <v>1040700</v>
+        <v>946300</v>
       </c>
       <c r="F61" s="3">
-        <v>743900</v>
+        <v>676400</v>
       </c>
       <c r="G61" s="3">
-        <v>207400</v>
+        <v>188600</v>
       </c>
       <c r="H61" s="3">
-        <v>90700</v>
+        <v>82500</v>
       </c>
       <c r="I61" s="3">
-        <v>51400</v>
+        <v>46700</v>
       </c>
       <c r="J61" s="3">
-        <v>39700</v>
+        <v>36100</v>
       </c>
       <c r="K61" s="3">
         <v>36700</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>535000</v>
+        <v>486500</v>
       </c>
       <c r="E62" s="3">
-        <v>486700</v>
+        <v>442600</v>
       </c>
       <c r="F62" s="3">
-        <v>494400</v>
+        <v>449600</v>
       </c>
       <c r="G62" s="3">
-        <v>242300</v>
+        <v>220300</v>
       </c>
       <c r="H62" s="3">
-        <v>61100</v>
+        <v>55600</v>
       </c>
       <c r="I62" s="3">
-        <v>42700</v>
+        <v>38900</v>
       </c>
       <c r="J62" s="3">
-        <v>29200</v>
+        <v>26500</v>
       </c>
       <c r="K62" s="3">
         <v>90700</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3060900</v>
+        <v>2783400</v>
       </c>
       <c r="E66" s="3">
-        <v>2441300</v>
+        <v>2220000</v>
       </c>
       <c r="F66" s="3">
-        <v>2127500</v>
+        <v>1934600</v>
       </c>
       <c r="G66" s="3">
-        <v>898600</v>
+        <v>817200</v>
       </c>
       <c r="H66" s="3">
-        <v>300700</v>
+        <v>273400</v>
       </c>
       <c r="I66" s="3">
-        <v>189300</v>
+        <v>172100</v>
       </c>
       <c r="J66" s="3">
-        <v>142000</v>
+        <v>129100</v>
       </c>
       <c r="K66" s="3">
         <v>157300</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>957400</v>
+        <v>870600</v>
       </c>
       <c r="E72" s="3">
-        <v>345500</v>
+        <v>314200</v>
       </c>
       <c r="F72" s="3">
-        <v>345500</v>
+        <v>314200</v>
       </c>
       <c r="G72" s="3">
-        <v>55400</v>
+        <v>50400</v>
       </c>
       <c r="H72" s="3">
-        <v>55600</v>
+        <v>50500</v>
       </c>
       <c r="I72" s="3">
-        <v>17600</v>
+        <v>16000</v>
       </c>
       <c r="J72" s="3">
-        <v>7400</v>
+        <v>6700</v>
       </c>
       <c r="K72" s="3">
         <v>-8600</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1558700</v>
+        <v>1417400</v>
       </c>
       <c r="E76" s="3">
-        <v>774900</v>
+        <v>704700</v>
       </c>
       <c r="F76" s="3">
-        <v>766400</v>
+        <v>696900</v>
       </c>
       <c r="G76" s="3">
-        <v>150000</v>
+        <v>136400</v>
       </c>
       <c r="H76" s="3">
-        <v>94900</v>
+        <v>86300</v>
       </c>
       <c r="I76" s="3">
-        <v>39600</v>
+        <v>36000</v>
       </c>
       <c r="J76" s="3">
-        <v>28500</v>
+        <v>25900</v>
       </c>
       <c r="K76" s="3">
         <v>29800</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>448000</v>
+        <v>407400</v>
       </c>
       <c r="E81" s="3">
-        <v>114500</v>
+        <v>104100</v>
       </c>
       <c r="F81" s="3">
-        <v>146500</v>
+        <v>133300</v>
       </c>
       <c r="G81" s="3">
         <v>-100</v>
       </c>
       <c r="H81" s="3">
-        <v>41600</v>
+        <v>37800</v>
       </c>
       <c r="I81" s="3">
-        <v>10100</v>
+        <v>9200</v>
       </c>
       <c r="J81" s="3">
-        <v>3900</v>
+        <v>3500</v>
       </c>
       <c r="K81" s="3">
         <v>-10700</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>188900</v>
+        <v>171800</v>
       </c>
       <c r="E83" s="3">
-        <v>119600</v>
+        <v>108800</v>
       </c>
       <c r="F83" s="3">
-        <v>105000</v>
+        <v>95500</v>
       </c>
       <c r="G83" s="3">
-        <v>29900</v>
+        <v>27200</v>
       </c>
       <c r="H83" s="3">
-        <v>9800</v>
+        <v>8900</v>
       </c>
       <c r="I83" s="3">
-        <v>6300</v>
+        <v>5800</v>
       </c>
       <c r="J83" s="3">
-        <v>5000</v>
+        <v>4600</v>
       </c>
       <c r="K83" s="3">
         <v>6200</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>511500</v>
+        <v>465200</v>
       </c>
       <c r="E89" s="3">
-        <v>310500</v>
+        <v>282400</v>
       </c>
       <c r="F89" s="3">
-        <v>217200</v>
+        <v>197500</v>
       </c>
       <c r="G89" s="3">
-        <v>80700</v>
+        <v>73400</v>
       </c>
       <c r="H89" s="3">
-        <v>59200</v>
+        <v>53900</v>
       </c>
       <c r="I89" s="3">
-        <v>34900</v>
+        <v>31800</v>
       </c>
       <c r="J89" s="3">
-        <v>24400</v>
+        <v>22200</v>
       </c>
       <c r="K89" s="3">
         <v>19800</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-391000</v>
+        <v>-355600</v>
       </c>
       <c r="E91" s="3">
-        <v>-344800</v>
+        <v>-313500</v>
       </c>
       <c r="F91" s="3">
-        <v>-248200</v>
+        <v>-225700</v>
       </c>
       <c r="G91" s="3">
-        <v>-84700</v>
+        <v>-77100</v>
       </c>
       <c r="H91" s="3">
-        <v>-65100</v>
+        <v>-59200</v>
       </c>
       <c r="I91" s="3">
-        <v>-31600</v>
+        <v>-28800</v>
       </c>
       <c r="J91" s="3">
-        <v>-16300</v>
+        <v>-14800</v>
       </c>
       <c r="K91" s="3">
         <v>-11300</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-233300</v>
+        <v>-212100</v>
       </c>
       <c r="E94" s="3">
-        <v>10000</v>
+        <v>9100</v>
       </c>
       <c r="F94" s="3">
-        <v>-433400</v>
+        <v>-394100</v>
       </c>
       <c r="G94" s="3">
-        <v>-152400</v>
+        <v>-138600</v>
       </c>
       <c r="H94" s="3">
-        <v>-96600</v>
+        <v>-87800</v>
       </c>
       <c r="I94" s="3">
-        <v>-33500</v>
+        <v>-30500</v>
       </c>
       <c r="J94" s="3">
-        <v>-21400</v>
+        <v>-19400</v>
       </c>
       <c r="K94" s="3">
         <v>-14900</v>
@@ -3298,22 +3298,22 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="E96" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="F96" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="G96" s="3">
         <v>-500</v>
       </c>
       <c r="H96" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I96" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-287300</v>
+        <v>-261300</v>
       </c>
       <c r="E100" s="3">
-        <v>-240400</v>
+        <v>-218600</v>
       </c>
       <c r="F100" s="3">
-        <v>189900</v>
+        <v>172600</v>
       </c>
       <c r="G100" s="3">
-        <v>79100</v>
+        <v>71900</v>
       </c>
       <c r="H100" s="3">
-        <v>38700</v>
+        <v>35200</v>
       </c>
       <c r="I100" s="3">
-        <v>-2000</v>
+        <v>-1800</v>
       </c>
       <c r="J100" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="K100" s="3">
         <v>-9000</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>68800</v>
+        <v>62500</v>
       </c>
       <c r="E101" s="3">
-        <v>27300</v>
+        <v>24800</v>
       </c>
       <c r="F101" s="3">
-        <v>6900</v>
+        <v>6300</v>
       </c>
       <c r="G101" s="3">
-        <v>4900</v>
+        <v>4400</v>
       </c>
       <c r="H101" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="I101" s="3">
         <v>500</v>
       </c>
       <c r="J101" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K101" s="3">
         <v>700</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>59700</v>
+        <v>54300</v>
       </c>
       <c r="E102" s="3">
-        <v>107400</v>
+        <v>97700</v>
       </c>
       <c r="F102" s="3">
-        <v>-19500</v>
+        <v>-17700</v>
       </c>
       <c r="G102" s="3">
-        <v>12300</v>
+        <v>11200</v>
       </c>
       <c r="H102" s="3">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="I102" s="3">
         <v>-100</v>
       </c>
       <c r="J102" s="3">
-        <v>2400</v>
+        <v>2100</v>
       </c>
       <c r="K102" s="3">
         <v>-3400</v>

--- a/AAII_Financials/Yearly/PAM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PAM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
   <si>
     <t>PAM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1908300</v>
+        <v>836900</v>
       </c>
       <c r="E8" s="3">
-        <v>1358400</v>
+        <v>706500</v>
       </c>
       <c r="F8" s="3">
-        <v>1012000</v>
+        <v>591100</v>
       </c>
       <c r="G8" s="3">
-        <v>309900</v>
+        <v>895500</v>
       </c>
       <c r="H8" s="3">
-        <v>88400</v>
+        <v>274200</v>
       </c>
       <c r="I8" s="3">
-        <v>76600</v>
+        <v>78200</v>
       </c>
       <c r="J8" s="3">
+        <v>67800</v>
+      </c>
+      <c r="K8" s="3">
         <v>65800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>110700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>136900</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1368800</v>
+        <v>511200</v>
       </c>
       <c r="E9" s="3">
-        <v>889300</v>
+        <v>427000</v>
       </c>
       <c r="F9" s="3">
-        <v>727000</v>
+        <v>341700</v>
       </c>
       <c r="G9" s="3">
-        <v>219400</v>
+        <v>643300</v>
       </c>
       <c r="H9" s="3">
-        <v>84300</v>
+        <v>194100</v>
       </c>
       <c r="I9" s="3">
-        <v>74400</v>
+        <v>74600</v>
       </c>
       <c r="J9" s="3">
+        <v>65800</v>
+      </c>
+      <c r="K9" s="3">
         <v>69100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>220500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>257900</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>539500</v>
+        <v>325700</v>
       </c>
       <c r="E10" s="3">
-        <v>469100</v>
+        <v>279600</v>
       </c>
       <c r="F10" s="3">
-        <v>285000</v>
+        <v>249300</v>
       </c>
       <c r="G10" s="3">
-        <v>90500</v>
+        <v>252200</v>
       </c>
       <c r="H10" s="3">
-        <v>4100</v>
+        <v>80100</v>
       </c>
       <c r="I10" s="3">
-        <v>2200</v>
+        <v>3600</v>
       </c>
       <c r="J10" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K10" s="3">
         <v>-3300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-109800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-120900</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,25 +837,26 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>3700</v>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E12" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F12" s="3">
         <v>300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>500</v>
       </c>
-      <c r="G12" s="3">
-        <v>900</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>8</v>
+      <c r="H12" s="3">
+        <v>800</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>8</v>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,75 +906,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-57200</v>
+        <v>113400</v>
       </c>
       <c r="E14" s="3">
-        <v>-251800</v>
+        <v>55800</v>
       </c>
       <c r="F14" s="3">
-        <v>-137700</v>
+        <v>-152500</v>
       </c>
       <c r="G14" s="3">
-        <v>63600</v>
+        <v>-121900</v>
       </c>
       <c r="H14" s="3">
-        <v>3200</v>
+        <v>56200</v>
       </c>
       <c r="I14" s="3">
-        <v>-900</v>
+        <v>2800</v>
       </c>
       <c r="J14" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K14" s="3">
         <v>500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>34200</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>17800</v>
+        <v>4100</v>
       </c>
       <c r="E15" s="3">
-        <v>9600</v>
+        <v>5000</v>
       </c>
       <c r="F15" s="3">
-        <v>4200</v>
+        <v>2500</v>
       </c>
       <c r="G15" s="3">
-        <v>1400</v>
+        <v>3800</v>
       </c>
       <c r="H15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I15" s="3">
         <v>600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>600</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1268900</v>
+        <v>638200</v>
       </c>
       <c r="E17" s="3">
-        <v>753700</v>
+        <v>463400</v>
       </c>
       <c r="F17" s="3">
-        <v>699200</v>
+        <v>169800</v>
       </c>
       <c r="G17" s="3">
-        <v>285400</v>
+        <v>618700</v>
       </c>
       <c r="H17" s="3">
-        <v>43400</v>
+        <v>252500</v>
       </c>
       <c r="I17" s="3">
-        <v>65700</v>
+        <v>38400</v>
       </c>
       <c r="J17" s="3">
+        <v>58100</v>
+      </c>
+      <c r="K17" s="3">
         <v>44500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>122000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>144700</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>639400</v>
+        <v>198700</v>
       </c>
       <c r="E18" s="3">
-        <v>604700</v>
+        <v>243100</v>
       </c>
       <c r="F18" s="3">
-        <v>312800</v>
+        <v>421200</v>
       </c>
       <c r="G18" s="3">
-        <v>24500</v>
+        <v>276800</v>
       </c>
       <c r="H18" s="3">
-        <v>45000</v>
+        <v>21700</v>
       </c>
       <c r="I18" s="3">
-        <v>10900</v>
+        <v>39800</v>
       </c>
       <c r="J18" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K18" s="3">
         <v>21300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-11300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7800</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>65500</v>
+        <v>64800</v>
       </c>
       <c r="E20" s="3">
-        <v>-402700</v>
+        <v>94700</v>
       </c>
       <c r="F20" s="3">
-        <v>-50400</v>
+        <v>-331900</v>
       </c>
       <c r="G20" s="3">
-        <v>-5200</v>
+        <v>-44600</v>
       </c>
       <c r="H20" s="3">
-        <v>21300</v>
+        <v>-4600</v>
       </c>
       <c r="I20" s="3">
-        <v>8800</v>
+        <v>18900</v>
       </c>
       <c r="J20" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7000</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>877100</v>
+        <v>422000</v>
       </c>
       <c r="E21" s="3">
-        <v>311000</v>
+        <v>490100</v>
       </c>
       <c r="F21" s="3">
-        <v>358100</v>
+        <v>185700</v>
       </c>
       <c r="G21" s="3">
-        <v>46500</v>
+        <v>316900</v>
       </c>
       <c r="H21" s="3">
-        <v>75200</v>
+        <v>41100</v>
       </c>
       <c r="I21" s="3">
-        <v>25500</v>
+        <v>66500</v>
       </c>
       <c r="J21" s="3">
+        <v>22600</v>
+      </c>
+      <c r="K21" s="3">
         <v>22900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9600</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>144300</v>
+        <v>127200</v>
       </c>
       <c r="E22" s="3">
-        <v>97800</v>
+        <v>87000</v>
       </c>
       <c r="F22" s="3">
-        <v>75400</v>
+        <v>64800</v>
       </c>
       <c r="G22" s="3">
-        <v>38000</v>
+        <v>66700</v>
       </c>
       <c r="H22" s="3">
-        <v>11600</v>
+        <v>33700</v>
       </c>
       <c r="I22" s="3">
-        <v>12000</v>
+        <v>10200</v>
       </c>
       <c r="J22" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K22" s="3">
         <v>9300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>19200</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>560600</v>
+        <v>136400</v>
       </c>
       <c r="E23" s="3">
-        <v>104200</v>
+        <v>250800</v>
       </c>
       <c r="F23" s="3">
-        <v>187000</v>
+        <v>24500</v>
       </c>
       <c r="G23" s="3">
-        <v>-18800</v>
+        <v>165500</v>
       </c>
       <c r="H23" s="3">
-        <v>54700</v>
+        <v>-16700</v>
       </c>
       <c r="I23" s="3">
-        <v>7800</v>
+        <v>48400</v>
       </c>
       <c r="J23" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K23" s="3">
         <v>9000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-20600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-20100</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>75600</v>
+        <v>34100</v>
       </c>
       <c r="E24" s="3">
-        <v>8100</v>
+        <v>-49500</v>
       </c>
       <c r="F24" s="3">
-        <v>-12200</v>
+        <v>-13200</v>
       </c>
       <c r="G24" s="3">
-        <v>-14800</v>
+        <v>-10800</v>
       </c>
       <c r="H24" s="3">
-        <v>7200</v>
+        <v>-13100</v>
       </c>
       <c r="I24" s="3">
-        <v>1200</v>
+        <v>6400</v>
       </c>
       <c r="J24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>485000</v>
+        <v>102300</v>
       </c>
       <c r="E26" s="3">
-        <v>96100</v>
+        <v>300200</v>
       </c>
       <c r="F26" s="3">
-        <v>199200</v>
+        <v>37700</v>
       </c>
       <c r="G26" s="3">
-        <v>-4000</v>
+        <v>176300</v>
       </c>
       <c r="H26" s="3">
-        <v>47500</v>
+        <v>-3500</v>
       </c>
       <c r="I26" s="3">
-        <v>6500</v>
+        <v>42000</v>
       </c>
       <c r="J26" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K26" s="3">
         <v>9200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-18400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-19100</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>407400</v>
+        <v>195300</v>
       </c>
       <c r="E27" s="3">
-        <v>66800</v>
+        <v>231500</v>
       </c>
       <c r="F27" s="3">
-        <v>156600</v>
+        <v>11700</v>
       </c>
       <c r="G27" s="3">
-        <v>-1000</v>
+        <v>138600</v>
       </c>
       <c r="H27" s="3">
-        <v>37800</v>
+        <v>-900</v>
       </c>
       <c r="I27" s="3">
-        <v>9200</v>
+        <v>33500</v>
       </c>
       <c r="J27" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K27" s="3">
         <v>5100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3300</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,42 +1403,48 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-538700</v>
       </c>
       <c r="E29" s="3">
-        <v>37300</v>
+        <v>129000</v>
       </c>
       <c r="F29" s="3">
-        <v>-23400</v>
+        <v>80400</v>
       </c>
       <c r="G29" s="3">
-        <v>900</v>
-      </c>
-      <c r="H29" s="3" t="s">
+        <v>-20700</v>
+      </c>
+      <c r="H29" s="3">
+        <v>800</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-1600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>500</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-2400</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-65500</v>
+        <v>-64800</v>
       </c>
       <c r="E32" s="3">
-        <v>402700</v>
+        <v>-94700</v>
       </c>
       <c r="F32" s="3">
-        <v>50400</v>
+        <v>331900</v>
       </c>
       <c r="G32" s="3">
-        <v>5200</v>
+        <v>44600</v>
       </c>
       <c r="H32" s="3">
-        <v>-21300</v>
+        <v>4600</v>
       </c>
       <c r="I32" s="3">
-        <v>-8800</v>
+        <v>-18900</v>
       </c>
       <c r="J32" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="K32" s="3">
         <v>3000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7000</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>407400</v>
+        <v>-343400</v>
       </c>
       <c r="E33" s="3">
-        <v>104100</v>
+        <v>360500</v>
       </c>
       <c r="F33" s="3">
-        <v>133300</v>
+        <v>92100</v>
       </c>
       <c r="G33" s="3">
+        <v>117900</v>
+      </c>
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>37800</v>
-      </c>
       <c r="I33" s="3">
-        <v>9200</v>
+        <v>33500</v>
       </c>
       <c r="J33" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K33" s="3">
         <v>3500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>900</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>407400</v>
+        <v>-343400</v>
       </c>
       <c r="E35" s="3">
-        <v>104100</v>
+        <v>360500</v>
       </c>
       <c r="F35" s="3">
-        <v>133300</v>
+        <v>92100</v>
       </c>
       <c r="G35" s="3">
+        <v>117900</v>
+      </c>
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>37800</v>
-      </c>
       <c r="I35" s="3">
-        <v>9200</v>
+        <v>33500</v>
       </c>
       <c r="J35" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K35" s="3">
         <v>3500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>900</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>166500</v>
+        <v>129900</v>
       </c>
       <c r="E41" s="3">
-        <v>124400</v>
+        <v>147400</v>
       </c>
       <c r="F41" s="3">
-        <v>14500</v>
+        <v>110100</v>
       </c>
       <c r="G41" s="3">
-        <v>17500</v>
+        <v>12900</v>
       </c>
       <c r="H41" s="3">
-        <v>12700</v>
+        <v>15500</v>
       </c>
       <c r="I41" s="3">
-        <v>8300</v>
+        <v>11300</v>
       </c>
       <c r="J41" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K41" s="3">
         <v>1500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9000</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>309600</v>
+        <v>321500</v>
       </c>
       <c r="E42" s="3">
-        <v>227100</v>
+        <v>274000</v>
       </c>
       <c r="F42" s="3">
-        <v>266700</v>
+        <v>200900</v>
       </c>
       <c r="G42" s="3">
-        <v>52000</v>
+        <v>236000</v>
       </c>
       <c r="H42" s="3">
-        <v>50400</v>
+        <v>46000</v>
       </c>
       <c r="I42" s="3">
-        <v>12700</v>
+        <v>44600</v>
       </c>
       <c r="J42" s="3">
+        <v>11200</v>
+      </c>
+      <c r="K42" s="3">
         <v>13200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>5000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>9600</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>412800</v>
+        <v>309500</v>
       </c>
       <c r="E43" s="3">
-        <v>360300</v>
+        <v>365300</v>
       </c>
       <c r="F43" s="3">
-        <v>347400</v>
+        <v>318900</v>
       </c>
       <c r="G43" s="3">
-        <v>172700</v>
+        <v>307400</v>
       </c>
       <c r="H43" s="3">
-        <v>58900</v>
+        <v>152900</v>
       </c>
       <c r="I43" s="3">
-        <v>35100</v>
+        <v>52100</v>
       </c>
       <c r="J43" s="3">
+        <v>31000</v>
+      </c>
+      <c r="K43" s="3">
         <v>27900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>28700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>35300</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>97500</v>
+        <v>103800</v>
       </c>
       <c r="E44" s="3">
-        <v>69700</v>
+        <v>86200</v>
       </c>
       <c r="F44" s="3">
-        <v>50000</v>
+        <v>61700</v>
       </c>
       <c r="G44" s="3">
-        <v>41500</v>
+        <v>44300</v>
       </c>
       <c r="H44" s="3">
-        <v>5400</v>
+        <v>36700</v>
       </c>
       <c r="I44" s="3">
-        <v>3100</v>
+        <v>4800</v>
       </c>
       <c r="J44" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K44" s="3">
         <v>1000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2600</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>20000</v>
+        <v>6500</v>
       </c>
       <c r="E45" s="3">
-        <v>3000</v>
+        <v>17700</v>
       </c>
       <c r="F45" s="3">
-        <v>4100</v>
+        <v>2600</v>
       </c>
       <c r="G45" s="3">
-        <v>2000</v>
+        <v>3700</v>
       </c>
       <c r="H45" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="I45" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="J45" s="3">
+        <v>900</v>
+      </c>
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7700</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1006400</v>
+        <v>871300</v>
       </c>
       <c r="E46" s="3">
-        <v>784500</v>
+        <v>890600</v>
       </c>
       <c r="F46" s="3">
-        <v>682800</v>
+        <v>694300</v>
       </c>
       <c r="G46" s="3">
-        <v>285700</v>
+        <v>604200</v>
       </c>
       <c r="H46" s="3">
-        <v>119700</v>
+        <v>252800</v>
       </c>
       <c r="I46" s="3">
-        <v>54300</v>
+        <v>105900</v>
       </c>
       <c r="J46" s="3">
+        <v>48100</v>
+      </c>
+      <c r="K46" s="3">
         <v>43900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>35200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>49700</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>457400</v>
+        <v>646800</v>
       </c>
       <c r="E47" s="3">
-        <v>345700</v>
+        <v>404800</v>
       </c>
       <c r="F47" s="3">
-        <v>252100</v>
+        <v>305900</v>
       </c>
       <c r="G47" s="3">
-        <v>120400</v>
+        <v>223100</v>
       </c>
       <c r="H47" s="3">
-        <v>51300</v>
+        <v>106600</v>
       </c>
       <c r="I47" s="3">
-        <v>28100</v>
+        <v>45400</v>
       </c>
       <c r="J47" s="3">
+        <v>24900</v>
+      </c>
+      <c r="K47" s="3">
         <v>13900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>25600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>41700</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2592100</v>
+        <v>1488500</v>
       </c>
       <c r="E48" s="3">
-        <v>1709800</v>
+        <v>2304000</v>
       </c>
       <c r="F48" s="3">
-        <v>1376800</v>
+        <v>1513000</v>
       </c>
       <c r="G48" s="3">
-        <v>507200</v>
+        <v>1218400</v>
       </c>
       <c r="H48" s="3">
-        <v>179100</v>
+        <v>448800</v>
       </c>
       <c r="I48" s="3">
-        <v>113800</v>
+        <v>158500</v>
       </c>
       <c r="J48" s="3">
+        <v>100700</v>
+      </c>
+      <c r="K48" s="3">
         <v>85200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>199100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>329000</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>123400</v>
+        <v>37700</v>
       </c>
       <c r="E49" s="3">
-        <v>83200</v>
+        <v>99000</v>
       </c>
       <c r="F49" s="3">
-        <v>78400</v>
+        <v>73600</v>
       </c>
       <c r="G49" s="3">
-        <v>24900</v>
+        <v>69400</v>
       </c>
       <c r="H49" s="3">
-        <v>9100</v>
+        <v>22000</v>
       </c>
       <c r="I49" s="3">
-        <v>10800</v>
+        <v>8000</v>
       </c>
       <c r="J49" s="3">
+        <v>9500</v>
+      </c>
+      <c r="K49" s="3">
         <v>11100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>59600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>91000</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>21600</v>
+        <v>1449500</v>
       </c>
       <c r="E52" s="3">
-        <v>1600</v>
+        <v>19100</v>
       </c>
       <c r="F52" s="3">
-        <v>251700</v>
+        <v>1400</v>
       </c>
       <c r="G52" s="3">
-        <v>15400</v>
+        <v>222700</v>
       </c>
       <c r="H52" s="3">
+        <v>13700</v>
+      </c>
+      <c r="I52" s="3">
         <v>600</v>
       </c>
-      <c r="I52" s="3">
-        <v>1200</v>
-      </c>
       <c r="J52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K52" s="3">
         <v>900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>81600</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4200900</v>
+        <v>4493900</v>
       </c>
       <c r="E54" s="3">
-        <v>2924700</v>
+        <v>3717500</v>
       </c>
       <c r="F54" s="3">
-        <v>2631600</v>
+        <v>2588200</v>
       </c>
       <c r="G54" s="3">
-        <v>953600</v>
+        <v>2328700</v>
       </c>
       <c r="H54" s="3">
-        <v>359700</v>
+        <v>843900</v>
       </c>
       <c r="I54" s="3">
-        <v>208100</v>
+        <v>318300</v>
       </c>
       <c r="J54" s="3">
+        <v>184200</v>
+      </c>
+      <c r="K54" s="3">
         <v>155000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>187100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>316500</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>278900</v>
+        <v>89800</v>
       </c>
       <c r="E57" s="3">
-        <v>295600</v>
+        <v>246800</v>
       </c>
       <c r="F57" s="3">
-        <v>299500</v>
+        <v>261600</v>
       </c>
       <c r="G57" s="3">
-        <v>155200</v>
+        <v>265000</v>
       </c>
       <c r="H57" s="3">
-        <v>81700</v>
+        <v>137300</v>
       </c>
       <c r="I57" s="3">
-        <v>56000</v>
+        <v>72300</v>
       </c>
       <c r="J57" s="3">
+        <v>49500</v>
+      </c>
+      <c r="K57" s="3">
         <v>38100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>52600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>25300</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>135400</v>
+        <v>222500</v>
       </c>
       <c r="E58" s="3">
-        <v>176400</v>
+        <v>119800</v>
       </c>
       <c r="F58" s="3">
-        <v>106400</v>
+        <v>156100</v>
       </c>
       <c r="G58" s="3">
-        <v>131900</v>
+        <v>94200</v>
       </c>
       <c r="H58" s="3">
-        <v>16100</v>
+        <v>116700</v>
       </c>
       <c r="I58" s="3">
-        <v>9700</v>
+        <v>14300</v>
       </c>
       <c r="J58" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K58" s="3">
         <v>9300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>13100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>47000</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>216400</v>
+        <v>99800</v>
       </c>
       <c r="E59" s="3">
-        <v>138000</v>
+        <v>191500</v>
       </c>
       <c r="F59" s="3">
-        <v>140000</v>
+        <v>122100</v>
       </c>
       <c r="G59" s="3">
-        <v>83900</v>
+        <v>123900</v>
       </c>
       <c r="H59" s="3">
-        <v>20400</v>
+        <v>74300</v>
       </c>
       <c r="I59" s="3">
-        <v>13100</v>
+        <v>18100</v>
       </c>
       <c r="J59" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K59" s="3">
         <v>9500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>24200</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>630700</v>
+        <v>412100</v>
       </c>
       <c r="E60" s="3">
-        <v>610100</v>
+        <v>558100</v>
       </c>
       <c r="F60" s="3">
-        <v>545900</v>
+        <v>539900</v>
       </c>
       <c r="G60" s="3">
-        <v>371000</v>
+        <v>483100</v>
       </c>
       <c r="H60" s="3">
-        <v>118200</v>
+        <v>328300</v>
       </c>
       <c r="I60" s="3">
-        <v>78700</v>
+        <v>104600</v>
       </c>
       <c r="J60" s="3">
+        <v>69600</v>
+      </c>
+      <c r="K60" s="3">
         <v>56900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>53000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>66100</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1303500</v>
+        <v>1260500</v>
       </c>
       <c r="E61" s="3">
-        <v>946300</v>
+        <v>1153500</v>
       </c>
       <c r="F61" s="3">
-        <v>676400</v>
+        <v>837400</v>
       </c>
       <c r="G61" s="3">
-        <v>188600</v>
+        <v>598600</v>
       </c>
       <c r="H61" s="3">
-        <v>82500</v>
+        <v>166900</v>
       </c>
       <c r="I61" s="3">
-        <v>46700</v>
+        <v>73000</v>
       </c>
       <c r="J61" s="3">
+        <v>41400</v>
+      </c>
+      <c r="K61" s="3">
         <v>36100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>36700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>65100</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>486500</v>
+        <v>257600</v>
       </c>
       <c r="E62" s="3">
-        <v>442600</v>
+        <v>430500</v>
       </c>
       <c r="F62" s="3">
-        <v>449600</v>
+        <v>391700</v>
       </c>
       <c r="G62" s="3">
-        <v>220300</v>
+        <v>397900</v>
       </c>
       <c r="H62" s="3">
-        <v>55600</v>
+        <v>195000</v>
       </c>
       <c r="I62" s="3">
-        <v>38900</v>
+        <v>49200</v>
       </c>
       <c r="J62" s="3">
+        <v>34400</v>
+      </c>
+      <c r="K62" s="3">
         <v>26500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>90700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>73600</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2783400</v>
+        <v>3180800</v>
       </c>
       <c r="E66" s="3">
-        <v>2220000</v>
+        <v>2463100</v>
       </c>
       <c r="F66" s="3">
-        <v>1934600</v>
+        <v>1964600</v>
       </c>
       <c r="G66" s="3">
-        <v>817200</v>
+        <v>1712000</v>
       </c>
       <c r="H66" s="3">
-        <v>273400</v>
+        <v>723200</v>
       </c>
       <c r="I66" s="3">
-        <v>172100</v>
+        <v>242000</v>
       </c>
       <c r="J66" s="3">
+        <v>152300</v>
+      </c>
+      <c r="K66" s="3">
         <v>129100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>157300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>252600</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>870600</v>
+        <v>677200</v>
       </c>
       <c r="E72" s="3">
-        <v>314200</v>
+        <v>770400</v>
       </c>
       <c r="F72" s="3">
-        <v>314200</v>
+        <v>278000</v>
       </c>
       <c r="G72" s="3">
-        <v>50400</v>
+        <v>278000</v>
       </c>
       <c r="H72" s="3">
-        <v>50500</v>
+        <v>44600</v>
       </c>
       <c r="I72" s="3">
-        <v>16000</v>
+        <v>44700</v>
       </c>
       <c r="J72" s="3">
+        <v>14100</v>
+      </c>
+      <c r="K72" s="3">
         <v>6700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-10400</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1417400</v>
+        <v>1313100</v>
       </c>
       <c r="E76" s="3">
-        <v>704700</v>
+        <v>1254300</v>
       </c>
       <c r="F76" s="3">
-        <v>696900</v>
+        <v>623600</v>
       </c>
       <c r="G76" s="3">
-        <v>136400</v>
+        <v>616700</v>
       </c>
       <c r="H76" s="3">
-        <v>86300</v>
+        <v>120700</v>
       </c>
       <c r="I76" s="3">
-        <v>36000</v>
+        <v>76300</v>
       </c>
       <c r="J76" s="3">
+        <v>31900</v>
+      </c>
+      <c r="K76" s="3">
         <v>25900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>29800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>63900</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>407400</v>
+        <v>-343400</v>
       </c>
       <c r="E81" s="3">
-        <v>104100</v>
+        <v>360500</v>
       </c>
       <c r="F81" s="3">
-        <v>133300</v>
+        <v>92100</v>
       </c>
       <c r="G81" s="3">
+        <v>117900</v>
+      </c>
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>37800</v>
-      </c>
       <c r="I81" s="3">
-        <v>9200</v>
+        <v>33500</v>
       </c>
       <c r="J81" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K81" s="3">
         <v>3500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>900</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>171800</v>
+        <v>158200</v>
       </c>
       <c r="E83" s="3">
-        <v>108800</v>
+        <v>152000</v>
       </c>
       <c r="F83" s="3">
-        <v>95500</v>
+        <v>96300</v>
       </c>
       <c r="G83" s="3">
-        <v>27200</v>
+        <v>84500</v>
       </c>
       <c r="H83" s="3">
-        <v>8900</v>
+        <v>24000</v>
       </c>
       <c r="I83" s="3">
-        <v>5800</v>
+        <v>7900</v>
       </c>
       <c r="J83" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K83" s="3">
         <v>4600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>6200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>10200</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>465200</v>
+        <v>516200</v>
       </c>
       <c r="E89" s="3">
-        <v>282400</v>
+        <v>411600</v>
       </c>
       <c r="F89" s="3">
-        <v>197500</v>
+        <v>249900</v>
       </c>
       <c r="G89" s="3">
-        <v>73400</v>
+        <v>174800</v>
       </c>
       <c r="H89" s="3">
-        <v>53900</v>
+        <v>64900</v>
       </c>
       <c r="I89" s="3">
-        <v>31800</v>
+        <v>47700</v>
       </c>
       <c r="J89" s="3">
+        <v>28100</v>
+      </c>
+      <c r="K89" s="3">
         <v>22200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>19800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>29800</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-355600</v>
+        <v>-91700</v>
       </c>
       <c r="E91" s="3">
-        <v>-313500</v>
+        <v>-314600</v>
       </c>
       <c r="F91" s="3">
-        <v>-225700</v>
+        <v>-277400</v>
       </c>
       <c r="G91" s="3">
-        <v>-77100</v>
+        <v>-199700</v>
       </c>
       <c r="H91" s="3">
-        <v>-59200</v>
+        <v>-68200</v>
       </c>
       <c r="I91" s="3">
-        <v>-28800</v>
+        <v>-52400</v>
       </c>
       <c r="J91" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-14800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-42800</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-212100</v>
+        <v>-169600</v>
       </c>
       <c r="E94" s="3">
-        <v>9100</v>
+        <v>-187700</v>
       </c>
       <c r="F94" s="3">
-        <v>-394100</v>
+        <v>8100</v>
       </c>
       <c r="G94" s="3">
-        <v>-138600</v>
+        <v>-348800</v>
       </c>
       <c r="H94" s="3">
-        <v>-87800</v>
+        <v>-122600</v>
       </c>
       <c r="I94" s="3">
-        <v>-30500</v>
+        <v>-77700</v>
       </c>
       <c r="J94" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-19400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-14900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-44900</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-700</v>
+        <v>-6400</v>
       </c>
       <c r="E96" s="3">
-        <v>-1000</v>
+        <v>-600</v>
       </c>
       <c r="F96" s="3">
         <v>-900</v>
       </c>
       <c r="G96" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-500</v>
       </c>
-      <c r="H96" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-261300</v>
+        <v>-327600</v>
       </c>
       <c r="E100" s="3">
-        <v>-218600</v>
+        <v>-231200</v>
       </c>
       <c r="F100" s="3">
-        <v>172600</v>
+        <v>-193400</v>
       </c>
       <c r="G100" s="3">
-        <v>71900</v>
+        <v>152800</v>
       </c>
       <c r="H100" s="3">
-        <v>35200</v>
+        <v>63700</v>
       </c>
       <c r="I100" s="3">
-        <v>-1800</v>
+        <v>31100</v>
       </c>
       <c r="J100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-9000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>10300</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>62500</v>
+        <v>-36500</v>
       </c>
       <c r="E101" s="3">
-        <v>24800</v>
+        <v>55300</v>
       </c>
       <c r="F101" s="3">
-        <v>6300</v>
+        <v>22000</v>
       </c>
       <c r="G101" s="3">
-        <v>4400</v>
+        <v>5600</v>
       </c>
       <c r="H101" s="3">
-        <v>1000</v>
+        <v>3900</v>
       </c>
       <c r="I101" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="J101" s="3">
+        <v>400</v>
+      </c>
+      <c r="K101" s="3">
         <v>600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2700</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>54300</v>
+        <v>-17400</v>
       </c>
       <c r="E102" s="3">
-        <v>97700</v>
+        <v>48000</v>
       </c>
       <c r="F102" s="3">
-        <v>-17700</v>
+        <v>86500</v>
       </c>
       <c r="G102" s="3">
-        <v>11200</v>
+        <v>-15700</v>
       </c>
       <c r="H102" s="3">
-        <v>2200</v>
+        <v>9900</v>
       </c>
       <c r="I102" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2100</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PAM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PAM_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>836900</v>
+        <v>813100</v>
       </c>
       <c r="E8" s="3">
-        <v>706500</v>
+        <v>686500</v>
       </c>
       <c r="F8" s="3">
-        <v>591100</v>
+        <v>574300</v>
       </c>
       <c r="G8" s="3">
-        <v>895500</v>
+        <v>870100</v>
       </c>
       <c r="H8" s="3">
-        <v>274200</v>
+        <v>266400</v>
       </c>
       <c r="I8" s="3">
-        <v>78200</v>
+        <v>76000</v>
       </c>
       <c r="J8" s="3">
-        <v>67800</v>
+        <v>65800</v>
       </c>
       <c r="K8" s="3">
         <v>65800</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>511200</v>
+        <v>496700</v>
       </c>
       <c r="E9" s="3">
-        <v>427000</v>
+        <v>414800</v>
       </c>
       <c r="F9" s="3">
-        <v>341700</v>
+        <v>332000</v>
       </c>
       <c r="G9" s="3">
-        <v>643300</v>
+        <v>625100</v>
       </c>
       <c r="H9" s="3">
-        <v>194100</v>
+        <v>188600</v>
       </c>
       <c r="I9" s="3">
-        <v>74600</v>
+        <v>72500</v>
       </c>
       <c r="J9" s="3">
-        <v>65800</v>
+        <v>64000</v>
       </c>
       <c r="K9" s="3">
         <v>69100</v>
@@ -792,22 +792,22 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>325700</v>
+        <v>316400</v>
       </c>
       <c r="E10" s="3">
-        <v>279600</v>
+        <v>271600</v>
       </c>
       <c r="F10" s="3">
-        <v>249300</v>
+        <v>242200</v>
       </c>
       <c r="G10" s="3">
-        <v>252200</v>
+        <v>245000</v>
       </c>
       <c r="H10" s="3">
-        <v>80100</v>
+        <v>77800</v>
       </c>
       <c r="I10" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="J10" s="3">
         <v>1900</v>
@@ -847,7 +847,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="F12" s="3">
         <v>300</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>113400</v>
+        <v>110200</v>
       </c>
       <c r="E14" s="3">
-        <v>55800</v>
+        <v>54200</v>
       </c>
       <c r="F14" s="3">
-        <v>-152500</v>
+        <v>-148200</v>
       </c>
       <c r="G14" s="3">
-        <v>-121900</v>
+        <v>-118400</v>
       </c>
       <c r="H14" s="3">
-        <v>56200</v>
+        <v>54700</v>
       </c>
       <c r="I14" s="3">
         <v>2800</v>
       </c>
       <c r="J14" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="K14" s="3">
         <v>500</v>
@@ -952,22 +952,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="E15" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="F15" s="3">
         <v>2500</v>
       </c>
       <c r="G15" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="H15" s="3">
         <v>1200</v>
       </c>
       <c r="I15" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J15" s="3">
         <v>400</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>638200</v>
+        <v>620100</v>
       </c>
       <c r="E17" s="3">
-        <v>463400</v>
+        <v>450300</v>
       </c>
       <c r="F17" s="3">
-        <v>169800</v>
+        <v>165000</v>
       </c>
       <c r="G17" s="3">
-        <v>618700</v>
+        <v>601200</v>
       </c>
       <c r="H17" s="3">
-        <v>252500</v>
+        <v>245400</v>
       </c>
       <c r="I17" s="3">
-        <v>38400</v>
+        <v>37300</v>
       </c>
       <c r="J17" s="3">
-        <v>58100</v>
+        <v>56500</v>
       </c>
       <c r="K17" s="3">
         <v>44500</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>198700</v>
+        <v>193100</v>
       </c>
       <c r="E18" s="3">
-        <v>243100</v>
+        <v>236200</v>
       </c>
       <c r="F18" s="3">
-        <v>421200</v>
+        <v>409300</v>
       </c>
       <c r="G18" s="3">
-        <v>276800</v>
+        <v>268900</v>
       </c>
       <c r="H18" s="3">
-        <v>21700</v>
+        <v>21000</v>
       </c>
       <c r="I18" s="3">
-        <v>39800</v>
+        <v>38700</v>
       </c>
       <c r="J18" s="3">
-        <v>9600</v>
+        <v>9400</v>
       </c>
       <c r="K18" s="3">
         <v>21300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>64800</v>
+        <v>63000</v>
       </c>
       <c r="E20" s="3">
-        <v>94700</v>
+        <v>92000</v>
       </c>
       <c r="F20" s="3">
-        <v>-331900</v>
+        <v>-322500</v>
       </c>
       <c r="G20" s="3">
-        <v>-44600</v>
+        <v>-43300</v>
       </c>
       <c r="H20" s="3">
-        <v>-4600</v>
+        <v>-4500</v>
       </c>
       <c r="I20" s="3">
-        <v>18900</v>
+        <v>18300</v>
       </c>
       <c r="J20" s="3">
-        <v>7800</v>
+        <v>7600</v>
       </c>
       <c r="K20" s="3">
         <v>-3000</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>422000</v>
+        <v>410000</v>
       </c>
       <c r="E21" s="3">
-        <v>490100</v>
+        <v>476200</v>
       </c>
       <c r="F21" s="3">
-        <v>185700</v>
+        <v>180500</v>
       </c>
       <c r="G21" s="3">
-        <v>316900</v>
+        <v>307900</v>
       </c>
       <c r="H21" s="3">
-        <v>41100</v>
+        <v>39900</v>
       </c>
       <c r="I21" s="3">
-        <v>66500</v>
+        <v>64700</v>
       </c>
       <c r="J21" s="3">
-        <v>22600</v>
+        <v>21900</v>
       </c>
       <c r="K21" s="3">
         <v>22900</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>127200</v>
+        <v>123600</v>
       </c>
       <c r="E22" s="3">
-        <v>87000</v>
+        <v>84500</v>
       </c>
       <c r="F22" s="3">
+        <v>63000</v>
+      </c>
+      <c r="G22" s="3">
         <v>64800</v>
       </c>
-      <c r="G22" s="3">
-        <v>66700</v>
-      </c>
       <c r="H22" s="3">
-        <v>33700</v>
+        <v>32700</v>
       </c>
       <c r="I22" s="3">
-        <v>10200</v>
+        <v>9900</v>
       </c>
       <c r="J22" s="3">
-        <v>10600</v>
+        <v>10300</v>
       </c>
       <c r="K22" s="3">
         <v>9300</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>136400</v>
+        <v>132500</v>
       </c>
       <c r="E23" s="3">
-        <v>250800</v>
+        <v>243600</v>
       </c>
       <c r="F23" s="3">
-        <v>24500</v>
+        <v>23800</v>
       </c>
       <c r="G23" s="3">
-        <v>165500</v>
+        <v>160800</v>
       </c>
       <c r="H23" s="3">
-        <v>-16700</v>
+        <v>-16200</v>
       </c>
       <c r="I23" s="3">
-        <v>48400</v>
+        <v>47100</v>
       </c>
       <c r="J23" s="3">
-        <v>6900</v>
+        <v>6700</v>
       </c>
       <c r="K23" s="3">
         <v>9000</v>
@@ -1233,22 +1233,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>34100</v>
+        <v>33100</v>
       </c>
       <c r="E24" s="3">
-        <v>-49500</v>
+        <v>-48100</v>
       </c>
       <c r="F24" s="3">
-        <v>-13200</v>
+        <v>-12800</v>
       </c>
       <c r="G24" s="3">
-        <v>-10800</v>
+        <v>-10500</v>
       </c>
       <c r="H24" s="3">
-        <v>-13100</v>
+        <v>-12700</v>
       </c>
       <c r="I24" s="3">
-        <v>6400</v>
+        <v>6200</v>
       </c>
       <c r="J24" s="3">
         <v>1100</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>102300</v>
+        <v>99400</v>
       </c>
       <c r="E26" s="3">
-        <v>300200</v>
+        <v>291700</v>
       </c>
       <c r="F26" s="3">
-        <v>37700</v>
+        <v>36600</v>
       </c>
       <c r="G26" s="3">
-        <v>176300</v>
+        <v>171300</v>
       </c>
       <c r="H26" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="I26" s="3">
-        <v>42000</v>
+        <v>40800</v>
       </c>
       <c r="J26" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="K26" s="3">
         <v>9200</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>195300</v>
+        <v>189800</v>
       </c>
       <c r="E27" s="3">
-        <v>231500</v>
+        <v>224900</v>
       </c>
       <c r="F27" s="3">
-        <v>11700</v>
+        <v>11400</v>
       </c>
       <c r="G27" s="3">
-        <v>138600</v>
+        <v>134700</v>
       </c>
       <c r="H27" s="3">
         <v>-900</v>
       </c>
       <c r="I27" s="3">
-        <v>33500</v>
+        <v>32500</v>
       </c>
       <c r="J27" s="3">
-        <v>8100</v>
+        <v>7900</v>
       </c>
       <c r="K27" s="3">
         <v>5100</v>
@@ -1413,16 +1413,16 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-538700</v>
+        <v>-523400</v>
       </c>
       <c r="E29" s="3">
-        <v>129000</v>
+        <v>125300</v>
       </c>
       <c r="F29" s="3">
-        <v>80400</v>
+        <v>78100</v>
       </c>
       <c r="G29" s="3">
-        <v>-20700</v>
+        <v>-20100</v>
       </c>
       <c r="H29" s="3">
         <v>800</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-64800</v>
+        <v>-63000</v>
       </c>
       <c r="E32" s="3">
-        <v>-94700</v>
+        <v>-92000</v>
       </c>
       <c r="F32" s="3">
-        <v>331900</v>
+        <v>322500</v>
       </c>
       <c r="G32" s="3">
-        <v>44600</v>
+        <v>43300</v>
       </c>
       <c r="H32" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="I32" s="3">
-        <v>-18900</v>
+        <v>-18300</v>
       </c>
       <c r="J32" s="3">
-        <v>-7800</v>
+        <v>-7600</v>
       </c>
       <c r="K32" s="3">
         <v>3000</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-343400</v>
+        <v>-333700</v>
       </c>
       <c r="E33" s="3">
-        <v>360500</v>
+        <v>350300</v>
       </c>
       <c r="F33" s="3">
-        <v>92100</v>
+        <v>89500</v>
       </c>
       <c r="G33" s="3">
-        <v>117900</v>
+        <v>114600</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>33500</v>
+        <v>32500</v>
       </c>
       <c r="J33" s="3">
-        <v>8100</v>
+        <v>7900</v>
       </c>
       <c r="K33" s="3">
         <v>3500</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-343400</v>
+        <v>-333700</v>
       </c>
       <c r="E35" s="3">
-        <v>360500</v>
+        <v>350300</v>
       </c>
       <c r="F35" s="3">
-        <v>92100</v>
+        <v>89500</v>
       </c>
       <c r="G35" s="3">
-        <v>117900</v>
+        <v>114600</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>33500</v>
+        <v>32500</v>
       </c>
       <c r="J35" s="3">
-        <v>8100</v>
+        <v>7900</v>
       </c>
       <c r="K35" s="3">
         <v>3500</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>129900</v>
+        <v>126300</v>
       </c>
       <c r="E41" s="3">
-        <v>147400</v>
+        <v>143200</v>
       </c>
       <c r="F41" s="3">
-        <v>110100</v>
+        <v>107000</v>
       </c>
       <c r="G41" s="3">
-        <v>12900</v>
+        <v>12500</v>
       </c>
       <c r="H41" s="3">
-        <v>15500</v>
+        <v>15100</v>
       </c>
       <c r="I41" s="3">
-        <v>11300</v>
+        <v>11000</v>
       </c>
       <c r="J41" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="K41" s="3">
         <v>1500</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>321500</v>
+        <v>312400</v>
       </c>
       <c r="E42" s="3">
-        <v>274000</v>
+        <v>266200</v>
       </c>
       <c r="F42" s="3">
-        <v>200900</v>
+        <v>195200</v>
       </c>
       <c r="G42" s="3">
-        <v>236000</v>
+        <v>229300</v>
       </c>
       <c r="H42" s="3">
-        <v>46000</v>
+        <v>44700</v>
       </c>
       <c r="I42" s="3">
-        <v>44600</v>
+        <v>43300</v>
       </c>
       <c r="J42" s="3">
-        <v>11200</v>
+        <v>10900</v>
       </c>
       <c r="K42" s="3">
         <v>13200</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>309500</v>
+        <v>300800</v>
       </c>
       <c r="E43" s="3">
-        <v>365300</v>
+        <v>354900</v>
       </c>
       <c r="F43" s="3">
-        <v>318900</v>
+        <v>309800</v>
       </c>
       <c r="G43" s="3">
-        <v>307400</v>
+        <v>298700</v>
       </c>
       <c r="H43" s="3">
-        <v>152900</v>
+        <v>148500</v>
       </c>
       <c r="I43" s="3">
-        <v>52100</v>
+        <v>50600</v>
       </c>
       <c r="J43" s="3">
-        <v>31000</v>
+        <v>30200</v>
       </c>
       <c r="K43" s="3">
         <v>27900</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>103800</v>
+        <v>100800</v>
       </c>
       <c r="E44" s="3">
-        <v>86200</v>
+        <v>83800</v>
       </c>
       <c r="F44" s="3">
-        <v>61700</v>
+        <v>59900</v>
       </c>
       <c r="G44" s="3">
-        <v>44300</v>
+        <v>43000</v>
       </c>
       <c r="H44" s="3">
-        <v>36700</v>
+        <v>35600</v>
       </c>
       <c r="I44" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="J44" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="K44" s="3">
         <v>1000</v>
@@ -1882,16 +1882,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="E45" s="3">
-        <v>17700</v>
+        <v>17200</v>
       </c>
       <c r="F45" s="3">
         <v>2600</v>
       </c>
       <c r="G45" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="H45" s="3">
         <v>1700</v>
@@ -1900,7 +1900,7 @@
         <v>1300</v>
       </c>
       <c r="J45" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K45" s="3">
         <v>400</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>871300</v>
+        <v>846600</v>
       </c>
       <c r="E46" s="3">
-        <v>890600</v>
+        <v>865300</v>
       </c>
       <c r="F46" s="3">
-        <v>694300</v>
+        <v>674600</v>
       </c>
       <c r="G46" s="3">
-        <v>604200</v>
+        <v>587100</v>
       </c>
       <c r="H46" s="3">
-        <v>252800</v>
+        <v>245600</v>
       </c>
       <c r="I46" s="3">
-        <v>105900</v>
+        <v>102900</v>
       </c>
       <c r="J46" s="3">
-        <v>48100</v>
+        <v>46700</v>
       </c>
       <c r="K46" s="3">
         <v>43900</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>646800</v>
+        <v>628400</v>
       </c>
       <c r="E47" s="3">
-        <v>404800</v>
+        <v>393300</v>
       </c>
       <c r="F47" s="3">
-        <v>305900</v>
+        <v>297200</v>
       </c>
       <c r="G47" s="3">
-        <v>223100</v>
+        <v>216800</v>
       </c>
       <c r="H47" s="3">
-        <v>106600</v>
+        <v>103500</v>
       </c>
       <c r="I47" s="3">
-        <v>45400</v>
+        <v>44100</v>
       </c>
       <c r="J47" s="3">
-        <v>24900</v>
+        <v>24200</v>
       </c>
       <c r="K47" s="3">
         <v>13900</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1488500</v>
+        <v>1446300</v>
       </c>
       <c r="E48" s="3">
-        <v>2304000</v>
+        <v>2238600</v>
       </c>
       <c r="F48" s="3">
-        <v>1513000</v>
+        <v>1470100</v>
       </c>
       <c r="G48" s="3">
-        <v>1218400</v>
+        <v>1183800</v>
       </c>
       <c r="H48" s="3">
-        <v>448800</v>
+        <v>436100</v>
       </c>
       <c r="I48" s="3">
-        <v>158500</v>
+        <v>154000</v>
       </c>
       <c r="J48" s="3">
-        <v>100700</v>
+        <v>97800</v>
       </c>
       <c r="K48" s="3">
         <v>85200</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>37700</v>
+        <v>36700</v>
       </c>
       <c r="E49" s="3">
-        <v>99000</v>
+        <v>96200</v>
       </c>
       <c r="F49" s="3">
-        <v>73600</v>
+        <v>71500</v>
       </c>
       <c r="G49" s="3">
-        <v>69400</v>
+        <v>67400</v>
       </c>
       <c r="H49" s="3">
-        <v>22000</v>
+        <v>21400</v>
       </c>
       <c r="I49" s="3">
-        <v>8000</v>
+        <v>7800</v>
       </c>
       <c r="J49" s="3">
-        <v>9500</v>
+        <v>9300</v>
       </c>
       <c r="K49" s="3">
         <v>11100</v>
@@ -2134,19 +2134,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1449500</v>
+        <v>1408400</v>
       </c>
       <c r="E52" s="3">
-        <v>19100</v>
+        <v>18500</v>
       </c>
       <c r="F52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="G52" s="3">
-        <v>222700</v>
+        <v>216400</v>
       </c>
       <c r="H52" s="3">
-        <v>13700</v>
+        <v>13300</v>
       </c>
       <c r="I52" s="3">
         <v>600</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4493900</v>
+        <v>4366300</v>
       </c>
       <c r="E54" s="3">
-        <v>3717500</v>
+        <v>3611900</v>
       </c>
       <c r="F54" s="3">
-        <v>2588200</v>
+        <v>2514700</v>
       </c>
       <c r="G54" s="3">
-        <v>2328700</v>
+        <v>2262600</v>
       </c>
       <c r="H54" s="3">
-        <v>843900</v>
+        <v>819900</v>
       </c>
       <c r="I54" s="3">
-        <v>318300</v>
+        <v>309300</v>
       </c>
       <c r="J54" s="3">
-        <v>184200</v>
+        <v>179000</v>
       </c>
       <c r="K54" s="3">
         <v>155000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>89800</v>
+        <v>87200</v>
       </c>
       <c r="E57" s="3">
-        <v>246800</v>
+        <v>239800</v>
       </c>
       <c r="F57" s="3">
-        <v>261600</v>
+        <v>254200</v>
       </c>
       <c r="G57" s="3">
-        <v>265000</v>
+        <v>257500</v>
       </c>
       <c r="H57" s="3">
-        <v>137300</v>
+        <v>133400</v>
       </c>
       <c r="I57" s="3">
-        <v>72300</v>
+        <v>70200</v>
       </c>
       <c r="J57" s="3">
-        <v>49500</v>
+        <v>48100</v>
       </c>
       <c r="K57" s="3">
         <v>38100</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>222500</v>
+        <v>216200</v>
       </c>
       <c r="E58" s="3">
-        <v>119800</v>
+        <v>116400</v>
       </c>
       <c r="F58" s="3">
-        <v>156100</v>
+        <v>151700</v>
       </c>
       <c r="G58" s="3">
-        <v>94200</v>
+        <v>91500</v>
       </c>
       <c r="H58" s="3">
-        <v>116700</v>
+        <v>113400</v>
       </c>
       <c r="I58" s="3">
-        <v>14300</v>
+        <v>13900</v>
       </c>
       <c r="J58" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="K58" s="3">
         <v>9300</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>99800</v>
+        <v>96900</v>
       </c>
       <c r="E59" s="3">
-        <v>191500</v>
+        <v>186100</v>
       </c>
       <c r="F59" s="3">
-        <v>122100</v>
+        <v>118700</v>
       </c>
       <c r="G59" s="3">
-        <v>123900</v>
+        <v>120300</v>
       </c>
       <c r="H59" s="3">
-        <v>74300</v>
+        <v>72200</v>
       </c>
       <c r="I59" s="3">
-        <v>18100</v>
+        <v>17600</v>
       </c>
       <c r="J59" s="3">
-        <v>11600</v>
+        <v>11200</v>
       </c>
       <c r="K59" s="3">
         <v>9500</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>412100</v>
+        <v>400400</v>
       </c>
       <c r="E60" s="3">
-        <v>558100</v>
+        <v>542300</v>
       </c>
       <c r="F60" s="3">
-        <v>539900</v>
+        <v>524500</v>
       </c>
       <c r="G60" s="3">
-        <v>483100</v>
+        <v>469300</v>
       </c>
       <c r="H60" s="3">
-        <v>328300</v>
+        <v>319000</v>
       </c>
       <c r="I60" s="3">
-        <v>104600</v>
+        <v>101700</v>
       </c>
       <c r="J60" s="3">
-        <v>69600</v>
+        <v>67700</v>
       </c>
       <c r="K60" s="3">
         <v>56900</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1260500</v>
+        <v>1224700</v>
       </c>
       <c r="E61" s="3">
-        <v>1153500</v>
+        <v>1120700</v>
       </c>
       <c r="F61" s="3">
-        <v>837400</v>
+        <v>813700</v>
       </c>
       <c r="G61" s="3">
-        <v>598600</v>
+        <v>581600</v>
       </c>
       <c r="H61" s="3">
-        <v>166900</v>
+        <v>162200</v>
       </c>
       <c r="I61" s="3">
-        <v>73000</v>
+        <v>70900</v>
       </c>
       <c r="J61" s="3">
-        <v>41400</v>
+        <v>40200</v>
       </c>
       <c r="K61" s="3">
         <v>36100</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>257600</v>
+        <v>250300</v>
       </c>
       <c r="E62" s="3">
-        <v>430500</v>
+        <v>418300</v>
       </c>
       <c r="F62" s="3">
-        <v>391700</v>
+        <v>380500</v>
       </c>
       <c r="G62" s="3">
-        <v>397900</v>
+        <v>386600</v>
       </c>
       <c r="H62" s="3">
-        <v>195000</v>
+        <v>189400</v>
       </c>
       <c r="I62" s="3">
-        <v>49200</v>
+        <v>47800</v>
       </c>
       <c r="J62" s="3">
-        <v>34400</v>
+        <v>33400</v>
       </c>
       <c r="K62" s="3">
         <v>26500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3180800</v>
+        <v>3090500</v>
       </c>
       <c r="E66" s="3">
-        <v>2463100</v>
+        <v>2393200</v>
       </c>
       <c r="F66" s="3">
-        <v>1964600</v>
+        <v>1908800</v>
       </c>
       <c r="G66" s="3">
-        <v>1712000</v>
+        <v>1663400</v>
       </c>
       <c r="H66" s="3">
-        <v>723200</v>
+        <v>702600</v>
       </c>
       <c r="I66" s="3">
-        <v>242000</v>
+        <v>235100</v>
       </c>
       <c r="J66" s="3">
-        <v>152300</v>
+        <v>148000</v>
       </c>
       <c r="K66" s="3">
         <v>129100</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>677200</v>
+        <v>658000</v>
       </c>
       <c r="E72" s="3">
-        <v>770400</v>
+        <v>748600</v>
       </c>
       <c r="F72" s="3">
-        <v>278000</v>
+        <v>270100</v>
       </c>
       <c r="G72" s="3">
-        <v>278000</v>
+        <v>270100</v>
       </c>
       <c r="H72" s="3">
-        <v>44600</v>
+        <v>43300</v>
       </c>
       <c r="I72" s="3">
-        <v>44700</v>
+        <v>43400</v>
       </c>
       <c r="J72" s="3">
-        <v>14100</v>
+        <v>13700</v>
       </c>
       <c r="K72" s="3">
         <v>6700</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1313100</v>
+        <v>1275800</v>
       </c>
       <c r="E76" s="3">
-        <v>1254300</v>
+        <v>1218700</v>
       </c>
       <c r="F76" s="3">
-        <v>623600</v>
+        <v>605900</v>
       </c>
       <c r="G76" s="3">
-        <v>616700</v>
+        <v>599200</v>
       </c>
       <c r="H76" s="3">
-        <v>120700</v>
+        <v>117300</v>
       </c>
       <c r="I76" s="3">
-        <v>76300</v>
+        <v>74200</v>
       </c>
       <c r="J76" s="3">
-        <v>31900</v>
+        <v>31000</v>
       </c>
       <c r="K76" s="3">
         <v>25900</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-343400</v>
+        <v>-333700</v>
       </c>
       <c r="E81" s="3">
-        <v>360500</v>
+        <v>350300</v>
       </c>
       <c r="F81" s="3">
-        <v>92100</v>
+        <v>89500</v>
       </c>
       <c r="G81" s="3">
-        <v>117900</v>
+        <v>114600</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>33500</v>
+        <v>32500</v>
       </c>
       <c r="J81" s="3">
-        <v>8100</v>
+        <v>7900</v>
       </c>
       <c r="K81" s="3">
         <v>3500</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>158200</v>
+        <v>153700</v>
       </c>
       <c r="E83" s="3">
-        <v>152000</v>
+        <v>147700</v>
       </c>
       <c r="F83" s="3">
-        <v>96300</v>
+        <v>93500</v>
       </c>
       <c r="G83" s="3">
-        <v>84500</v>
+        <v>82100</v>
       </c>
       <c r="H83" s="3">
-        <v>24000</v>
+        <v>23400</v>
       </c>
       <c r="I83" s="3">
-        <v>7900</v>
+        <v>7600</v>
       </c>
       <c r="J83" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="K83" s="3">
         <v>4600</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>516200</v>
+        <v>501500</v>
       </c>
       <c r="E89" s="3">
-        <v>411600</v>
+        <v>400000</v>
       </c>
       <c r="F89" s="3">
-        <v>249900</v>
+        <v>242800</v>
       </c>
       <c r="G89" s="3">
-        <v>174800</v>
+        <v>169800</v>
       </c>
       <c r="H89" s="3">
-        <v>64900</v>
+        <v>63100</v>
       </c>
       <c r="I89" s="3">
-        <v>47700</v>
+        <v>46300</v>
       </c>
       <c r="J89" s="3">
-        <v>28100</v>
+        <v>27300</v>
       </c>
       <c r="K89" s="3">
         <v>22200</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-91700</v>
+        <v>-89100</v>
       </c>
       <c r="E91" s="3">
-        <v>-314600</v>
+        <v>-305700</v>
       </c>
       <c r="F91" s="3">
-        <v>-277400</v>
+        <v>-269600</v>
       </c>
       <c r="G91" s="3">
-        <v>-199700</v>
+        <v>-194100</v>
       </c>
       <c r="H91" s="3">
-        <v>-68200</v>
+        <v>-66200</v>
       </c>
       <c r="I91" s="3">
-        <v>-52400</v>
+        <v>-50900</v>
       </c>
       <c r="J91" s="3">
-        <v>-25500</v>
+        <v>-24700</v>
       </c>
       <c r="K91" s="3">
         <v>-14800</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-169600</v>
+        <v>-164800</v>
       </c>
       <c r="E94" s="3">
-        <v>-187700</v>
+        <v>-182400</v>
       </c>
       <c r="F94" s="3">
-        <v>8100</v>
+        <v>7900</v>
       </c>
       <c r="G94" s="3">
-        <v>-348800</v>
+        <v>-338900</v>
       </c>
       <c r="H94" s="3">
-        <v>-122600</v>
+        <v>-119200</v>
       </c>
       <c r="I94" s="3">
-        <v>-77700</v>
+        <v>-75500</v>
       </c>
       <c r="J94" s="3">
-        <v>-27000</v>
+        <v>-26200</v>
       </c>
       <c r="K94" s="3">
         <v>-19400</v>
@@ -3531,7 +3531,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-6400</v>
+        <v>-6200</v>
       </c>
       <c r="E96" s="3">
         <v>-600</v>
@@ -3675,22 +3675,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-327600</v>
+        <v>-318300</v>
       </c>
       <c r="E100" s="3">
-        <v>-231200</v>
+        <v>-224600</v>
       </c>
       <c r="F100" s="3">
-        <v>-193400</v>
+        <v>-187900</v>
       </c>
       <c r="G100" s="3">
-        <v>152800</v>
+        <v>148400</v>
       </c>
       <c r="H100" s="3">
-        <v>63700</v>
+        <v>61900</v>
       </c>
       <c r="I100" s="3">
-        <v>31100</v>
+        <v>30300</v>
       </c>
       <c r="J100" s="3">
         <v>-1600</v>
@@ -3711,22 +3711,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-36500</v>
+        <v>-35400</v>
       </c>
       <c r="E101" s="3">
-        <v>55300</v>
+        <v>53800</v>
       </c>
       <c r="F101" s="3">
-        <v>22000</v>
+        <v>21300</v>
       </c>
       <c r="G101" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="H101" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="I101" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="J101" s="3">
         <v>400</v>
@@ -3747,22 +3747,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-17400</v>
+        <v>-16900</v>
       </c>
       <c r="E102" s="3">
-        <v>48000</v>
+        <v>46700</v>
       </c>
       <c r="F102" s="3">
-        <v>86500</v>
+        <v>84000</v>
       </c>
       <c r="G102" s="3">
-        <v>-15700</v>
+        <v>-15200</v>
       </c>
       <c r="H102" s="3">
-        <v>9900</v>
+        <v>9600</v>
       </c>
       <c r="I102" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="J102" s="3">
         <v>-100</v>

--- a/AAII_Financials/Yearly/PAM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PAM_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>813100</v>
+        <v>787800</v>
       </c>
       <c r="E8" s="3">
-        <v>686500</v>
+        <v>665100</v>
       </c>
       <c r="F8" s="3">
-        <v>574300</v>
+        <v>556400</v>
       </c>
       <c r="G8" s="3">
-        <v>870100</v>
+        <v>843000</v>
       </c>
       <c r="H8" s="3">
-        <v>266400</v>
+        <v>258100</v>
       </c>
       <c r="I8" s="3">
-        <v>76000</v>
+        <v>73600</v>
       </c>
       <c r="J8" s="3">
-        <v>65800</v>
+        <v>63800</v>
       </c>
       <c r="K8" s="3">
         <v>65800</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>496700</v>
+        <v>481300</v>
       </c>
       <c r="E9" s="3">
-        <v>414800</v>
+        <v>401900</v>
       </c>
       <c r="F9" s="3">
-        <v>332000</v>
+        <v>321700</v>
       </c>
       <c r="G9" s="3">
-        <v>625100</v>
+        <v>605600</v>
       </c>
       <c r="H9" s="3">
-        <v>188600</v>
+        <v>182700</v>
       </c>
       <c r="I9" s="3">
-        <v>72500</v>
+        <v>70200</v>
       </c>
       <c r="J9" s="3">
-        <v>64000</v>
+        <v>62000</v>
       </c>
       <c r="K9" s="3">
         <v>69100</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>316400</v>
+        <v>306600</v>
       </c>
       <c r="E10" s="3">
-        <v>271600</v>
+        <v>263200</v>
       </c>
       <c r="F10" s="3">
-        <v>242200</v>
+        <v>234700</v>
       </c>
       <c r="G10" s="3">
-        <v>245000</v>
+        <v>237400</v>
       </c>
       <c r="H10" s="3">
-        <v>77800</v>
+        <v>75400</v>
       </c>
       <c r="I10" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="J10" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="K10" s="3">
         <v>-3300</v>
@@ -847,7 +847,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="F12" s="3">
         <v>300</v>
@@ -916,22 +916,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>110200</v>
+        <v>106800</v>
       </c>
       <c r="E14" s="3">
-        <v>54200</v>
+        <v>52500</v>
       </c>
       <c r="F14" s="3">
-        <v>-148200</v>
+        <v>-143600</v>
       </c>
       <c r="G14" s="3">
-        <v>-118400</v>
+        <v>-114700</v>
       </c>
       <c r="H14" s="3">
-        <v>54700</v>
+        <v>53000</v>
       </c>
       <c r="I14" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="J14" s="3">
         <v>-700</v>
@@ -952,16 +952,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="E15" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="F15" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="G15" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="H15" s="3">
         <v>1200</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>620100</v>
+        <v>600800</v>
       </c>
       <c r="E17" s="3">
-        <v>450300</v>
+        <v>436300</v>
       </c>
       <c r="F17" s="3">
-        <v>165000</v>
+        <v>159900</v>
       </c>
       <c r="G17" s="3">
-        <v>601200</v>
+        <v>582500</v>
       </c>
       <c r="H17" s="3">
-        <v>245400</v>
+        <v>237700</v>
       </c>
       <c r="I17" s="3">
-        <v>37300</v>
+        <v>36200</v>
       </c>
       <c r="J17" s="3">
-        <v>56500</v>
+        <v>54700</v>
       </c>
       <c r="K17" s="3">
         <v>44500</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>193100</v>
+        <v>187100</v>
       </c>
       <c r="E18" s="3">
-        <v>236200</v>
+        <v>228800</v>
       </c>
       <c r="F18" s="3">
-        <v>409300</v>
+        <v>396500</v>
       </c>
       <c r="G18" s="3">
-        <v>268900</v>
+        <v>260600</v>
       </c>
       <c r="H18" s="3">
-        <v>21000</v>
+        <v>20400</v>
       </c>
       <c r="I18" s="3">
-        <v>38700</v>
+        <v>37500</v>
       </c>
       <c r="J18" s="3">
-        <v>9400</v>
+        <v>9100</v>
       </c>
       <c r="K18" s="3">
         <v>21300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>63000</v>
+        <v>61000</v>
       </c>
       <c r="E20" s="3">
-        <v>92000</v>
+        <v>89100</v>
       </c>
       <c r="F20" s="3">
-        <v>-322500</v>
+        <v>-312500</v>
       </c>
       <c r="G20" s="3">
-        <v>-43300</v>
+        <v>-42000</v>
       </c>
       <c r="H20" s="3">
-        <v>-4500</v>
+        <v>-4400</v>
       </c>
       <c r="I20" s="3">
-        <v>18300</v>
+        <v>17800</v>
       </c>
       <c r="J20" s="3">
-        <v>7600</v>
+        <v>7400</v>
       </c>
       <c r="K20" s="3">
         <v>-3000</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>410000</v>
+        <v>397000</v>
       </c>
       <c r="E21" s="3">
-        <v>476200</v>
+        <v>461100</v>
       </c>
       <c r="F21" s="3">
-        <v>180500</v>
+        <v>174700</v>
       </c>
       <c r="G21" s="3">
-        <v>307900</v>
+        <v>298200</v>
       </c>
       <c r="H21" s="3">
-        <v>39900</v>
+        <v>38600</v>
       </c>
       <c r="I21" s="3">
-        <v>64700</v>
+        <v>62600</v>
       </c>
       <c r="J21" s="3">
-        <v>21900</v>
+        <v>21200</v>
       </c>
       <c r="K21" s="3">
         <v>22900</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>123600</v>
+        <v>119700</v>
       </c>
       <c r="E22" s="3">
-        <v>84500</v>
+        <v>81900</v>
       </c>
       <c r="F22" s="3">
-        <v>63000</v>
+        <v>61000</v>
       </c>
       <c r="G22" s="3">
-        <v>64800</v>
+        <v>62800</v>
       </c>
       <c r="H22" s="3">
-        <v>32700</v>
+        <v>31700</v>
       </c>
       <c r="I22" s="3">
-        <v>9900</v>
+        <v>9600</v>
       </c>
       <c r="J22" s="3">
-        <v>10300</v>
+        <v>10000</v>
       </c>
       <c r="K22" s="3">
         <v>9300</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>132500</v>
+        <v>128400</v>
       </c>
       <c r="E23" s="3">
-        <v>243600</v>
+        <v>236100</v>
       </c>
       <c r="F23" s="3">
-        <v>23800</v>
+        <v>23000</v>
       </c>
       <c r="G23" s="3">
-        <v>160800</v>
+        <v>155800</v>
       </c>
       <c r="H23" s="3">
-        <v>-16200</v>
+        <v>-15700</v>
       </c>
       <c r="I23" s="3">
-        <v>47100</v>
+        <v>45600</v>
       </c>
       <c r="J23" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="K23" s="3">
         <v>9000</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>33100</v>
+        <v>32100</v>
       </c>
       <c r="E24" s="3">
-        <v>-48100</v>
+        <v>-46600</v>
       </c>
       <c r="F24" s="3">
-        <v>-12800</v>
+        <v>-12400</v>
       </c>
       <c r="G24" s="3">
-        <v>-10500</v>
+        <v>-10100</v>
       </c>
       <c r="H24" s="3">
-        <v>-12700</v>
+        <v>-12300</v>
       </c>
       <c r="I24" s="3">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="J24" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K24" s="3">
         <v>-200</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>99400</v>
+        <v>96300</v>
       </c>
       <c r="E26" s="3">
-        <v>291700</v>
+        <v>282600</v>
       </c>
       <c r="F26" s="3">
-        <v>36600</v>
+        <v>35500</v>
       </c>
       <c r="G26" s="3">
-        <v>171300</v>
+        <v>165900</v>
       </c>
       <c r="H26" s="3">
-        <v>-3400</v>
+        <v>-3300</v>
       </c>
       <c r="I26" s="3">
-        <v>40800</v>
+        <v>39600</v>
       </c>
       <c r="J26" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="K26" s="3">
         <v>9200</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>189800</v>
+        <v>183900</v>
       </c>
       <c r="E27" s="3">
-        <v>224900</v>
+        <v>217900</v>
       </c>
       <c r="F27" s="3">
-        <v>11400</v>
+        <v>11100</v>
       </c>
       <c r="G27" s="3">
-        <v>134700</v>
+        <v>130500</v>
       </c>
       <c r="H27" s="3">
         <v>-900</v>
       </c>
       <c r="I27" s="3">
-        <v>32500</v>
+        <v>31500</v>
       </c>
       <c r="J27" s="3">
-        <v>7900</v>
+        <v>7600</v>
       </c>
       <c r="K27" s="3">
         <v>5100</v>
@@ -1413,19 +1413,19 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-523400</v>
+        <v>-507100</v>
       </c>
       <c r="E29" s="3">
-        <v>125300</v>
+        <v>121400</v>
       </c>
       <c r="F29" s="3">
-        <v>78100</v>
+        <v>75700</v>
       </c>
       <c r="G29" s="3">
-        <v>-20100</v>
+        <v>-19500</v>
       </c>
       <c r="H29" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-63000</v>
+        <v>-61000</v>
       </c>
       <c r="E32" s="3">
-        <v>-92000</v>
+        <v>-89100</v>
       </c>
       <c r="F32" s="3">
-        <v>322500</v>
+        <v>312500</v>
       </c>
       <c r="G32" s="3">
-        <v>43300</v>
+        <v>42000</v>
       </c>
       <c r="H32" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="I32" s="3">
-        <v>-18300</v>
+        <v>-17800</v>
       </c>
       <c r="J32" s="3">
-        <v>-7600</v>
+        <v>-7400</v>
       </c>
       <c r="K32" s="3">
         <v>3000</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-333700</v>
+        <v>-323300</v>
       </c>
       <c r="E33" s="3">
-        <v>350300</v>
+        <v>339400</v>
       </c>
       <c r="F33" s="3">
-        <v>89500</v>
+        <v>86700</v>
       </c>
       <c r="G33" s="3">
-        <v>114600</v>
+        <v>111000</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>32500</v>
+        <v>31500</v>
       </c>
       <c r="J33" s="3">
-        <v>7900</v>
+        <v>7600</v>
       </c>
       <c r="K33" s="3">
         <v>3500</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-333700</v>
+        <v>-323300</v>
       </c>
       <c r="E35" s="3">
-        <v>350300</v>
+        <v>339400</v>
       </c>
       <c r="F35" s="3">
-        <v>89500</v>
+        <v>86700</v>
       </c>
       <c r="G35" s="3">
-        <v>114600</v>
+        <v>111000</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>32500</v>
+        <v>31500</v>
       </c>
       <c r="J35" s="3">
-        <v>7900</v>
+        <v>7600</v>
       </c>
       <c r="K35" s="3">
         <v>3500</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>126300</v>
+        <v>122300</v>
       </c>
       <c r="E41" s="3">
-        <v>143200</v>
+        <v>138700</v>
       </c>
       <c r="F41" s="3">
-        <v>107000</v>
+        <v>103700</v>
       </c>
       <c r="G41" s="3">
-        <v>12500</v>
+        <v>12100</v>
       </c>
       <c r="H41" s="3">
-        <v>15100</v>
+        <v>14600</v>
       </c>
       <c r="I41" s="3">
-        <v>11000</v>
+        <v>10600</v>
       </c>
       <c r="J41" s="3">
-        <v>7100</v>
+        <v>6900</v>
       </c>
       <c r="K41" s="3">
         <v>1500</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>312400</v>
+        <v>302700</v>
       </c>
       <c r="E42" s="3">
-        <v>266200</v>
+        <v>257900</v>
       </c>
       <c r="F42" s="3">
-        <v>195200</v>
+        <v>189200</v>
       </c>
       <c r="G42" s="3">
-        <v>229300</v>
+        <v>222200</v>
       </c>
       <c r="H42" s="3">
-        <v>44700</v>
+        <v>43300</v>
       </c>
       <c r="I42" s="3">
-        <v>43300</v>
+        <v>42000</v>
       </c>
       <c r="J42" s="3">
-        <v>10900</v>
+        <v>10600</v>
       </c>
       <c r="K42" s="3">
         <v>13200</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>300800</v>
+        <v>291400</v>
       </c>
       <c r="E43" s="3">
-        <v>354900</v>
+        <v>343900</v>
       </c>
       <c r="F43" s="3">
-        <v>309800</v>
+        <v>300200</v>
       </c>
       <c r="G43" s="3">
-        <v>298700</v>
+        <v>289400</v>
       </c>
       <c r="H43" s="3">
-        <v>148500</v>
+        <v>143900</v>
       </c>
       <c r="I43" s="3">
-        <v>50600</v>
+        <v>49100</v>
       </c>
       <c r="J43" s="3">
-        <v>30200</v>
+        <v>29200</v>
       </c>
       <c r="K43" s="3">
         <v>27900</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100800</v>
+        <v>100400</v>
       </c>
       <c r="E44" s="3">
-        <v>83800</v>
+        <v>94300</v>
       </c>
       <c r="F44" s="3">
-        <v>59900</v>
+        <v>58900</v>
       </c>
       <c r="G44" s="3">
-        <v>43000</v>
+        <v>43900</v>
       </c>
       <c r="H44" s="3">
-        <v>35600</v>
+        <v>34500</v>
       </c>
       <c r="I44" s="3">
         <v>4600</v>
       </c>
       <c r="J44" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="K44" s="3">
         <v>1000</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6300</v>
+        <v>3400</v>
       </c>
       <c r="E45" s="3">
-        <v>17200</v>
+        <v>3600</v>
       </c>
       <c r="F45" s="3">
-        <v>2600</v>
+        <v>1700</v>
       </c>
       <c r="G45" s="3">
-        <v>3600</v>
+        <v>1300</v>
       </c>
       <c r="H45" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="I45" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="J45" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K45" s="3">
         <v>400</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>846600</v>
+        <v>820200</v>
       </c>
       <c r="E46" s="3">
-        <v>865300</v>
+        <v>838400</v>
       </c>
       <c r="F46" s="3">
-        <v>674600</v>
+        <v>653600</v>
       </c>
       <c r="G46" s="3">
-        <v>587100</v>
+        <v>568800</v>
       </c>
       <c r="H46" s="3">
-        <v>245600</v>
+        <v>238000</v>
       </c>
       <c r="I46" s="3">
-        <v>102900</v>
+        <v>99700</v>
       </c>
       <c r="J46" s="3">
-        <v>46700</v>
+        <v>45300</v>
       </c>
       <c r="K46" s="3">
         <v>43900</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>628400</v>
+        <v>608900</v>
       </c>
       <c r="E47" s="3">
-        <v>393300</v>
+        <v>381100</v>
       </c>
       <c r="F47" s="3">
-        <v>297200</v>
+        <v>288000</v>
       </c>
       <c r="G47" s="3">
-        <v>216800</v>
+        <v>210000</v>
       </c>
       <c r="H47" s="3">
-        <v>103500</v>
+        <v>100300</v>
       </c>
       <c r="I47" s="3">
-        <v>44100</v>
+        <v>42700</v>
       </c>
       <c r="J47" s="3">
-        <v>24200</v>
+        <v>23400</v>
       </c>
       <c r="K47" s="3">
         <v>13900</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1446300</v>
+        <v>1401300</v>
       </c>
       <c r="E48" s="3">
-        <v>2238600</v>
+        <v>2168900</v>
       </c>
       <c r="F48" s="3">
-        <v>1470100</v>
+        <v>1424300</v>
       </c>
       <c r="G48" s="3">
-        <v>1183800</v>
+        <v>1146900</v>
       </c>
       <c r="H48" s="3">
-        <v>436100</v>
+        <v>422500</v>
       </c>
       <c r="I48" s="3">
-        <v>154000</v>
+        <v>149200</v>
       </c>
       <c r="J48" s="3">
-        <v>97800</v>
+        <v>94800</v>
       </c>
       <c r="K48" s="3">
         <v>85200</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>36700</v>
+        <v>35500</v>
       </c>
       <c r="E49" s="3">
-        <v>96200</v>
+        <v>93200</v>
       </c>
       <c r="F49" s="3">
-        <v>71500</v>
+        <v>69300</v>
       </c>
       <c r="G49" s="3">
-        <v>67400</v>
+        <v>65300</v>
       </c>
       <c r="H49" s="3">
-        <v>21400</v>
+        <v>20700</v>
       </c>
       <c r="I49" s="3">
-        <v>7800</v>
+        <v>7500</v>
       </c>
       <c r="J49" s="3">
-        <v>9300</v>
+        <v>9000</v>
       </c>
       <c r="K49" s="3">
         <v>11100</v>
@@ -2134,22 +2134,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1408400</v>
+        <v>1364600</v>
       </c>
       <c r="E52" s="3">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="F52" s="3">
         <v>1300</v>
       </c>
       <c r="G52" s="3">
-        <v>216400</v>
+        <v>209700</v>
       </c>
       <c r="H52" s="3">
-        <v>13300</v>
+        <v>12900</v>
       </c>
       <c r="I52" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J52" s="3">
         <v>1000</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4366300</v>
+        <v>4230500</v>
       </c>
       <c r="E54" s="3">
-        <v>3611900</v>
+        <v>3499600</v>
       </c>
       <c r="F54" s="3">
-        <v>2514700</v>
+        <v>2436500</v>
       </c>
       <c r="G54" s="3">
-        <v>2262600</v>
+        <v>2192300</v>
       </c>
       <c r="H54" s="3">
-        <v>819900</v>
+        <v>794400</v>
       </c>
       <c r="I54" s="3">
-        <v>309300</v>
+        <v>299700</v>
       </c>
       <c r="J54" s="3">
-        <v>179000</v>
+        <v>173400</v>
       </c>
       <c r="K54" s="3">
         <v>155000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>87200</v>
+        <v>84500</v>
       </c>
       <c r="E57" s="3">
-        <v>239800</v>
+        <v>232300</v>
       </c>
       <c r="F57" s="3">
-        <v>254200</v>
+        <v>246300</v>
       </c>
       <c r="G57" s="3">
-        <v>257500</v>
+        <v>249500</v>
       </c>
       <c r="H57" s="3">
-        <v>133400</v>
+        <v>129300</v>
       </c>
       <c r="I57" s="3">
-        <v>70200</v>
+        <v>68100</v>
       </c>
       <c r="J57" s="3">
-        <v>48100</v>
+        <v>46600</v>
       </c>
       <c r="K57" s="3">
         <v>38100</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>216200</v>
+        <v>209500</v>
       </c>
       <c r="E58" s="3">
-        <v>116400</v>
+        <v>112800</v>
       </c>
       <c r="F58" s="3">
-        <v>151700</v>
+        <v>147000</v>
       </c>
       <c r="G58" s="3">
-        <v>91500</v>
+        <v>88600</v>
       </c>
       <c r="H58" s="3">
-        <v>113400</v>
+        <v>109900</v>
       </c>
       <c r="I58" s="3">
-        <v>13900</v>
+        <v>13400</v>
       </c>
       <c r="J58" s="3">
-        <v>8300</v>
+        <v>8100</v>
       </c>
       <c r="K58" s="3">
         <v>9300</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>96900</v>
+        <v>93900</v>
       </c>
       <c r="E59" s="3">
-        <v>186100</v>
+        <v>180300</v>
       </c>
       <c r="F59" s="3">
-        <v>118700</v>
+        <v>115000</v>
       </c>
       <c r="G59" s="3">
-        <v>120300</v>
+        <v>116600</v>
       </c>
       <c r="H59" s="3">
-        <v>72200</v>
+        <v>69900</v>
       </c>
       <c r="I59" s="3">
-        <v>17600</v>
+        <v>17000</v>
       </c>
       <c r="J59" s="3">
-        <v>11200</v>
+        <v>10900</v>
       </c>
       <c r="K59" s="3">
         <v>9500</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>400400</v>
+        <v>387900</v>
       </c>
       <c r="E60" s="3">
-        <v>542300</v>
+        <v>525400</v>
       </c>
       <c r="F60" s="3">
-        <v>524500</v>
+        <v>508200</v>
       </c>
       <c r="G60" s="3">
-        <v>469300</v>
+        <v>454700</v>
       </c>
       <c r="H60" s="3">
-        <v>319000</v>
+        <v>309000</v>
       </c>
       <c r="I60" s="3">
-        <v>101700</v>
+        <v>98500</v>
       </c>
       <c r="J60" s="3">
-        <v>67700</v>
+        <v>65600</v>
       </c>
       <c r="K60" s="3">
         <v>56900</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1224700</v>
+        <v>1186600</v>
       </c>
       <c r="E61" s="3">
-        <v>1120700</v>
+        <v>1085900</v>
       </c>
       <c r="F61" s="3">
-        <v>813700</v>
+        <v>788400</v>
       </c>
       <c r="G61" s="3">
-        <v>581600</v>
+        <v>563500</v>
       </c>
       <c r="H61" s="3">
-        <v>162200</v>
+        <v>157100</v>
       </c>
       <c r="I61" s="3">
-        <v>70900</v>
+        <v>68700</v>
       </c>
       <c r="J61" s="3">
-        <v>40200</v>
+        <v>38900</v>
       </c>
       <c r="K61" s="3">
         <v>36100</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>250300</v>
+        <v>242500</v>
       </c>
       <c r="E62" s="3">
-        <v>418300</v>
+        <v>405300</v>
       </c>
       <c r="F62" s="3">
-        <v>380500</v>
+        <v>368700</v>
       </c>
       <c r="G62" s="3">
-        <v>386600</v>
+        <v>374500</v>
       </c>
       <c r="H62" s="3">
-        <v>189400</v>
+        <v>183500</v>
       </c>
       <c r="I62" s="3">
-        <v>47800</v>
+        <v>46300</v>
       </c>
       <c r="J62" s="3">
-        <v>33400</v>
+        <v>32400</v>
       </c>
       <c r="K62" s="3">
         <v>26500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3090500</v>
+        <v>2994400</v>
       </c>
       <c r="E66" s="3">
-        <v>2393200</v>
+        <v>2318800</v>
       </c>
       <c r="F66" s="3">
-        <v>1908800</v>
+        <v>1849400</v>
       </c>
       <c r="G66" s="3">
-        <v>1663400</v>
+        <v>1611700</v>
       </c>
       <c r="H66" s="3">
-        <v>702600</v>
+        <v>680800</v>
       </c>
       <c r="I66" s="3">
-        <v>235100</v>
+        <v>227800</v>
       </c>
       <c r="J66" s="3">
-        <v>148000</v>
+        <v>143400</v>
       </c>
       <c r="K66" s="3">
         <v>129100</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>658000</v>
+        <v>637500</v>
       </c>
       <c r="E72" s="3">
-        <v>748600</v>
+        <v>725300</v>
       </c>
       <c r="F72" s="3">
-        <v>270100</v>
+        <v>261700</v>
       </c>
       <c r="G72" s="3">
-        <v>270100</v>
+        <v>261700</v>
       </c>
       <c r="H72" s="3">
-        <v>43300</v>
+        <v>42000</v>
       </c>
       <c r="I72" s="3">
-        <v>43400</v>
+        <v>42100</v>
       </c>
       <c r="J72" s="3">
-        <v>13700</v>
+        <v>13300</v>
       </c>
       <c r="K72" s="3">
         <v>6700</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1275800</v>
+        <v>1236100</v>
       </c>
       <c r="E76" s="3">
-        <v>1218700</v>
+        <v>1180800</v>
       </c>
       <c r="F76" s="3">
-        <v>605900</v>
+        <v>587100</v>
       </c>
       <c r="G76" s="3">
-        <v>599200</v>
+        <v>580600</v>
       </c>
       <c r="H76" s="3">
-        <v>117300</v>
+        <v>113600</v>
       </c>
       <c r="I76" s="3">
-        <v>74200</v>
+        <v>71900</v>
       </c>
       <c r="J76" s="3">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="K76" s="3">
         <v>25900</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-333700</v>
+        <v>-323300</v>
       </c>
       <c r="E81" s="3">
-        <v>350300</v>
+        <v>339400</v>
       </c>
       <c r="F81" s="3">
-        <v>89500</v>
+        <v>86700</v>
       </c>
       <c r="G81" s="3">
-        <v>114600</v>
+        <v>111000</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>32500</v>
+        <v>31500</v>
       </c>
       <c r="J81" s="3">
-        <v>7900</v>
+        <v>7600</v>
       </c>
       <c r="K81" s="3">
         <v>3500</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>153700</v>
+        <v>148900</v>
       </c>
       <c r="E83" s="3">
-        <v>147700</v>
+        <v>143100</v>
       </c>
       <c r="F83" s="3">
-        <v>93500</v>
+        <v>90600</v>
       </c>
       <c r="G83" s="3">
-        <v>82100</v>
+        <v>79600</v>
       </c>
       <c r="H83" s="3">
-        <v>23400</v>
+        <v>22600</v>
       </c>
       <c r="I83" s="3">
-        <v>7600</v>
+        <v>7400</v>
       </c>
       <c r="J83" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="K83" s="3">
         <v>4600</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>501500</v>
+        <v>485900</v>
       </c>
       <c r="E89" s="3">
-        <v>400000</v>
+        <v>387500</v>
       </c>
       <c r="F89" s="3">
-        <v>242800</v>
+        <v>235200</v>
       </c>
       <c r="G89" s="3">
-        <v>169800</v>
+        <v>164500</v>
       </c>
       <c r="H89" s="3">
-        <v>63100</v>
+        <v>61100</v>
       </c>
       <c r="I89" s="3">
-        <v>46300</v>
+        <v>44900</v>
       </c>
       <c r="J89" s="3">
-        <v>27300</v>
+        <v>26500</v>
       </c>
       <c r="K89" s="3">
         <v>22200</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-89100</v>
+        <v>-86400</v>
       </c>
       <c r="E91" s="3">
-        <v>-305700</v>
+        <v>-296200</v>
       </c>
       <c r="F91" s="3">
-        <v>-269600</v>
+        <v>-261200</v>
       </c>
       <c r="G91" s="3">
-        <v>-194100</v>
+        <v>-188000</v>
       </c>
       <c r="H91" s="3">
-        <v>-66200</v>
+        <v>-64200</v>
       </c>
       <c r="I91" s="3">
-        <v>-50900</v>
+        <v>-49300</v>
       </c>
       <c r="J91" s="3">
-        <v>-24700</v>
+        <v>-24000</v>
       </c>
       <c r="K91" s="3">
         <v>-14800</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-164800</v>
+        <v>-159700</v>
       </c>
       <c r="E94" s="3">
-        <v>-182400</v>
+        <v>-176700</v>
       </c>
       <c r="F94" s="3">
-        <v>7900</v>
+        <v>7600</v>
       </c>
       <c r="G94" s="3">
-        <v>-338900</v>
+        <v>-328300</v>
       </c>
       <c r="H94" s="3">
-        <v>-119200</v>
+        <v>-115500</v>
       </c>
       <c r="I94" s="3">
-        <v>-75500</v>
+        <v>-73100</v>
       </c>
       <c r="J94" s="3">
-        <v>-26200</v>
+        <v>-25400</v>
       </c>
       <c r="K94" s="3">
         <v>-19400</v>
@@ -3531,13 +3531,13 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-6200</v>
+        <v>-6000</v>
       </c>
       <c r="E96" s="3">
         <v>-600</v>
       </c>
       <c r="F96" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="G96" s="3">
         <v>-800</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-318300</v>
+        <v>-308400</v>
       </c>
       <c r="E100" s="3">
-        <v>-224600</v>
+        <v>-217600</v>
       </c>
       <c r="F100" s="3">
-        <v>-187900</v>
+        <v>-182100</v>
       </c>
       <c r="G100" s="3">
-        <v>148400</v>
+        <v>143800</v>
       </c>
       <c r="H100" s="3">
-        <v>61900</v>
+        <v>59900</v>
       </c>
       <c r="I100" s="3">
-        <v>30300</v>
+        <v>29300</v>
       </c>
       <c r="J100" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="K100" s="3">
         <v>-1200</v>
@@ -3711,19 +3711,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-35400</v>
+        <v>-34300</v>
       </c>
       <c r="E101" s="3">
-        <v>53800</v>
+        <v>52100</v>
       </c>
       <c r="F101" s="3">
-        <v>21300</v>
+        <v>20700</v>
       </c>
       <c r="G101" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="H101" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="I101" s="3">
         <v>800</v>
@@ -3747,19 +3747,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-16900</v>
+        <v>-16400</v>
       </c>
       <c r="E102" s="3">
-        <v>46700</v>
+        <v>45200</v>
       </c>
       <c r="F102" s="3">
-        <v>84000</v>
+        <v>81400</v>
       </c>
       <c r="G102" s="3">
-        <v>-15200</v>
+        <v>-14700</v>
       </c>
       <c r="H102" s="3">
-        <v>9600</v>
+        <v>9300</v>
       </c>
       <c r="I102" s="3">
         <v>1900</v>

--- a/AAII_Financials/Yearly/PAM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PAM_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>787800</v>
+        <v>760300</v>
       </c>
       <c r="E8" s="3">
-        <v>665100</v>
+        <v>641800</v>
       </c>
       <c r="F8" s="3">
-        <v>556400</v>
+        <v>536900</v>
       </c>
       <c r="G8" s="3">
-        <v>843000</v>
+        <v>813500</v>
       </c>
       <c r="H8" s="3">
-        <v>258100</v>
+        <v>249100</v>
       </c>
       <c r="I8" s="3">
-        <v>73600</v>
+        <v>71000</v>
       </c>
       <c r="J8" s="3">
-        <v>63800</v>
+        <v>61600</v>
       </c>
       <c r="K8" s="3">
         <v>65800</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>481300</v>
+        <v>464400</v>
       </c>
       <c r="E9" s="3">
-        <v>401900</v>
+        <v>387900</v>
       </c>
       <c r="F9" s="3">
-        <v>321700</v>
+        <v>310400</v>
       </c>
       <c r="G9" s="3">
-        <v>605600</v>
+        <v>584400</v>
       </c>
       <c r="H9" s="3">
-        <v>182700</v>
+        <v>176300</v>
       </c>
       <c r="I9" s="3">
-        <v>70200</v>
+        <v>67800</v>
       </c>
       <c r="J9" s="3">
-        <v>62000</v>
+        <v>59800</v>
       </c>
       <c r="K9" s="3">
         <v>69100</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>306600</v>
+        <v>295800</v>
       </c>
       <c r="E10" s="3">
-        <v>263200</v>
+        <v>254000</v>
       </c>
       <c r="F10" s="3">
-        <v>234700</v>
+        <v>226500</v>
       </c>
       <c r="G10" s="3">
-        <v>237400</v>
+        <v>229100</v>
       </c>
       <c r="H10" s="3">
-        <v>75400</v>
+        <v>72800</v>
       </c>
       <c r="I10" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="J10" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K10" s="3">
         <v>-3300</v>
@@ -847,13 +847,13 @@
         <v>8</v>
       </c>
       <c r="E12" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="F12" s="3">
         <v>300</v>
       </c>
       <c r="G12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H12" s="3">
         <v>800</v>
@@ -916,22 +916,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>106800</v>
+        <v>103000</v>
       </c>
       <c r="E14" s="3">
-        <v>52500</v>
+        <v>50700</v>
       </c>
       <c r="F14" s="3">
-        <v>-143600</v>
+        <v>-138600</v>
       </c>
       <c r="G14" s="3">
-        <v>-114700</v>
+        <v>-110700</v>
       </c>
       <c r="H14" s="3">
-        <v>53000</v>
+        <v>51100</v>
       </c>
       <c r="I14" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="J14" s="3">
         <v>-700</v>
@@ -952,19 +952,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="E15" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="F15" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="G15" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="H15" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I15" s="3">
         <v>500</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>600800</v>
+        <v>579700</v>
       </c>
       <c r="E17" s="3">
-        <v>436300</v>
+        <v>421000</v>
       </c>
       <c r="F17" s="3">
-        <v>159900</v>
+        <v>154300</v>
       </c>
       <c r="G17" s="3">
-        <v>582500</v>
+        <v>562100</v>
       </c>
       <c r="H17" s="3">
-        <v>237700</v>
+        <v>229400</v>
       </c>
       <c r="I17" s="3">
-        <v>36200</v>
+        <v>34900</v>
       </c>
       <c r="J17" s="3">
-        <v>54700</v>
+        <v>52800</v>
       </c>
       <c r="K17" s="3">
         <v>44500</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>187100</v>
+        <v>180500</v>
       </c>
       <c r="E18" s="3">
-        <v>228800</v>
+        <v>220800</v>
       </c>
       <c r="F18" s="3">
-        <v>396500</v>
+        <v>382600</v>
       </c>
       <c r="G18" s="3">
-        <v>260600</v>
+        <v>251500</v>
       </c>
       <c r="H18" s="3">
-        <v>20400</v>
+        <v>19700</v>
       </c>
       <c r="I18" s="3">
-        <v>37500</v>
+        <v>36100</v>
       </c>
       <c r="J18" s="3">
-        <v>9100</v>
+        <v>8800</v>
       </c>
       <c r="K18" s="3">
         <v>21300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>61000</v>
+        <v>58900</v>
       </c>
       <c r="E20" s="3">
-        <v>89100</v>
+        <v>86000</v>
       </c>
       <c r="F20" s="3">
-        <v>-312500</v>
+        <v>-301500</v>
       </c>
       <c r="G20" s="3">
-        <v>-42000</v>
+        <v>-40500</v>
       </c>
       <c r="H20" s="3">
-        <v>-4400</v>
+        <v>-4200</v>
       </c>
       <c r="I20" s="3">
-        <v>17800</v>
+        <v>17200</v>
       </c>
       <c r="J20" s="3">
-        <v>7400</v>
+        <v>7100</v>
       </c>
       <c r="K20" s="3">
         <v>-3000</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>397000</v>
+        <v>383300</v>
       </c>
       <c r="E21" s="3">
-        <v>461100</v>
+        <v>445100</v>
       </c>
       <c r="F21" s="3">
-        <v>174700</v>
+        <v>168700</v>
       </c>
       <c r="G21" s="3">
-        <v>298200</v>
+        <v>287800</v>
       </c>
       <c r="H21" s="3">
-        <v>38600</v>
+        <v>37300</v>
       </c>
       <c r="I21" s="3">
-        <v>62600</v>
+        <v>60400</v>
       </c>
       <c r="J21" s="3">
-        <v>21200</v>
+        <v>20500</v>
       </c>
       <c r="K21" s="3">
         <v>22900</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>119700</v>
+        <v>115500</v>
       </c>
       <c r="E22" s="3">
-        <v>81900</v>
+        <v>79000</v>
       </c>
       <c r="F22" s="3">
-        <v>61000</v>
+        <v>58900</v>
       </c>
       <c r="G22" s="3">
-        <v>62800</v>
+        <v>60600</v>
       </c>
       <c r="H22" s="3">
-        <v>31700</v>
+        <v>30600</v>
       </c>
       <c r="I22" s="3">
+        <v>9300</v>
+      </c>
+      <c r="J22" s="3">
         <v>9600</v>
-      </c>
-      <c r="J22" s="3">
-        <v>10000</v>
       </c>
       <c r="K22" s="3">
         <v>9300</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>128400</v>
+        <v>123900</v>
       </c>
       <c r="E23" s="3">
-        <v>236100</v>
+        <v>227800</v>
       </c>
       <c r="F23" s="3">
-        <v>23000</v>
+        <v>22200</v>
       </c>
       <c r="G23" s="3">
-        <v>155800</v>
+        <v>150400</v>
       </c>
       <c r="H23" s="3">
-        <v>-15700</v>
+        <v>-15100</v>
       </c>
       <c r="I23" s="3">
-        <v>45600</v>
+        <v>44000</v>
       </c>
       <c r="J23" s="3">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="K23" s="3">
         <v>9000</v>
@@ -1233,22 +1233,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>32100</v>
+        <v>31000</v>
       </c>
       <c r="E24" s="3">
-        <v>-46600</v>
+        <v>-44900</v>
       </c>
       <c r="F24" s="3">
-        <v>-12400</v>
+        <v>-12000</v>
       </c>
       <c r="G24" s="3">
-        <v>-10100</v>
+        <v>-9800</v>
       </c>
       <c r="H24" s="3">
-        <v>-12300</v>
+        <v>-11900</v>
       </c>
       <c r="I24" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="J24" s="3">
         <v>1000</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>96300</v>
+        <v>92900</v>
       </c>
       <c r="E26" s="3">
-        <v>282600</v>
+        <v>272700</v>
       </c>
       <c r="F26" s="3">
-        <v>35500</v>
+        <v>34200</v>
       </c>
       <c r="G26" s="3">
-        <v>165900</v>
+        <v>160100</v>
       </c>
       <c r="H26" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="I26" s="3">
-        <v>39600</v>
+        <v>38200</v>
       </c>
       <c r="J26" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="K26" s="3">
         <v>9200</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>183900</v>
+        <v>177400</v>
       </c>
       <c r="E27" s="3">
-        <v>217900</v>
+        <v>210300</v>
       </c>
       <c r="F27" s="3">
-        <v>11100</v>
+        <v>10700</v>
       </c>
       <c r="G27" s="3">
-        <v>130500</v>
+        <v>125900</v>
       </c>
       <c r="H27" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="I27" s="3">
-        <v>31500</v>
+        <v>30400</v>
       </c>
       <c r="J27" s="3">
-        <v>7600</v>
+        <v>7400</v>
       </c>
       <c r="K27" s="3">
         <v>5100</v>
@@ -1413,16 +1413,16 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-507100</v>
+        <v>-489400</v>
       </c>
       <c r="E29" s="3">
-        <v>121400</v>
+        <v>117200</v>
       </c>
       <c r="F29" s="3">
-        <v>75700</v>
+        <v>73000</v>
       </c>
       <c r="G29" s="3">
-        <v>-19500</v>
+        <v>-18800</v>
       </c>
       <c r="H29" s="3">
         <v>700</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-61000</v>
+        <v>-58900</v>
       </c>
       <c r="E32" s="3">
-        <v>-89100</v>
+        <v>-86000</v>
       </c>
       <c r="F32" s="3">
-        <v>312500</v>
+        <v>301500</v>
       </c>
       <c r="G32" s="3">
-        <v>42000</v>
+        <v>40500</v>
       </c>
       <c r="H32" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="I32" s="3">
-        <v>-17800</v>
+        <v>-17200</v>
       </c>
       <c r="J32" s="3">
-        <v>-7400</v>
+        <v>-7100</v>
       </c>
       <c r="K32" s="3">
         <v>3000</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-323300</v>
+        <v>-312000</v>
       </c>
       <c r="E33" s="3">
-        <v>339400</v>
+        <v>327500</v>
       </c>
       <c r="F33" s="3">
-        <v>86700</v>
+        <v>83700</v>
       </c>
       <c r="G33" s="3">
-        <v>111000</v>
+        <v>107100</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>31500</v>
+        <v>30400</v>
       </c>
       <c r="J33" s="3">
-        <v>7600</v>
+        <v>7400</v>
       </c>
       <c r="K33" s="3">
         <v>3500</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-323300</v>
+        <v>-312000</v>
       </c>
       <c r="E35" s="3">
-        <v>339400</v>
+        <v>327500</v>
       </c>
       <c r="F35" s="3">
-        <v>86700</v>
+        <v>83700</v>
       </c>
       <c r="G35" s="3">
-        <v>111000</v>
+        <v>107100</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>31500</v>
+        <v>30400</v>
       </c>
       <c r="J35" s="3">
-        <v>7600</v>
+        <v>7400</v>
       </c>
       <c r="K35" s="3">
         <v>3500</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>122300</v>
+        <v>118000</v>
       </c>
       <c r="E41" s="3">
-        <v>138700</v>
+        <v>133900</v>
       </c>
       <c r="F41" s="3">
-        <v>103700</v>
+        <v>100000</v>
       </c>
       <c r="G41" s="3">
-        <v>12100</v>
+        <v>11700</v>
       </c>
       <c r="H41" s="3">
-        <v>14600</v>
+        <v>14100</v>
       </c>
       <c r="I41" s="3">
-        <v>10600</v>
+        <v>10200</v>
       </c>
       <c r="J41" s="3">
-        <v>6900</v>
+        <v>6700</v>
       </c>
       <c r="K41" s="3">
         <v>1500</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>302700</v>
+        <v>292100</v>
       </c>
       <c r="E42" s="3">
-        <v>257900</v>
+        <v>248900</v>
       </c>
       <c r="F42" s="3">
-        <v>189200</v>
+        <v>182500</v>
       </c>
       <c r="G42" s="3">
-        <v>222200</v>
+        <v>214400</v>
       </c>
       <c r="H42" s="3">
-        <v>43300</v>
+        <v>41800</v>
       </c>
       <c r="I42" s="3">
-        <v>42000</v>
+        <v>40500</v>
       </c>
       <c r="J42" s="3">
-        <v>10600</v>
+        <v>10200</v>
       </c>
       <c r="K42" s="3">
         <v>13200</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>291400</v>
+        <v>281200</v>
       </c>
       <c r="E43" s="3">
-        <v>343900</v>
+        <v>331800</v>
       </c>
       <c r="F43" s="3">
-        <v>300200</v>
+        <v>289700</v>
       </c>
       <c r="G43" s="3">
-        <v>289400</v>
+        <v>279200</v>
       </c>
       <c r="H43" s="3">
-        <v>143900</v>
+        <v>138900</v>
       </c>
       <c r="I43" s="3">
-        <v>49100</v>
+        <v>47400</v>
       </c>
       <c r="J43" s="3">
-        <v>29200</v>
+        <v>28200</v>
       </c>
       <c r="K43" s="3">
         <v>27900</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100400</v>
+        <v>96900</v>
       </c>
       <c r="E44" s="3">
-        <v>94300</v>
+        <v>91000</v>
       </c>
       <c r="F44" s="3">
-        <v>58900</v>
+        <v>56800</v>
       </c>
       <c r="G44" s="3">
-        <v>43900</v>
+        <v>42300</v>
       </c>
       <c r="H44" s="3">
-        <v>34500</v>
+        <v>33300</v>
       </c>
       <c r="I44" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="J44" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="K44" s="3">
         <v>1000</v>
@@ -1882,22 +1882,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E45" s="3">
         <v>3400</v>
       </c>
-      <c r="E45" s="3">
-        <v>3600</v>
-      </c>
       <c r="F45" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="G45" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H45" s="3">
         <v>1600</v>
       </c>
       <c r="I45" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="J45" s="3">
         <v>600</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>820200</v>
+        <v>791500</v>
       </c>
       <c r="E46" s="3">
-        <v>838400</v>
+        <v>809100</v>
       </c>
       <c r="F46" s="3">
-        <v>653600</v>
+        <v>630700</v>
       </c>
       <c r="G46" s="3">
-        <v>568800</v>
+        <v>548900</v>
       </c>
       <c r="H46" s="3">
-        <v>238000</v>
+        <v>229600</v>
       </c>
       <c r="I46" s="3">
-        <v>99700</v>
+        <v>96200</v>
       </c>
       <c r="J46" s="3">
-        <v>45300</v>
+        <v>43700</v>
       </c>
       <c r="K46" s="3">
         <v>43900</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>608900</v>
+        <v>587600</v>
       </c>
       <c r="E47" s="3">
-        <v>381100</v>
+        <v>367700</v>
       </c>
       <c r="F47" s="3">
-        <v>288000</v>
+        <v>277900</v>
       </c>
       <c r="G47" s="3">
-        <v>210000</v>
+        <v>202700</v>
       </c>
       <c r="H47" s="3">
-        <v>100300</v>
+        <v>96800</v>
       </c>
       <c r="I47" s="3">
-        <v>42700</v>
+        <v>41200</v>
       </c>
       <c r="J47" s="3">
-        <v>23400</v>
+        <v>22600</v>
       </c>
       <c r="K47" s="3">
         <v>13900</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1401300</v>
+        <v>1352200</v>
       </c>
       <c r="E48" s="3">
-        <v>2168900</v>
+        <v>2093000</v>
       </c>
       <c r="F48" s="3">
-        <v>1424300</v>
+        <v>1374500</v>
       </c>
       <c r="G48" s="3">
-        <v>1146900</v>
+        <v>1106800</v>
       </c>
       <c r="H48" s="3">
-        <v>422500</v>
+        <v>407700</v>
       </c>
       <c r="I48" s="3">
-        <v>149200</v>
+        <v>144000</v>
       </c>
       <c r="J48" s="3">
-        <v>94800</v>
+        <v>91500</v>
       </c>
       <c r="K48" s="3">
         <v>85200</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>35500</v>
+        <v>34300</v>
       </c>
       <c r="E49" s="3">
-        <v>93200</v>
+        <v>90000</v>
       </c>
       <c r="F49" s="3">
-        <v>69300</v>
+        <v>66900</v>
       </c>
       <c r="G49" s="3">
-        <v>65300</v>
+        <v>63000</v>
       </c>
       <c r="H49" s="3">
-        <v>20700</v>
+        <v>20000</v>
       </c>
       <c r="I49" s="3">
-        <v>7500</v>
+        <v>7300</v>
       </c>
       <c r="J49" s="3">
-        <v>9000</v>
+        <v>8700</v>
       </c>
       <c r="K49" s="3">
         <v>11100</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1364600</v>
+        <v>1316800</v>
       </c>
       <c r="E52" s="3">
-        <v>18000</v>
+        <v>17300</v>
       </c>
       <c r="F52" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G52" s="3">
-        <v>209700</v>
+        <v>202300</v>
       </c>
       <c r="H52" s="3">
-        <v>12900</v>
+        <v>12400</v>
       </c>
       <c r="I52" s="3">
         <v>500</v>
       </c>
       <c r="J52" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K52" s="3">
         <v>900</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4230500</v>
+        <v>4082400</v>
       </c>
       <c r="E54" s="3">
-        <v>3499600</v>
+        <v>3377000</v>
       </c>
       <c r="F54" s="3">
-        <v>2436500</v>
+        <v>2351200</v>
       </c>
       <c r="G54" s="3">
-        <v>2192300</v>
+        <v>2115500</v>
       </c>
       <c r="H54" s="3">
-        <v>794400</v>
+        <v>766600</v>
       </c>
       <c r="I54" s="3">
-        <v>299700</v>
+        <v>289200</v>
       </c>
       <c r="J54" s="3">
-        <v>173400</v>
+        <v>167300</v>
       </c>
       <c r="K54" s="3">
         <v>155000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>84500</v>
+        <v>81500</v>
       </c>
       <c r="E57" s="3">
-        <v>232300</v>
+        <v>224200</v>
       </c>
       <c r="F57" s="3">
-        <v>246300</v>
+        <v>237700</v>
       </c>
       <c r="G57" s="3">
-        <v>249500</v>
+        <v>240800</v>
       </c>
       <c r="H57" s="3">
-        <v>129300</v>
+        <v>124700</v>
       </c>
       <c r="I57" s="3">
-        <v>68100</v>
+        <v>65700</v>
       </c>
       <c r="J57" s="3">
-        <v>46600</v>
+        <v>45000</v>
       </c>
       <c r="K57" s="3">
         <v>38100</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>209500</v>
+        <v>202100</v>
       </c>
       <c r="E58" s="3">
-        <v>112800</v>
+        <v>108900</v>
       </c>
       <c r="F58" s="3">
-        <v>147000</v>
+        <v>141800</v>
       </c>
       <c r="G58" s="3">
-        <v>88600</v>
+        <v>85500</v>
       </c>
       <c r="H58" s="3">
-        <v>109900</v>
+        <v>106000</v>
       </c>
       <c r="I58" s="3">
-        <v>13400</v>
+        <v>13000</v>
       </c>
       <c r="J58" s="3">
-        <v>8100</v>
+        <v>7800</v>
       </c>
       <c r="K58" s="3">
         <v>9300</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>93900</v>
+        <v>90600</v>
       </c>
       <c r="E59" s="3">
-        <v>180300</v>
+        <v>174000</v>
       </c>
       <c r="F59" s="3">
-        <v>115000</v>
+        <v>110900</v>
       </c>
       <c r="G59" s="3">
-        <v>116600</v>
+        <v>112500</v>
       </c>
       <c r="H59" s="3">
-        <v>69900</v>
+        <v>67500</v>
       </c>
       <c r="I59" s="3">
-        <v>17000</v>
+        <v>16400</v>
       </c>
       <c r="J59" s="3">
-        <v>10900</v>
+        <v>10500</v>
       </c>
       <c r="K59" s="3">
         <v>9500</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>387900</v>
+        <v>374300</v>
       </c>
       <c r="E60" s="3">
-        <v>525400</v>
+        <v>507000</v>
       </c>
       <c r="F60" s="3">
-        <v>508200</v>
+        <v>490400</v>
       </c>
       <c r="G60" s="3">
-        <v>454700</v>
+        <v>438800</v>
       </c>
       <c r="H60" s="3">
-        <v>309000</v>
+        <v>298200</v>
       </c>
       <c r="I60" s="3">
-        <v>98500</v>
+        <v>95100</v>
       </c>
       <c r="J60" s="3">
-        <v>65600</v>
+        <v>63300</v>
       </c>
       <c r="K60" s="3">
         <v>56900</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1186600</v>
+        <v>1145000</v>
       </c>
       <c r="E61" s="3">
-        <v>1085900</v>
+        <v>1047800</v>
       </c>
       <c r="F61" s="3">
-        <v>788400</v>
+        <v>760700</v>
       </c>
       <c r="G61" s="3">
-        <v>563500</v>
+        <v>543800</v>
       </c>
       <c r="H61" s="3">
-        <v>157100</v>
+        <v>151600</v>
       </c>
       <c r="I61" s="3">
-        <v>68700</v>
+        <v>66300</v>
       </c>
       <c r="J61" s="3">
-        <v>38900</v>
+        <v>37600</v>
       </c>
       <c r="K61" s="3">
         <v>36100</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>242500</v>
+        <v>234000</v>
       </c>
       <c r="E62" s="3">
-        <v>405300</v>
+        <v>391100</v>
       </c>
       <c r="F62" s="3">
-        <v>368700</v>
+        <v>355800</v>
       </c>
       <c r="G62" s="3">
-        <v>374500</v>
+        <v>361400</v>
       </c>
       <c r="H62" s="3">
-        <v>183500</v>
+        <v>177100</v>
       </c>
       <c r="I62" s="3">
-        <v>46300</v>
+        <v>44700</v>
       </c>
       <c r="J62" s="3">
-        <v>32400</v>
+        <v>31200</v>
       </c>
       <c r="K62" s="3">
         <v>26500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2994400</v>
+        <v>2889500</v>
       </c>
       <c r="E66" s="3">
-        <v>2318800</v>
+        <v>2237600</v>
       </c>
       <c r="F66" s="3">
-        <v>1849400</v>
+        <v>1784700</v>
       </c>
       <c r="G66" s="3">
-        <v>1611700</v>
+        <v>1555200</v>
       </c>
       <c r="H66" s="3">
-        <v>680800</v>
+        <v>656900</v>
       </c>
       <c r="I66" s="3">
-        <v>227800</v>
+        <v>219800</v>
       </c>
       <c r="J66" s="3">
-        <v>143400</v>
+        <v>138300</v>
       </c>
       <c r="K66" s="3">
         <v>129100</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>637500</v>
+        <v>615200</v>
       </c>
       <c r="E72" s="3">
-        <v>725300</v>
+        <v>699900</v>
       </c>
       <c r="F72" s="3">
-        <v>261700</v>
+        <v>252600</v>
       </c>
       <c r="G72" s="3">
-        <v>261700</v>
+        <v>252600</v>
       </c>
       <c r="H72" s="3">
-        <v>42000</v>
+        <v>40500</v>
       </c>
       <c r="I72" s="3">
-        <v>42100</v>
+        <v>40600</v>
       </c>
       <c r="J72" s="3">
-        <v>13300</v>
+        <v>12800</v>
       </c>
       <c r="K72" s="3">
         <v>6700</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1236100</v>
+        <v>1192900</v>
       </c>
       <c r="E76" s="3">
-        <v>1180800</v>
+        <v>1139500</v>
       </c>
       <c r="F76" s="3">
-        <v>587100</v>
+        <v>566500</v>
       </c>
       <c r="G76" s="3">
-        <v>580600</v>
+        <v>560300</v>
       </c>
       <c r="H76" s="3">
-        <v>113600</v>
+        <v>109700</v>
       </c>
       <c r="I76" s="3">
-        <v>71900</v>
+        <v>69300</v>
       </c>
       <c r="J76" s="3">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="K76" s="3">
         <v>25900</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-323300</v>
+        <v>-312000</v>
       </c>
       <c r="E81" s="3">
-        <v>339400</v>
+        <v>327500</v>
       </c>
       <c r="F81" s="3">
-        <v>86700</v>
+        <v>83700</v>
       </c>
       <c r="G81" s="3">
-        <v>111000</v>
+        <v>107100</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>31500</v>
+        <v>30400</v>
       </c>
       <c r="J81" s="3">
-        <v>7600</v>
+        <v>7400</v>
       </c>
       <c r="K81" s="3">
         <v>3500</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>148900</v>
+        <v>143700</v>
       </c>
       <c r="E83" s="3">
-        <v>143100</v>
+        <v>138100</v>
       </c>
       <c r="F83" s="3">
-        <v>90600</v>
+        <v>87500</v>
       </c>
       <c r="G83" s="3">
-        <v>79600</v>
+        <v>76800</v>
       </c>
       <c r="H83" s="3">
-        <v>22600</v>
+        <v>21800</v>
       </c>
       <c r="I83" s="3">
-        <v>7400</v>
+        <v>7100</v>
       </c>
       <c r="J83" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="K83" s="3">
         <v>4600</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>485900</v>
+        <v>468900</v>
       </c>
       <c r="E89" s="3">
-        <v>387500</v>
+        <v>373900</v>
       </c>
       <c r="F89" s="3">
-        <v>235200</v>
+        <v>227000</v>
       </c>
       <c r="G89" s="3">
-        <v>164500</v>
+        <v>158800</v>
       </c>
       <c r="H89" s="3">
-        <v>61100</v>
+        <v>59000</v>
       </c>
       <c r="I89" s="3">
-        <v>44900</v>
+        <v>43300</v>
       </c>
       <c r="J89" s="3">
-        <v>26500</v>
+        <v>25500</v>
       </c>
       <c r="K89" s="3">
         <v>22200</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-86400</v>
+        <v>-83300</v>
       </c>
       <c r="E91" s="3">
-        <v>-296200</v>
+        <v>-285800</v>
       </c>
       <c r="F91" s="3">
-        <v>-261200</v>
+        <v>-252000</v>
       </c>
       <c r="G91" s="3">
-        <v>-188000</v>
+        <v>-181400</v>
       </c>
       <c r="H91" s="3">
-        <v>-64200</v>
+        <v>-61900</v>
       </c>
       <c r="I91" s="3">
-        <v>-49300</v>
+        <v>-47600</v>
       </c>
       <c r="J91" s="3">
-        <v>-24000</v>
+        <v>-23100</v>
       </c>
       <c r="K91" s="3">
         <v>-14800</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-159700</v>
+        <v>-154100</v>
       </c>
       <c r="E94" s="3">
-        <v>-176700</v>
+        <v>-170500</v>
       </c>
       <c r="F94" s="3">
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="G94" s="3">
-        <v>-328300</v>
+        <v>-316800</v>
       </c>
       <c r="H94" s="3">
-        <v>-115500</v>
+        <v>-111400</v>
       </c>
       <c r="I94" s="3">
-        <v>-73100</v>
+        <v>-70600</v>
       </c>
       <c r="J94" s="3">
-        <v>-25400</v>
+        <v>-24500</v>
       </c>
       <c r="K94" s="3">
         <v>-19400</v>
@@ -3531,7 +3531,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-6000</v>
+        <v>-5800</v>
       </c>
       <c r="E96" s="3">
         <v>-600</v>
@@ -3540,7 +3540,7 @@
         <v>-800</v>
       </c>
       <c r="G96" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="H96" s="3">
         <v>-400</v>
@@ -3675,22 +3675,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-308400</v>
+        <v>-297600</v>
       </c>
       <c r="E100" s="3">
-        <v>-217600</v>
+        <v>-210000</v>
       </c>
       <c r="F100" s="3">
-        <v>-182100</v>
+        <v>-175700</v>
       </c>
       <c r="G100" s="3">
-        <v>143800</v>
+        <v>138800</v>
       </c>
       <c r="H100" s="3">
-        <v>59900</v>
+        <v>57800</v>
       </c>
       <c r="I100" s="3">
-        <v>29300</v>
+        <v>28300</v>
       </c>
       <c r="J100" s="3">
         <v>-1500</v>
@@ -3711,19 +3711,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-34300</v>
+        <v>-33100</v>
       </c>
       <c r="E101" s="3">
-        <v>52100</v>
+        <v>50300</v>
       </c>
       <c r="F101" s="3">
-        <v>20700</v>
+        <v>19900</v>
       </c>
       <c r="G101" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="H101" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="I101" s="3">
         <v>800</v>
@@ -3747,22 +3747,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-16400</v>
+        <v>-15800</v>
       </c>
       <c r="E102" s="3">
-        <v>45200</v>
+        <v>43600</v>
       </c>
       <c r="F102" s="3">
-        <v>81400</v>
+        <v>78500</v>
       </c>
       <c r="G102" s="3">
-        <v>-14700</v>
+        <v>-14200</v>
       </c>
       <c r="H102" s="3">
-        <v>9300</v>
+        <v>9000</v>
       </c>
       <c r="I102" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="J102" s="3">
         <v>-100</v>

--- a/AAII_Financials/Yearly/PAM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PAM_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>760300</v>
+        <v>1329300</v>
       </c>
       <c r="E8" s="3">
-        <v>641800</v>
+        <v>705600</v>
       </c>
       <c r="F8" s="3">
-        <v>536900</v>
+        <v>594600</v>
       </c>
       <c r="G8" s="3">
-        <v>813500</v>
+        <v>497400</v>
       </c>
       <c r="H8" s="3">
-        <v>249100</v>
+        <v>753700</v>
       </c>
       <c r="I8" s="3">
-        <v>71000</v>
+        <v>230800</v>
       </c>
       <c r="J8" s="3">
+        <v>65800</v>
+      </c>
+      <c r="K8" s="3">
         <v>61600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>65800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>110700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>136900</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>464400</v>
+        <v>837700</v>
       </c>
       <c r="E9" s="3">
-        <v>387900</v>
+        <v>433400</v>
       </c>
       <c r="F9" s="3">
-        <v>310400</v>
+        <v>359300</v>
       </c>
       <c r="G9" s="3">
-        <v>584400</v>
+        <v>287600</v>
       </c>
       <c r="H9" s="3">
-        <v>176300</v>
+        <v>541400</v>
       </c>
       <c r="I9" s="3">
-        <v>67800</v>
+        <v>163400</v>
       </c>
       <c r="J9" s="3">
+        <v>62800</v>
+      </c>
+      <c r="K9" s="3">
         <v>59800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>69100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>220500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>257900</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>295800</v>
+        <v>491500</v>
       </c>
       <c r="E10" s="3">
-        <v>254000</v>
+        <v>272200</v>
       </c>
       <c r="F10" s="3">
-        <v>226500</v>
+        <v>235300</v>
       </c>
       <c r="G10" s="3">
-        <v>229100</v>
+        <v>209800</v>
       </c>
       <c r="H10" s="3">
-        <v>72800</v>
+        <v>212200</v>
       </c>
       <c r="I10" s="3">
-        <v>3300</v>
+        <v>67400</v>
       </c>
       <c r="J10" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K10" s="3">
         <v>1700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-3300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-109800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-120900</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,28 +850,29 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
+      <c r="D12" s="3">
+        <v>600</v>
       </c>
       <c r="E12" s="3">
-        <v>2900</v>
+        <v>300</v>
       </c>
       <c r="F12" s="3">
-        <v>300</v>
+        <v>4300</v>
       </c>
       <c r="G12" s="3">
         <v>400</v>
       </c>
       <c r="H12" s="3">
-        <v>800</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>8</v>
+        <v>700</v>
+      </c>
+      <c r="I12" s="3">
+        <v>900</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>8</v>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,81 +925,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>103000</v>
+        <v>6800</v>
       </c>
       <c r="E14" s="3">
-        <v>50700</v>
+        <v>100600</v>
       </c>
       <c r="F14" s="3">
-        <v>-138600</v>
+        <v>47000</v>
       </c>
       <c r="G14" s="3">
-        <v>-110700</v>
+        <v>-128400</v>
       </c>
       <c r="H14" s="3">
-        <v>51100</v>
+        <v>-102600</v>
       </c>
       <c r="I14" s="3">
-        <v>2600</v>
+        <v>47300</v>
       </c>
       <c r="J14" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K14" s="3">
         <v>-700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>34200</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3700</v>
+        <v>4600</v>
       </c>
       <c r="E15" s="3">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="F15" s="3">
-        <v>2300</v>
+        <v>4200</v>
       </c>
       <c r="G15" s="3">
-        <v>3400</v>
+        <v>2100</v>
       </c>
       <c r="H15" s="3">
-        <v>1100</v>
+        <v>3200</v>
       </c>
       <c r="I15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J15" s="3">
         <v>500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>600</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>579700</v>
+        <v>810700</v>
       </c>
       <c r="E17" s="3">
-        <v>421000</v>
+        <v>538300</v>
       </c>
       <c r="F17" s="3">
-        <v>154300</v>
+        <v>390000</v>
       </c>
       <c r="G17" s="3">
-        <v>562100</v>
+        <v>142900</v>
       </c>
       <c r="H17" s="3">
-        <v>229400</v>
+        <v>520700</v>
       </c>
       <c r="I17" s="3">
-        <v>34900</v>
+        <v>212500</v>
       </c>
       <c r="J17" s="3">
+        <v>32300</v>
+      </c>
+      <c r="K17" s="3">
         <v>52800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>44500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>122000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>144700</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>180500</v>
+        <v>518600</v>
       </c>
       <c r="E18" s="3">
-        <v>220800</v>
+        <v>167200</v>
       </c>
       <c r="F18" s="3">
-        <v>382600</v>
+        <v>204600</v>
       </c>
       <c r="G18" s="3">
-        <v>251500</v>
+        <v>354500</v>
       </c>
       <c r="H18" s="3">
-        <v>19700</v>
+        <v>232900</v>
       </c>
       <c r="I18" s="3">
-        <v>36100</v>
+        <v>18200</v>
       </c>
       <c r="J18" s="3">
+        <v>33500</v>
+      </c>
+      <c r="K18" s="3">
         <v>8800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>21300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-11300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7800</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>58900</v>
+        <v>-48700</v>
       </c>
       <c r="E20" s="3">
-        <v>86000</v>
+        <v>54600</v>
       </c>
       <c r="F20" s="3">
-        <v>-301500</v>
+        <v>79700</v>
       </c>
       <c r="G20" s="3">
-        <v>-40500</v>
+        <v>-279300</v>
       </c>
       <c r="H20" s="3">
-        <v>-4200</v>
+        <v>-37500</v>
       </c>
       <c r="I20" s="3">
-        <v>17200</v>
+        <v>-3900</v>
       </c>
       <c r="J20" s="3">
+        <v>15900</v>
+      </c>
+      <c r="K20" s="3">
         <v>7100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>7000</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>383300</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>445100</v>
+        <v>355100</v>
       </c>
       <c r="F21" s="3">
-        <v>168700</v>
+        <v>412300</v>
       </c>
       <c r="G21" s="3">
-        <v>287800</v>
+        <v>156300</v>
       </c>
       <c r="H21" s="3">
-        <v>37300</v>
+        <v>266600</v>
       </c>
       <c r="I21" s="3">
-        <v>60400</v>
+        <v>34600</v>
       </c>
       <c r="J21" s="3">
+        <v>56000</v>
+      </c>
+      <c r="K21" s="3">
         <v>20500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>22900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9600</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>115500</v>
+        <v>118700</v>
       </c>
       <c r="E22" s="3">
-        <v>79000</v>
+        <v>107000</v>
       </c>
       <c r="F22" s="3">
-        <v>58900</v>
+        <v>73200</v>
       </c>
       <c r="G22" s="3">
-        <v>60600</v>
+        <v>54500</v>
       </c>
       <c r="H22" s="3">
-        <v>30600</v>
+        <v>56100</v>
       </c>
       <c r="I22" s="3">
+        <v>28300</v>
+      </c>
+      <c r="J22" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K22" s="3">
+        <v>9600</v>
+      </c>
+      <c r="L22" s="3">
         <v>9300</v>
       </c>
-      <c r="J22" s="3">
-        <v>9600</v>
-      </c>
-      <c r="K22" s="3">
-        <v>9300</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>19200</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>123900</v>
+        <v>351200</v>
       </c>
       <c r="E23" s="3">
-        <v>227800</v>
+        <v>114800</v>
       </c>
       <c r="F23" s="3">
-        <v>22200</v>
+        <v>211000</v>
       </c>
       <c r="G23" s="3">
-        <v>150400</v>
+        <v>20600</v>
       </c>
       <c r="H23" s="3">
-        <v>-15100</v>
+        <v>139300</v>
       </c>
       <c r="I23" s="3">
-        <v>44000</v>
+        <v>-14000</v>
       </c>
       <c r="J23" s="3">
+        <v>40800</v>
+      </c>
+      <c r="K23" s="3">
         <v>6200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>9000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-20600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-20100</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>31000</v>
+        <v>67100</v>
       </c>
       <c r="E24" s="3">
-        <v>-44900</v>
+        <v>28700</v>
       </c>
       <c r="F24" s="3">
-        <v>-12000</v>
+        <v>-41600</v>
       </c>
       <c r="G24" s="3">
-        <v>-9800</v>
+        <v>-11100</v>
       </c>
       <c r="H24" s="3">
-        <v>-11900</v>
+        <v>-9100</v>
       </c>
       <c r="I24" s="3">
-        <v>5800</v>
+        <v>-11000</v>
       </c>
       <c r="J24" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K24" s="3">
         <v>1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1000</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>92900</v>
+        <v>284100</v>
       </c>
       <c r="E26" s="3">
-        <v>272700</v>
+        <v>86100</v>
       </c>
       <c r="F26" s="3">
-        <v>34200</v>
+        <v>252700</v>
       </c>
       <c r="G26" s="3">
-        <v>160100</v>
+        <v>31700</v>
       </c>
       <c r="H26" s="3">
-        <v>-3200</v>
+        <v>148300</v>
       </c>
       <c r="I26" s="3">
-        <v>38200</v>
+        <v>-3000</v>
       </c>
       <c r="J26" s="3">
+        <v>35400</v>
+      </c>
+      <c r="K26" s="3">
         <v>5300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>9200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-18400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-19100</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>177400</v>
+        <v>314500</v>
       </c>
       <c r="E27" s="3">
-        <v>210300</v>
+        <v>164400</v>
       </c>
       <c r="F27" s="3">
-        <v>10700</v>
+        <v>194800</v>
       </c>
       <c r="G27" s="3">
-        <v>125900</v>
+        <v>9900</v>
       </c>
       <c r="H27" s="3">
+        <v>116600</v>
+      </c>
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
-        <v>30400</v>
-      </c>
       <c r="J27" s="3">
+        <v>28200</v>
+      </c>
+      <c r="K27" s="3">
         <v>7400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3300</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,45 +1463,51 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-489400</v>
+        <v>-65500</v>
       </c>
       <c r="E29" s="3">
-        <v>117200</v>
+        <v>-453400</v>
       </c>
       <c r="F29" s="3">
-        <v>73000</v>
+        <v>108600</v>
       </c>
       <c r="G29" s="3">
-        <v>-18800</v>
+        <v>67600</v>
       </c>
       <c r="H29" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="I29" s="3">
         <v>700</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-1600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>500</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-2400</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-58900</v>
+        <v>48700</v>
       </c>
       <c r="E32" s="3">
-        <v>-86000</v>
+        <v>-54600</v>
       </c>
       <c r="F32" s="3">
-        <v>301500</v>
+        <v>-79700</v>
       </c>
       <c r="G32" s="3">
-        <v>40500</v>
+        <v>279300</v>
       </c>
       <c r="H32" s="3">
-        <v>4200</v>
+        <v>37500</v>
       </c>
       <c r="I32" s="3">
-        <v>-17200</v>
+        <v>3900</v>
       </c>
       <c r="J32" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-7100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7000</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-312000</v>
+        <v>249000</v>
       </c>
       <c r="E33" s="3">
-        <v>327500</v>
+        <v>-289000</v>
       </c>
       <c r="F33" s="3">
-        <v>83700</v>
+        <v>303400</v>
       </c>
       <c r="G33" s="3">
-        <v>107100</v>
+        <v>77500</v>
       </c>
       <c r="H33" s="3">
+        <v>99200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
-        <v>30400</v>
-      </c>
       <c r="J33" s="3">
+        <v>28200</v>
+      </c>
+      <c r="K33" s="3">
         <v>7400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-10700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>900</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-312000</v>
+        <v>249000</v>
       </c>
       <c r="E35" s="3">
-        <v>327500</v>
+        <v>-289000</v>
       </c>
       <c r="F35" s="3">
-        <v>83700</v>
+        <v>303400</v>
       </c>
       <c r="G35" s="3">
-        <v>107100</v>
+        <v>77500</v>
       </c>
       <c r="H35" s="3">
+        <v>99200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
-        <v>30400</v>
-      </c>
       <c r="J35" s="3">
+        <v>28200</v>
+      </c>
+      <c r="K35" s="3">
         <v>7400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-10700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>900</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,332 +1817,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>118000</v>
+        <v>103700</v>
       </c>
       <c r="E41" s="3">
-        <v>133900</v>
+        <v>109400</v>
       </c>
       <c r="F41" s="3">
-        <v>100000</v>
+        <v>124000</v>
       </c>
       <c r="G41" s="3">
-        <v>11700</v>
+        <v>92700</v>
       </c>
       <c r="H41" s="3">
-        <v>14100</v>
+        <v>10800</v>
       </c>
       <c r="I41" s="3">
-        <v>10200</v>
+        <v>13100</v>
       </c>
       <c r="J41" s="3">
+        <v>9500</v>
+      </c>
+      <c r="K41" s="3">
         <v>6700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9000</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>292100</v>
+        <v>437100</v>
       </c>
       <c r="E42" s="3">
-        <v>248900</v>
+        <v>270600</v>
       </c>
       <c r="F42" s="3">
-        <v>182500</v>
+        <v>230600</v>
       </c>
       <c r="G42" s="3">
-        <v>214400</v>
+        <v>169100</v>
       </c>
       <c r="H42" s="3">
-        <v>41800</v>
+        <v>198600</v>
       </c>
       <c r="I42" s="3">
-        <v>40500</v>
+        <v>38700</v>
       </c>
       <c r="J42" s="3">
+        <v>37500</v>
+      </c>
+      <c r="K42" s="3">
         <v>10200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>13200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>5000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>9600</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>281200</v>
+        <v>366000</v>
       </c>
       <c r="E43" s="3">
-        <v>331800</v>
+        <v>260500</v>
       </c>
       <c r="F43" s="3">
-        <v>289700</v>
+        <v>307400</v>
       </c>
       <c r="G43" s="3">
-        <v>279200</v>
+        <v>268300</v>
       </c>
       <c r="H43" s="3">
-        <v>138900</v>
+        <v>258700</v>
       </c>
       <c r="I43" s="3">
-        <v>47400</v>
+        <v>128700</v>
       </c>
       <c r="J43" s="3">
+        <v>43900</v>
+      </c>
+      <c r="K43" s="3">
         <v>28200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>27900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>28700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>35300</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>96900</v>
+        <v>146000</v>
       </c>
       <c r="E44" s="3">
-        <v>91000</v>
+        <v>89700</v>
       </c>
       <c r="F44" s="3">
-        <v>56800</v>
+        <v>84300</v>
       </c>
       <c r="G44" s="3">
-        <v>42300</v>
+        <v>52600</v>
       </c>
       <c r="H44" s="3">
-        <v>33300</v>
+        <v>39200</v>
       </c>
       <c r="I44" s="3">
-        <v>4500</v>
+        <v>30900</v>
       </c>
       <c r="J44" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K44" s="3">
         <v>2700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2600</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3300</v>
+        <v>9900</v>
       </c>
       <c r="E45" s="3">
-        <v>3400</v>
+        <v>3100</v>
       </c>
       <c r="F45" s="3">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="G45" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="H45" s="3">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="I45" s="3">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="J45" s="3">
+        <v>900</v>
+      </c>
+      <c r="K45" s="3">
         <v>600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7700</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>791500</v>
+        <v>1062700</v>
       </c>
       <c r="E46" s="3">
-        <v>809100</v>
+        <v>733300</v>
       </c>
       <c r="F46" s="3">
-        <v>630700</v>
+        <v>749500</v>
       </c>
       <c r="G46" s="3">
-        <v>548900</v>
+        <v>584300</v>
       </c>
       <c r="H46" s="3">
-        <v>229600</v>
+        <v>508500</v>
       </c>
       <c r="I46" s="3">
-        <v>96200</v>
+        <v>212700</v>
       </c>
       <c r="J46" s="3">
+        <v>89100</v>
+      </c>
+      <c r="K46" s="3">
         <v>43700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>43900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>35200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>49700</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>587600</v>
+        <v>888700</v>
       </c>
       <c r="E47" s="3">
-        <v>367700</v>
+        <v>544300</v>
       </c>
       <c r="F47" s="3">
-        <v>277900</v>
+        <v>340700</v>
       </c>
       <c r="G47" s="3">
-        <v>202700</v>
+        <v>257500</v>
       </c>
       <c r="H47" s="3">
-        <v>96800</v>
+        <v>187700</v>
       </c>
       <c r="I47" s="3">
-        <v>41200</v>
+        <v>89700</v>
       </c>
       <c r="J47" s="3">
+        <v>38200</v>
+      </c>
+      <c r="K47" s="3">
         <v>22600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>13900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>25600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>41700</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1352200</v>
+        <v>1577200</v>
       </c>
       <c r="E48" s="3">
-        <v>2093000</v>
+        <v>1252700</v>
       </c>
       <c r="F48" s="3">
-        <v>1374500</v>
+        <v>1939000</v>
       </c>
       <c r="G48" s="3">
-        <v>1106800</v>
+        <v>1273300</v>
       </c>
       <c r="H48" s="3">
-        <v>407700</v>
+        <v>1025300</v>
       </c>
       <c r="I48" s="3">
-        <v>144000</v>
+        <v>377700</v>
       </c>
       <c r="J48" s="3">
+        <v>133400</v>
+      </c>
+      <c r="K48" s="3">
         <v>91500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>85200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>199100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>329000</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>34300</v>
+        <v>36400</v>
       </c>
       <c r="E49" s="3">
-        <v>90000</v>
+        <v>31800</v>
       </c>
       <c r="F49" s="3">
-        <v>66900</v>
+        <v>83300</v>
       </c>
       <c r="G49" s="3">
-        <v>63000</v>
+        <v>61900</v>
       </c>
       <c r="H49" s="3">
-        <v>20000</v>
+        <v>58400</v>
       </c>
       <c r="I49" s="3">
-        <v>7300</v>
+        <v>18500</v>
       </c>
       <c r="J49" s="3">
+        <v>6700</v>
+      </c>
+      <c r="K49" s="3">
         <v>8700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>59600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>91000</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1316800</v>
+        <v>80300</v>
       </c>
       <c r="E52" s="3">
-        <v>17300</v>
+        <v>1219900</v>
       </c>
       <c r="F52" s="3">
+        <v>16100</v>
+      </c>
+      <c r="G52" s="3">
         <v>1200</v>
       </c>
-      <c r="G52" s="3">
-        <v>202300</v>
-      </c>
       <c r="H52" s="3">
-        <v>12400</v>
+        <v>187400</v>
       </c>
       <c r="I52" s="3">
+        <v>11500</v>
+      </c>
+      <c r="J52" s="3">
         <v>500</v>
-      </c>
-      <c r="J52" s="3">
-        <v>900</v>
       </c>
       <c r="K52" s="3">
         <v>900</v>
       </c>
       <c r="L52" s="3">
+        <v>900</v>
+      </c>
+      <c r="M52" s="3">
         <v>12300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>81600</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4082400</v>
+        <v>3645200</v>
       </c>
       <c r="E54" s="3">
-        <v>3377000</v>
+        <v>3781900</v>
       </c>
       <c r="F54" s="3">
-        <v>2351200</v>
+        <v>3128500</v>
       </c>
       <c r="G54" s="3">
-        <v>2115500</v>
+        <v>2178100</v>
       </c>
       <c r="H54" s="3">
-        <v>766600</v>
+        <v>1959800</v>
       </c>
       <c r="I54" s="3">
-        <v>289200</v>
+        <v>710200</v>
       </c>
       <c r="J54" s="3">
+        <v>267900</v>
+      </c>
+      <c r="K54" s="3">
         <v>167300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>155000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>187100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>316500</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>81500</v>
+        <v>159300</v>
       </c>
       <c r="E57" s="3">
-        <v>224200</v>
+        <v>75500</v>
       </c>
       <c r="F57" s="3">
-        <v>237700</v>
+        <v>207700</v>
       </c>
       <c r="G57" s="3">
-        <v>240800</v>
+        <v>220200</v>
       </c>
       <c r="H57" s="3">
-        <v>124700</v>
+        <v>223100</v>
       </c>
       <c r="I57" s="3">
-        <v>65700</v>
+        <v>115600</v>
       </c>
       <c r="J57" s="3">
+        <v>60800</v>
+      </c>
+      <c r="K57" s="3">
         <v>45000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>38100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>52600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>25300</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>202100</v>
+        <v>78600</v>
       </c>
       <c r="E58" s="3">
-        <v>108900</v>
+        <v>187300</v>
       </c>
       <c r="F58" s="3">
-        <v>141800</v>
+        <v>100900</v>
       </c>
       <c r="G58" s="3">
-        <v>85500</v>
+        <v>131400</v>
       </c>
       <c r="H58" s="3">
-        <v>106000</v>
+        <v>79200</v>
       </c>
       <c r="I58" s="3">
-        <v>13000</v>
+        <v>98200</v>
       </c>
       <c r="J58" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K58" s="3">
         <v>7800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>13100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>47000</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>90600</v>
+        <v>84800</v>
       </c>
       <c r="E59" s="3">
-        <v>174000</v>
+        <v>84000</v>
       </c>
       <c r="F59" s="3">
-        <v>110900</v>
+        <v>161200</v>
       </c>
       <c r="G59" s="3">
-        <v>112500</v>
+        <v>102800</v>
       </c>
       <c r="H59" s="3">
-        <v>67500</v>
+        <v>104200</v>
       </c>
       <c r="I59" s="3">
-        <v>16400</v>
+        <v>62500</v>
       </c>
       <c r="J59" s="3">
+        <v>15200</v>
+      </c>
+      <c r="K59" s="3">
         <v>10500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>24200</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>374300</v>
+        <v>322600</v>
       </c>
       <c r="E60" s="3">
-        <v>507000</v>
+        <v>346800</v>
       </c>
       <c r="F60" s="3">
-        <v>490400</v>
+        <v>469700</v>
       </c>
       <c r="G60" s="3">
-        <v>438800</v>
+        <v>454300</v>
       </c>
       <c r="H60" s="3">
-        <v>298200</v>
+        <v>406500</v>
       </c>
       <c r="I60" s="3">
-        <v>95100</v>
+        <v>276300</v>
       </c>
       <c r="J60" s="3">
+        <v>88100</v>
+      </c>
+      <c r="K60" s="3">
         <v>63300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>56900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>53000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>66100</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1145000</v>
+        <v>1292000</v>
       </c>
       <c r="E61" s="3">
-        <v>1047800</v>
+        <v>1060800</v>
       </c>
       <c r="F61" s="3">
-        <v>760700</v>
+        <v>970700</v>
       </c>
       <c r="G61" s="3">
-        <v>543800</v>
+        <v>704800</v>
       </c>
       <c r="H61" s="3">
-        <v>151600</v>
+        <v>503800</v>
       </c>
       <c r="I61" s="3">
-        <v>66300</v>
+        <v>140500</v>
       </c>
       <c r="J61" s="3">
+        <v>61400</v>
+      </c>
+      <c r="K61" s="3">
         <v>37600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>36100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>36700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>65100</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>234000</v>
+        <v>339300</v>
       </c>
       <c r="E62" s="3">
-        <v>391100</v>
+        <v>216800</v>
       </c>
       <c r="F62" s="3">
-        <v>355800</v>
+        <v>362300</v>
       </c>
       <c r="G62" s="3">
-        <v>361400</v>
+        <v>329600</v>
       </c>
       <c r="H62" s="3">
-        <v>177100</v>
+        <v>334800</v>
       </c>
       <c r="I62" s="3">
-        <v>44700</v>
+        <v>164100</v>
       </c>
       <c r="J62" s="3">
+        <v>41400</v>
+      </c>
+      <c r="K62" s="3">
         <v>31200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>26500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>90700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>73600</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2889500</v>
+        <v>1959500</v>
       </c>
       <c r="E66" s="3">
-        <v>2237600</v>
+        <v>2676900</v>
       </c>
       <c r="F66" s="3">
-        <v>1784700</v>
+        <v>2072900</v>
       </c>
       <c r="G66" s="3">
-        <v>1555200</v>
+        <v>1653300</v>
       </c>
       <c r="H66" s="3">
-        <v>656900</v>
+        <v>1440800</v>
       </c>
       <c r="I66" s="3">
-        <v>219800</v>
+        <v>608600</v>
       </c>
       <c r="J66" s="3">
+        <v>203600</v>
+      </c>
+      <c r="K66" s="3">
         <v>138300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>129100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>157300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>252600</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>615200</v>
+        <v>952400</v>
       </c>
       <c r="E72" s="3">
-        <v>699900</v>
+        <v>569900</v>
       </c>
       <c r="F72" s="3">
-        <v>252600</v>
+        <v>648400</v>
       </c>
       <c r="G72" s="3">
-        <v>252600</v>
+        <v>234000</v>
       </c>
       <c r="H72" s="3">
-        <v>40500</v>
+        <v>234000</v>
       </c>
       <c r="I72" s="3">
-        <v>40600</v>
+        <v>37500</v>
       </c>
       <c r="J72" s="3">
+        <v>37600</v>
+      </c>
+      <c r="K72" s="3">
         <v>12800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-10400</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1192900</v>
+        <v>1685700</v>
       </c>
       <c r="E76" s="3">
-        <v>1139500</v>
+        <v>1105100</v>
       </c>
       <c r="F76" s="3">
-        <v>566500</v>
+        <v>1055600</v>
       </c>
       <c r="G76" s="3">
-        <v>560300</v>
+        <v>524800</v>
       </c>
       <c r="H76" s="3">
-        <v>109700</v>
+        <v>519000</v>
       </c>
       <c r="I76" s="3">
-        <v>69300</v>
+        <v>101600</v>
       </c>
       <c r="J76" s="3">
+        <v>64200</v>
+      </c>
+      <c r="K76" s="3">
         <v>29000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>25900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>29800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>63900</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-312000</v>
+        <v>249000</v>
       </c>
       <c r="E81" s="3">
-        <v>327500</v>
+        <v>-289000</v>
       </c>
       <c r="F81" s="3">
-        <v>83700</v>
+        <v>303400</v>
       </c>
       <c r="G81" s="3">
-        <v>107100</v>
+        <v>77500</v>
       </c>
       <c r="H81" s="3">
+        <v>99200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
-        <v>30400</v>
-      </c>
       <c r="J81" s="3">
+        <v>28200</v>
+      </c>
+      <c r="K81" s="3">
         <v>7400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-10700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>900</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>143700</v>
+        <v>180800</v>
       </c>
       <c r="E83" s="3">
-        <v>138100</v>
+        <v>133100</v>
       </c>
       <c r="F83" s="3">
-        <v>87500</v>
+        <v>128000</v>
       </c>
       <c r="G83" s="3">
-        <v>76800</v>
+        <v>81000</v>
       </c>
       <c r="H83" s="3">
-        <v>21800</v>
+        <v>71100</v>
       </c>
       <c r="I83" s="3">
-        <v>7100</v>
+        <v>20200</v>
       </c>
       <c r="J83" s="3">
-        <v>4600</v>
+        <v>6600</v>
       </c>
       <c r="K83" s="3">
         <v>4600</v>
       </c>
       <c r="L83" s="3">
+        <v>4600</v>
+      </c>
+      <c r="M83" s="3">
         <v>6200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>10200</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>468900</v>
+        <v>702000</v>
       </c>
       <c r="E89" s="3">
-        <v>373900</v>
+        <v>434400</v>
       </c>
       <c r="F89" s="3">
-        <v>227000</v>
+        <v>346400</v>
       </c>
       <c r="G89" s="3">
-        <v>158800</v>
+        <v>210300</v>
       </c>
       <c r="H89" s="3">
-        <v>59000</v>
+        <v>147100</v>
       </c>
       <c r="I89" s="3">
-        <v>43300</v>
+        <v>54600</v>
       </c>
       <c r="J89" s="3">
+        <v>40100</v>
+      </c>
+      <c r="K89" s="3">
         <v>25500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>22200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>19800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>29800</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-83300</v>
+        <v>-179300</v>
       </c>
       <c r="E91" s="3">
-        <v>-285800</v>
+        <v>-77200</v>
       </c>
       <c r="F91" s="3">
-        <v>-252000</v>
+        <v>-264800</v>
       </c>
       <c r="G91" s="3">
-        <v>-181400</v>
+        <v>-233500</v>
       </c>
       <c r="H91" s="3">
-        <v>-61900</v>
+        <v>-168100</v>
       </c>
       <c r="I91" s="3">
-        <v>-47600</v>
+        <v>-57400</v>
       </c>
       <c r="J91" s="3">
+        <v>-44100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-23100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-14800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-42800</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-154100</v>
+        <v>-420800</v>
       </c>
       <c r="E94" s="3">
-        <v>-170500</v>
+        <v>-142700</v>
       </c>
       <c r="F94" s="3">
-        <v>7300</v>
+        <v>-158000</v>
       </c>
       <c r="G94" s="3">
-        <v>-316800</v>
+        <v>6800</v>
       </c>
       <c r="H94" s="3">
-        <v>-111400</v>
+        <v>-293500</v>
       </c>
       <c r="I94" s="3">
-        <v>-70600</v>
+        <v>-103200</v>
       </c>
       <c r="J94" s="3">
+        <v>-65400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-24500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-19400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-14900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-44900</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,25 +3757,26 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5800</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-600</v>
+        <v>-5400</v>
       </c>
       <c r="F96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G96" s="3">
         <v>-800</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-700</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-400</v>
       </c>
       <c r="I96" s="3">
         <v>-300</v>
@@ -3552,17 +3785,20 @@
         <v>-200</v>
       </c>
       <c r="K96" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-500</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-297600</v>
+        <v>-292300</v>
       </c>
       <c r="E100" s="3">
-        <v>-210000</v>
+        <v>-275700</v>
       </c>
       <c r="F100" s="3">
-        <v>-175700</v>
+        <v>-194600</v>
       </c>
       <c r="G100" s="3">
-        <v>138800</v>
+        <v>-162800</v>
       </c>
       <c r="H100" s="3">
-        <v>57800</v>
+        <v>128600</v>
       </c>
       <c r="I100" s="3">
-        <v>28300</v>
+        <v>53600</v>
       </c>
       <c r="J100" s="3">
+        <v>26200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-9000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>10300</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-33100</v>
+        <v>5400</v>
       </c>
       <c r="E101" s="3">
-        <v>50300</v>
+        <v>-30700</v>
       </c>
       <c r="F101" s="3">
-        <v>19900</v>
+        <v>46600</v>
       </c>
       <c r="G101" s="3">
-        <v>5000</v>
+        <v>18500</v>
       </c>
       <c r="H101" s="3">
-        <v>3600</v>
+        <v>4700</v>
       </c>
       <c r="I101" s="3">
-        <v>800</v>
+        <v>3300</v>
       </c>
       <c r="J101" s="3">
+        <v>700</v>
+      </c>
+      <c r="K101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2700</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-15800</v>
+        <v>-5700</v>
       </c>
       <c r="E102" s="3">
-        <v>43600</v>
+        <v>-14700</v>
       </c>
       <c r="F102" s="3">
-        <v>78500</v>
+        <v>40400</v>
       </c>
       <c r="G102" s="3">
-        <v>-14200</v>
+        <v>72800</v>
       </c>
       <c r="H102" s="3">
-        <v>9000</v>
+        <v>-13200</v>
       </c>
       <c r="I102" s="3">
-        <v>1800</v>
+        <v>8300</v>
       </c>
       <c r="J102" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2100</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PAM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PAM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>PAM</t>
   </si>
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1329300</v>
+        <v>1233800</v>
       </c>
       <c r="E8" s="3">
-        <v>705600</v>
+        <v>654900</v>
       </c>
       <c r="F8" s="3">
-        <v>594600</v>
+        <v>551900</v>
       </c>
       <c r="G8" s="3">
-        <v>497400</v>
+        <v>461700</v>
       </c>
       <c r="H8" s="3">
-        <v>753700</v>
+        <v>699500</v>
       </c>
       <c r="I8" s="3">
-        <v>230800</v>
+        <v>214200</v>
       </c>
       <c r="J8" s="3">
-        <v>65800</v>
+        <v>61100</v>
       </c>
       <c r="K8" s="3">
         <v>61600</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>837700</v>
+        <v>777600</v>
       </c>
       <c r="E9" s="3">
-        <v>433400</v>
+        <v>402200</v>
       </c>
       <c r="F9" s="3">
-        <v>359300</v>
+        <v>333500</v>
       </c>
       <c r="G9" s="3">
-        <v>287600</v>
+        <v>266900</v>
       </c>
       <c r="H9" s="3">
-        <v>541400</v>
+        <v>502500</v>
       </c>
       <c r="I9" s="3">
-        <v>163400</v>
+        <v>151600</v>
       </c>
       <c r="J9" s="3">
-        <v>62800</v>
+        <v>58300</v>
       </c>
       <c r="K9" s="3">
         <v>59800</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>491500</v>
+        <v>456200</v>
       </c>
       <c r="E10" s="3">
-        <v>272200</v>
+        <v>252700</v>
       </c>
       <c r="F10" s="3">
-        <v>235300</v>
+        <v>218400</v>
       </c>
       <c r="G10" s="3">
-        <v>209800</v>
+        <v>194800</v>
       </c>
       <c r="H10" s="3">
-        <v>212200</v>
+        <v>197000</v>
       </c>
       <c r="I10" s="3">
-        <v>67400</v>
+        <v>62600</v>
       </c>
       <c r="J10" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="K10" s="3">
         <v>1700</v>
@@ -857,22 +857,22 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F12" s="3">
-        <v>4300</v>
+        <v>3900</v>
       </c>
       <c r="G12" s="3">
         <v>400</v>
       </c>
       <c r="H12" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I12" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>8</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>6800</v>
+        <v>6300</v>
       </c>
       <c r="E14" s="3">
-        <v>100600</v>
+        <v>93400</v>
       </c>
       <c r="F14" s="3">
-        <v>47000</v>
+        <v>43600</v>
       </c>
       <c r="G14" s="3">
-        <v>-128400</v>
+        <v>-119200</v>
       </c>
       <c r="H14" s="3">
-        <v>-102600</v>
+        <v>-95200</v>
       </c>
       <c r="I14" s="3">
-        <v>47300</v>
+        <v>43900</v>
       </c>
       <c r="J14" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="K14" s="3">
         <v>-700</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="E15" s="3">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="F15" s="3">
-        <v>4200</v>
+        <v>3900</v>
       </c>
       <c r="G15" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="H15" s="3">
-        <v>3200</v>
+        <v>2900</v>
       </c>
       <c r="I15" s="3">
         <v>1000</v>
       </c>
       <c r="J15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K15" s="3">
         <v>400</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>810700</v>
+        <v>752500</v>
       </c>
       <c r="E17" s="3">
-        <v>538300</v>
+        <v>499700</v>
       </c>
       <c r="F17" s="3">
-        <v>390000</v>
+        <v>362000</v>
       </c>
       <c r="G17" s="3">
-        <v>142900</v>
+        <v>132700</v>
       </c>
       <c r="H17" s="3">
-        <v>520700</v>
+        <v>483300</v>
       </c>
       <c r="I17" s="3">
-        <v>212500</v>
+        <v>197300</v>
       </c>
       <c r="J17" s="3">
-        <v>32300</v>
+        <v>30000</v>
       </c>
       <c r="K17" s="3">
         <v>52800</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>518600</v>
+        <v>481300</v>
       </c>
       <c r="E18" s="3">
-        <v>167200</v>
+        <v>155200</v>
       </c>
       <c r="F18" s="3">
-        <v>204600</v>
+        <v>189900</v>
       </c>
       <c r="G18" s="3">
-        <v>354500</v>
+        <v>329000</v>
       </c>
       <c r="H18" s="3">
-        <v>232900</v>
+        <v>216200</v>
       </c>
       <c r="I18" s="3">
-        <v>18200</v>
+        <v>16900</v>
       </c>
       <c r="J18" s="3">
-        <v>33500</v>
+        <v>31100</v>
       </c>
       <c r="K18" s="3">
         <v>8800</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-48700</v>
+        <v>-45200</v>
       </c>
       <c r="E20" s="3">
-        <v>54600</v>
+        <v>50600</v>
       </c>
       <c r="F20" s="3">
-        <v>79700</v>
+        <v>73900</v>
       </c>
       <c r="G20" s="3">
-        <v>-279300</v>
+        <v>-259300</v>
       </c>
       <c r="H20" s="3">
-        <v>-37500</v>
+        <v>-34800</v>
       </c>
       <c r="I20" s="3">
-        <v>-3900</v>
+        <v>-3600</v>
       </c>
       <c r="J20" s="3">
-        <v>15900</v>
+        <v>14700</v>
       </c>
       <c r="K20" s="3">
         <v>7100</v>
@@ -1160,26 +1160,26 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>604100</v>
       </c>
       <c r="E21" s="3">
-        <v>355100</v>
+        <v>329600</v>
       </c>
       <c r="F21" s="3">
-        <v>412300</v>
+        <v>382700</v>
       </c>
       <c r="G21" s="3">
-        <v>156300</v>
+        <v>145000</v>
       </c>
       <c r="H21" s="3">
-        <v>266600</v>
+        <v>247500</v>
       </c>
       <c r="I21" s="3">
-        <v>34600</v>
+        <v>32100</v>
       </c>
       <c r="J21" s="3">
-        <v>56000</v>
+        <v>52000</v>
       </c>
       <c r="K21" s="3">
         <v>20500</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>118700</v>
+        <v>110100</v>
       </c>
       <c r="E22" s="3">
-        <v>107000</v>
+        <v>99400</v>
       </c>
       <c r="F22" s="3">
-        <v>73200</v>
+        <v>67900</v>
       </c>
       <c r="G22" s="3">
-        <v>54500</v>
+        <v>50600</v>
       </c>
       <c r="H22" s="3">
-        <v>56100</v>
+        <v>52100</v>
       </c>
       <c r="I22" s="3">
-        <v>28300</v>
+        <v>26300</v>
       </c>
       <c r="J22" s="3">
-        <v>8600</v>
+        <v>8000</v>
       </c>
       <c r="K22" s="3">
         <v>9600</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>351200</v>
+        <v>326000</v>
       </c>
       <c r="E23" s="3">
-        <v>114800</v>
+        <v>106500</v>
       </c>
       <c r="F23" s="3">
-        <v>211000</v>
+        <v>195900</v>
       </c>
       <c r="G23" s="3">
-        <v>20600</v>
+        <v>19100</v>
       </c>
       <c r="H23" s="3">
-        <v>139300</v>
+        <v>129300</v>
       </c>
       <c r="I23" s="3">
-        <v>-14000</v>
+        <v>-13000</v>
       </c>
       <c r="J23" s="3">
-        <v>40800</v>
+        <v>37800</v>
       </c>
       <c r="K23" s="3">
         <v>6200</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>67100</v>
+        <v>62300</v>
       </c>
       <c r="E24" s="3">
-        <v>28700</v>
+        <v>26600</v>
       </c>
       <c r="F24" s="3">
-        <v>-41600</v>
+        <v>-38600</v>
       </c>
       <c r="G24" s="3">
-        <v>-11100</v>
+        <v>-10300</v>
       </c>
       <c r="H24" s="3">
-        <v>-9100</v>
+        <v>-8400</v>
       </c>
       <c r="I24" s="3">
-        <v>-11000</v>
+        <v>-10200</v>
       </c>
       <c r="J24" s="3">
-        <v>5400</v>
+        <v>5000</v>
       </c>
       <c r="K24" s="3">
         <v>1000</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>284100</v>
+        <v>263700</v>
       </c>
       <c r="E26" s="3">
-        <v>86100</v>
+        <v>79900</v>
       </c>
       <c r="F26" s="3">
-        <v>252700</v>
+        <v>234500</v>
       </c>
       <c r="G26" s="3">
-        <v>31700</v>
+        <v>29400</v>
       </c>
       <c r="H26" s="3">
-        <v>148300</v>
+        <v>137700</v>
       </c>
       <c r="I26" s="3">
-        <v>-3000</v>
+        <v>-2800</v>
       </c>
       <c r="J26" s="3">
-        <v>35400</v>
+        <v>32800</v>
       </c>
       <c r="K26" s="3">
         <v>5300</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>314500</v>
+        <v>291900</v>
       </c>
       <c r="E27" s="3">
-        <v>164400</v>
+        <v>152600</v>
       </c>
       <c r="F27" s="3">
-        <v>194800</v>
+        <v>180800</v>
       </c>
       <c r="G27" s="3">
-        <v>9900</v>
+        <v>9200</v>
       </c>
       <c r="H27" s="3">
-        <v>116600</v>
+        <v>108300</v>
       </c>
       <c r="I27" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="J27" s="3">
-        <v>28200</v>
+        <v>26100</v>
       </c>
       <c r="K27" s="3">
         <v>7400</v>
@@ -1473,22 +1473,22 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-65500</v>
+        <v>-60800</v>
       </c>
       <c r="E29" s="3">
-        <v>-453400</v>
+        <v>-420800</v>
       </c>
       <c r="F29" s="3">
-        <v>108600</v>
+        <v>100800</v>
       </c>
       <c r="G29" s="3">
-        <v>67600</v>
+        <v>62800</v>
       </c>
       <c r="H29" s="3">
-        <v>-17400</v>
+        <v>-16100</v>
       </c>
       <c r="I29" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>48700</v>
+        <v>45200</v>
       </c>
       <c r="E32" s="3">
-        <v>-54600</v>
+        <v>-50600</v>
       </c>
       <c r="F32" s="3">
-        <v>-79700</v>
+        <v>-73900</v>
       </c>
       <c r="G32" s="3">
-        <v>279300</v>
+        <v>259300</v>
       </c>
       <c r="H32" s="3">
-        <v>37500</v>
+        <v>34800</v>
       </c>
       <c r="I32" s="3">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="J32" s="3">
-        <v>-15900</v>
+        <v>-14700</v>
       </c>
       <c r="K32" s="3">
         <v>-7100</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>249000</v>
+        <v>231100</v>
       </c>
       <c r="E33" s="3">
-        <v>-289000</v>
+        <v>-268200</v>
       </c>
       <c r="F33" s="3">
-        <v>303400</v>
+        <v>281600</v>
       </c>
       <c r="G33" s="3">
-        <v>77500</v>
+        <v>72000</v>
       </c>
       <c r="H33" s="3">
-        <v>99200</v>
+        <v>92100</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>28200</v>
+        <v>26100</v>
       </c>
       <c r="K33" s="3">
         <v>7400</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>249000</v>
+        <v>231100</v>
       </c>
       <c r="E35" s="3">
-        <v>-289000</v>
+        <v>-268200</v>
       </c>
       <c r="F35" s="3">
-        <v>303400</v>
+        <v>281600</v>
       </c>
       <c r="G35" s="3">
-        <v>77500</v>
+        <v>72000</v>
       </c>
       <c r="H35" s="3">
-        <v>99200</v>
+        <v>92100</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>28200</v>
+        <v>26100</v>
       </c>
       <c r="K35" s="3">
         <v>7400</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>103700</v>
+        <v>96200</v>
       </c>
       <c r="E41" s="3">
-        <v>109400</v>
+        <v>101500</v>
       </c>
       <c r="F41" s="3">
-        <v>124000</v>
+        <v>115100</v>
       </c>
       <c r="G41" s="3">
-        <v>92700</v>
+        <v>86000</v>
       </c>
       <c r="H41" s="3">
-        <v>10800</v>
+        <v>10100</v>
       </c>
       <c r="I41" s="3">
-        <v>13100</v>
+        <v>12100</v>
       </c>
       <c r="J41" s="3">
-        <v>9500</v>
+        <v>8800</v>
       </c>
       <c r="K41" s="3">
         <v>6700</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>437100</v>
+        <v>405700</v>
       </c>
       <c r="E42" s="3">
-        <v>270600</v>
+        <v>251200</v>
       </c>
       <c r="F42" s="3">
-        <v>230600</v>
+        <v>214000</v>
       </c>
       <c r="G42" s="3">
-        <v>169100</v>
+        <v>157000</v>
       </c>
       <c r="H42" s="3">
-        <v>198600</v>
+        <v>184400</v>
       </c>
       <c r="I42" s="3">
-        <v>38700</v>
+        <v>35900</v>
       </c>
       <c r="J42" s="3">
-        <v>37500</v>
+        <v>34800</v>
       </c>
       <c r="K42" s="3">
         <v>10200</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>366000</v>
+        <v>339700</v>
       </c>
       <c r="E43" s="3">
-        <v>260500</v>
+        <v>241800</v>
       </c>
       <c r="F43" s="3">
-        <v>307400</v>
+        <v>285300</v>
       </c>
       <c r="G43" s="3">
-        <v>268300</v>
+        <v>249100</v>
       </c>
       <c r="H43" s="3">
-        <v>258700</v>
+        <v>240100</v>
       </c>
       <c r="I43" s="3">
-        <v>128700</v>
+        <v>119400</v>
       </c>
       <c r="J43" s="3">
-        <v>43900</v>
+        <v>40700</v>
       </c>
       <c r="K43" s="3">
         <v>28200</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>146000</v>
+        <v>135500</v>
       </c>
       <c r="E44" s="3">
-        <v>89700</v>
+        <v>83300</v>
       </c>
       <c r="F44" s="3">
-        <v>84300</v>
+        <v>78300</v>
       </c>
       <c r="G44" s="3">
-        <v>52600</v>
+        <v>48900</v>
       </c>
       <c r="H44" s="3">
-        <v>39200</v>
+        <v>36400</v>
       </c>
       <c r="I44" s="3">
-        <v>30900</v>
+        <v>28700</v>
       </c>
       <c r="J44" s="3">
-        <v>4100</v>
+        <v>3800</v>
       </c>
       <c r="K44" s="3">
         <v>2700</v>
@@ -1980,22 +1980,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9900</v>
+        <v>9200</v>
       </c>
       <c r="E45" s="3">
-        <v>3100</v>
+        <v>2800</v>
       </c>
       <c r="F45" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="G45" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H45" s="3">
         <v>1100</v>
       </c>
       <c r="I45" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="J45" s="3">
         <v>900</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1062700</v>
+        <v>986400</v>
       </c>
       <c r="E46" s="3">
-        <v>733300</v>
+        <v>680600</v>
       </c>
       <c r="F46" s="3">
-        <v>749500</v>
+        <v>695700</v>
       </c>
       <c r="G46" s="3">
-        <v>584300</v>
+        <v>542300</v>
       </c>
       <c r="H46" s="3">
-        <v>508500</v>
+        <v>472000</v>
       </c>
       <c r="I46" s="3">
-        <v>212700</v>
+        <v>197500</v>
       </c>
       <c r="J46" s="3">
-        <v>89100</v>
+        <v>82700</v>
       </c>
       <c r="K46" s="3">
         <v>43700</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>888700</v>
+        <v>824800</v>
       </c>
       <c r="E47" s="3">
-        <v>544300</v>
+        <v>505200</v>
       </c>
       <c r="F47" s="3">
-        <v>340700</v>
+        <v>316200</v>
       </c>
       <c r="G47" s="3">
-        <v>257500</v>
+        <v>239000</v>
       </c>
       <c r="H47" s="3">
-        <v>187700</v>
+        <v>174300</v>
       </c>
       <c r="I47" s="3">
-        <v>89700</v>
+        <v>83200</v>
       </c>
       <c r="J47" s="3">
-        <v>38200</v>
+        <v>35400</v>
       </c>
       <c r="K47" s="3">
         <v>22600</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1577200</v>
+        <v>1463900</v>
       </c>
       <c r="E48" s="3">
-        <v>1252700</v>
+        <v>1162700</v>
       </c>
       <c r="F48" s="3">
-        <v>1939000</v>
+        <v>1799700</v>
       </c>
       <c r="G48" s="3">
-        <v>1273300</v>
+        <v>1181900</v>
       </c>
       <c r="H48" s="3">
-        <v>1025300</v>
+        <v>951700</v>
       </c>
       <c r="I48" s="3">
-        <v>377700</v>
+        <v>350600</v>
       </c>
       <c r="J48" s="3">
-        <v>133400</v>
+        <v>123800</v>
       </c>
       <c r="K48" s="3">
         <v>91500</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>36400</v>
+        <v>33700</v>
       </c>
       <c r="E49" s="3">
-        <v>31800</v>
+        <v>29500</v>
       </c>
       <c r="F49" s="3">
-        <v>83300</v>
+        <v>77400</v>
       </c>
       <c r="G49" s="3">
-        <v>61900</v>
+        <v>57500</v>
       </c>
       <c r="H49" s="3">
-        <v>58400</v>
+        <v>54200</v>
       </c>
       <c r="I49" s="3">
-        <v>18500</v>
+        <v>17200</v>
       </c>
       <c r="J49" s="3">
-        <v>6700</v>
+        <v>6300</v>
       </c>
       <c r="K49" s="3">
         <v>8700</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>80300</v>
+        <v>74500</v>
       </c>
       <c r="E52" s="3">
-        <v>1219900</v>
+        <v>1132300</v>
       </c>
       <c r="F52" s="3">
-        <v>16100</v>
+        <v>14900</v>
       </c>
       <c r="G52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="H52" s="3">
-        <v>187400</v>
+        <v>174000</v>
       </c>
       <c r="I52" s="3">
-        <v>11500</v>
+        <v>10700</v>
       </c>
       <c r="J52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K52" s="3">
         <v>900</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3645200</v>
+        <v>3383500</v>
       </c>
       <c r="E54" s="3">
-        <v>3781900</v>
+        <v>3510300</v>
       </c>
       <c r="F54" s="3">
-        <v>3128500</v>
+        <v>2903900</v>
       </c>
       <c r="G54" s="3">
-        <v>2178100</v>
+        <v>2021700</v>
       </c>
       <c r="H54" s="3">
-        <v>1959800</v>
+        <v>1819100</v>
       </c>
       <c r="I54" s="3">
-        <v>710200</v>
+        <v>659200</v>
       </c>
       <c r="J54" s="3">
-        <v>267900</v>
+        <v>248600</v>
       </c>
       <c r="K54" s="3">
         <v>167300</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>159300</v>
+        <v>147800</v>
       </c>
       <c r="E57" s="3">
-        <v>75500</v>
+        <v>70100</v>
       </c>
       <c r="F57" s="3">
-        <v>207700</v>
+        <v>192800</v>
       </c>
       <c r="G57" s="3">
-        <v>220200</v>
+        <v>204400</v>
       </c>
       <c r="H57" s="3">
-        <v>223100</v>
+        <v>207000</v>
       </c>
       <c r="I57" s="3">
-        <v>115600</v>
+        <v>107300</v>
       </c>
       <c r="J57" s="3">
-        <v>60800</v>
+        <v>56500</v>
       </c>
       <c r="K57" s="3">
         <v>45000</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>78600</v>
+        <v>72900</v>
       </c>
       <c r="E58" s="3">
-        <v>187300</v>
+        <v>173800</v>
       </c>
       <c r="F58" s="3">
-        <v>100900</v>
+        <v>93600</v>
       </c>
       <c r="G58" s="3">
-        <v>131400</v>
+        <v>122000</v>
       </c>
       <c r="H58" s="3">
-        <v>79200</v>
+        <v>73600</v>
       </c>
       <c r="I58" s="3">
-        <v>98200</v>
+        <v>91200</v>
       </c>
       <c r="J58" s="3">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="K58" s="3">
         <v>7800</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>84800</v>
+        <v>78700</v>
       </c>
       <c r="E59" s="3">
-        <v>84000</v>
+        <v>77900</v>
       </c>
       <c r="F59" s="3">
-        <v>161200</v>
+        <v>149600</v>
       </c>
       <c r="G59" s="3">
-        <v>102800</v>
+        <v>95400</v>
       </c>
       <c r="H59" s="3">
-        <v>104200</v>
+        <v>96700</v>
       </c>
       <c r="I59" s="3">
-        <v>62500</v>
+        <v>58000</v>
       </c>
       <c r="J59" s="3">
-        <v>15200</v>
+        <v>14100</v>
       </c>
       <c r="K59" s="3">
         <v>10500</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>322600</v>
+        <v>299500</v>
       </c>
       <c r="E60" s="3">
-        <v>346800</v>
+        <v>321900</v>
       </c>
       <c r="F60" s="3">
-        <v>469700</v>
+        <v>436000</v>
       </c>
       <c r="G60" s="3">
-        <v>454300</v>
+        <v>421700</v>
       </c>
       <c r="H60" s="3">
-        <v>406500</v>
+        <v>377300</v>
       </c>
       <c r="I60" s="3">
-        <v>276300</v>
+        <v>256400</v>
       </c>
       <c r="J60" s="3">
-        <v>88100</v>
+        <v>81700</v>
       </c>
       <c r="K60" s="3">
         <v>63300</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1292000</v>
+        <v>1199200</v>
       </c>
       <c r="E61" s="3">
-        <v>1060800</v>
+        <v>984600</v>
       </c>
       <c r="F61" s="3">
-        <v>970700</v>
+        <v>901000</v>
       </c>
       <c r="G61" s="3">
-        <v>704800</v>
+        <v>654100</v>
       </c>
       <c r="H61" s="3">
-        <v>503800</v>
+        <v>467600</v>
       </c>
       <c r="I61" s="3">
-        <v>140500</v>
+        <v>130400</v>
       </c>
       <c r="J61" s="3">
-        <v>61400</v>
+        <v>57000</v>
       </c>
       <c r="K61" s="3">
         <v>37600</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>339300</v>
+        <v>314900</v>
       </c>
       <c r="E62" s="3">
-        <v>216800</v>
+        <v>201200</v>
       </c>
       <c r="F62" s="3">
-        <v>362300</v>
+        <v>336300</v>
       </c>
       <c r="G62" s="3">
-        <v>329600</v>
+        <v>305900</v>
       </c>
       <c r="H62" s="3">
-        <v>334800</v>
+        <v>310800</v>
       </c>
       <c r="I62" s="3">
-        <v>164100</v>
+        <v>152300</v>
       </c>
       <c r="J62" s="3">
-        <v>41400</v>
+        <v>38400</v>
       </c>
       <c r="K62" s="3">
         <v>31200</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1959500</v>
+        <v>1818800</v>
       </c>
       <c r="E66" s="3">
-        <v>2676900</v>
+        <v>2484600</v>
       </c>
       <c r="F66" s="3">
-        <v>2072900</v>
+        <v>1924100</v>
       </c>
       <c r="G66" s="3">
-        <v>1653300</v>
+        <v>1534600</v>
       </c>
       <c r="H66" s="3">
-        <v>1440800</v>
+        <v>1337300</v>
       </c>
       <c r="I66" s="3">
-        <v>608600</v>
+        <v>564900</v>
       </c>
       <c r="J66" s="3">
-        <v>203600</v>
+        <v>189000</v>
       </c>
       <c r="K66" s="3">
         <v>138300</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>952400</v>
+        <v>884000</v>
       </c>
       <c r="E72" s="3">
-        <v>569900</v>
+        <v>529000</v>
       </c>
       <c r="F72" s="3">
-        <v>648400</v>
+        <v>601800</v>
       </c>
       <c r="G72" s="3">
-        <v>234000</v>
+        <v>217200</v>
       </c>
       <c r="H72" s="3">
-        <v>234000</v>
+        <v>217200</v>
       </c>
       <c r="I72" s="3">
-        <v>37500</v>
+        <v>34800</v>
       </c>
       <c r="J72" s="3">
-        <v>37600</v>
+        <v>34900</v>
       </c>
       <c r="K72" s="3">
         <v>12800</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1685700</v>
+        <v>1564700</v>
       </c>
       <c r="E76" s="3">
-        <v>1105100</v>
+        <v>1025700</v>
       </c>
       <c r="F76" s="3">
-        <v>1055600</v>
+        <v>979800</v>
       </c>
       <c r="G76" s="3">
-        <v>524800</v>
+        <v>487100</v>
       </c>
       <c r="H76" s="3">
-        <v>519000</v>
+        <v>481800</v>
       </c>
       <c r="I76" s="3">
-        <v>101600</v>
+        <v>94300</v>
       </c>
       <c r="J76" s="3">
-        <v>64200</v>
+        <v>59600</v>
       </c>
       <c r="K76" s="3">
         <v>29000</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>249000</v>
+        <v>231100</v>
       </c>
       <c r="E81" s="3">
-        <v>-289000</v>
+        <v>-268200</v>
       </c>
       <c r="F81" s="3">
-        <v>303400</v>
+        <v>281600</v>
       </c>
       <c r="G81" s="3">
-        <v>77500</v>
+        <v>72000</v>
       </c>
       <c r="H81" s="3">
-        <v>99200</v>
+        <v>92100</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>28200</v>
+        <v>26100</v>
       </c>
       <c r="K81" s="3">
         <v>7400</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>180800</v>
+        <v>167800</v>
       </c>
       <c r="E83" s="3">
-        <v>133100</v>
+        <v>123600</v>
       </c>
       <c r="F83" s="3">
-        <v>128000</v>
+        <v>118800</v>
       </c>
       <c r="G83" s="3">
-        <v>81000</v>
+        <v>75200</v>
       </c>
       <c r="H83" s="3">
-        <v>71100</v>
+        <v>66000</v>
       </c>
       <c r="I83" s="3">
-        <v>20200</v>
+        <v>18800</v>
       </c>
       <c r="J83" s="3">
-        <v>6600</v>
+        <v>6100</v>
       </c>
       <c r="K83" s="3">
         <v>4600</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>702000</v>
+        <v>651600</v>
       </c>
       <c r="E89" s="3">
-        <v>434400</v>
+        <v>403200</v>
       </c>
       <c r="F89" s="3">
-        <v>346400</v>
+        <v>321500</v>
       </c>
       <c r="G89" s="3">
-        <v>210300</v>
+        <v>195200</v>
       </c>
       <c r="H89" s="3">
-        <v>147100</v>
+        <v>136500</v>
       </c>
       <c r="I89" s="3">
-        <v>54600</v>
+        <v>50700</v>
       </c>
       <c r="J89" s="3">
-        <v>40100</v>
+        <v>37200</v>
       </c>
       <c r="K89" s="3">
         <v>25500</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-179300</v>
+        <v>-166400</v>
       </c>
       <c r="E91" s="3">
-        <v>-77200</v>
+        <v>-71700</v>
       </c>
       <c r="F91" s="3">
-        <v>-264800</v>
+        <v>-245800</v>
       </c>
       <c r="G91" s="3">
-        <v>-233500</v>
+        <v>-216700</v>
       </c>
       <c r="H91" s="3">
-        <v>-168100</v>
+        <v>-156000</v>
       </c>
       <c r="I91" s="3">
-        <v>-57400</v>
+        <v>-53300</v>
       </c>
       <c r="J91" s="3">
-        <v>-44100</v>
+        <v>-40900</v>
       </c>
       <c r="K91" s="3">
         <v>-23100</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-420800</v>
+        <v>-390600</v>
       </c>
       <c r="E94" s="3">
-        <v>-142700</v>
+        <v>-132500</v>
       </c>
       <c r="F94" s="3">
-        <v>-158000</v>
+        <v>-146600</v>
       </c>
       <c r="G94" s="3">
-        <v>6800</v>
+        <v>6300</v>
       </c>
       <c r="H94" s="3">
-        <v>-293500</v>
+        <v>-272400</v>
       </c>
       <c r="I94" s="3">
-        <v>-103200</v>
+        <v>-95800</v>
       </c>
       <c r="J94" s="3">
-        <v>-65400</v>
+        <v>-60700</v>
       </c>
       <c r="K94" s="3">
         <v>-24500</v>
@@ -3767,16 +3767,16 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-5400</v>
+        <v>-5000</v>
       </c>
       <c r="F96" s="3">
         <v>-500</v>
       </c>
       <c r="G96" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="H96" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="I96" s="3">
         <v>-300</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-292300</v>
+        <v>-271300</v>
       </c>
       <c r="E100" s="3">
-        <v>-275700</v>
+        <v>-255900</v>
       </c>
       <c r="F100" s="3">
-        <v>-194600</v>
+        <v>-180600</v>
       </c>
       <c r="G100" s="3">
-        <v>-162800</v>
+        <v>-151100</v>
       </c>
       <c r="H100" s="3">
-        <v>128600</v>
+        <v>119300</v>
       </c>
       <c r="I100" s="3">
-        <v>53600</v>
+        <v>49700</v>
       </c>
       <c r="J100" s="3">
-        <v>26200</v>
+        <v>24300</v>
       </c>
       <c r="K100" s="3">
         <v>-1500</v>
@@ -3959,22 +3959,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5400</v>
+        <v>5000</v>
       </c>
       <c r="E101" s="3">
-        <v>-30700</v>
+        <v>-28500</v>
       </c>
       <c r="F101" s="3">
-        <v>46600</v>
+        <v>43200</v>
       </c>
       <c r="G101" s="3">
-        <v>18500</v>
+        <v>17200</v>
       </c>
       <c r="H101" s="3">
-        <v>4700</v>
+        <v>4300</v>
       </c>
       <c r="I101" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="J101" s="3">
         <v>700</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-5700</v>
+        <v>-5300</v>
       </c>
       <c r="E102" s="3">
-        <v>-14700</v>
+        <v>-13600</v>
       </c>
       <c r="F102" s="3">
-        <v>40400</v>
+        <v>37500</v>
       </c>
       <c r="G102" s="3">
-        <v>72800</v>
+        <v>67500</v>
       </c>
       <c r="H102" s="3">
-        <v>-13200</v>
+        <v>-12200</v>
       </c>
       <c r="I102" s="3">
-        <v>8300</v>
+        <v>7700</v>
       </c>
       <c r="J102" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K102" s="3">
         <v>-100</v>

--- a/AAII_Financials/Yearly/PAM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PAM_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1233800</v>
+        <v>1053000</v>
       </c>
       <c r="E8" s="3">
-        <v>654900</v>
+        <v>558900</v>
       </c>
       <c r="F8" s="3">
-        <v>551900</v>
+        <v>471000</v>
       </c>
       <c r="G8" s="3">
-        <v>461700</v>
+        <v>394000</v>
       </c>
       <c r="H8" s="3">
-        <v>699500</v>
+        <v>597000</v>
       </c>
       <c r="I8" s="3">
-        <v>214200</v>
+        <v>182800</v>
       </c>
       <c r="J8" s="3">
-        <v>61100</v>
+        <v>52100</v>
       </c>
       <c r="K8" s="3">
         <v>61600</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>777600</v>
+        <v>663600</v>
       </c>
       <c r="E9" s="3">
-        <v>402200</v>
+        <v>343300</v>
       </c>
       <c r="F9" s="3">
-        <v>333500</v>
+        <v>284600</v>
       </c>
       <c r="G9" s="3">
-        <v>266900</v>
+        <v>227800</v>
       </c>
       <c r="H9" s="3">
-        <v>502500</v>
+        <v>428900</v>
       </c>
       <c r="I9" s="3">
-        <v>151600</v>
+        <v>129400</v>
       </c>
       <c r="J9" s="3">
-        <v>58300</v>
+        <v>49700</v>
       </c>
       <c r="K9" s="3">
         <v>59800</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>456200</v>
+        <v>389400</v>
       </c>
       <c r="E10" s="3">
-        <v>252700</v>
+        <v>215600</v>
       </c>
       <c r="F10" s="3">
-        <v>218400</v>
+        <v>186400</v>
       </c>
       <c r="G10" s="3">
-        <v>194800</v>
+        <v>166200</v>
       </c>
       <c r="H10" s="3">
-        <v>197000</v>
+        <v>168100</v>
       </c>
       <c r="I10" s="3">
-        <v>62600</v>
+        <v>53400</v>
       </c>
       <c r="J10" s="3">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="K10" s="3">
         <v>1700</v>
@@ -857,22 +857,22 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E12" s="3">
         <v>200</v>
       </c>
       <c r="F12" s="3">
-        <v>3900</v>
+        <v>3400</v>
       </c>
       <c r="G12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H12" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I12" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>8</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>6300</v>
+        <v>5400</v>
       </c>
       <c r="E14" s="3">
-        <v>93400</v>
+        <v>79700</v>
       </c>
       <c r="F14" s="3">
-        <v>43600</v>
+        <v>37200</v>
       </c>
       <c r="G14" s="3">
-        <v>-119200</v>
+        <v>-101700</v>
       </c>
       <c r="H14" s="3">
-        <v>-95200</v>
+        <v>-81300</v>
       </c>
       <c r="I14" s="3">
-        <v>43900</v>
+        <v>37500</v>
       </c>
       <c r="J14" s="3">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="K14" s="3">
         <v>-700</v>
@@ -974,22 +974,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>4300</v>
+        <v>3600</v>
       </c>
       <c r="E15" s="3">
-        <v>3200</v>
+        <v>2700</v>
       </c>
       <c r="F15" s="3">
-        <v>3900</v>
+        <v>3300</v>
       </c>
       <c r="G15" s="3">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="H15" s="3">
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="I15" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="J15" s="3">
         <v>400</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>752500</v>
+        <v>642200</v>
       </c>
       <c r="E17" s="3">
-        <v>499700</v>
+        <v>426400</v>
       </c>
       <c r="F17" s="3">
-        <v>362000</v>
+        <v>308900</v>
       </c>
       <c r="G17" s="3">
-        <v>132700</v>
+        <v>113200</v>
       </c>
       <c r="H17" s="3">
-        <v>483300</v>
+        <v>412500</v>
       </c>
       <c r="I17" s="3">
-        <v>197300</v>
+        <v>168400</v>
       </c>
       <c r="J17" s="3">
-        <v>30000</v>
+        <v>25600</v>
       </c>
       <c r="K17" s="3">
         <v>52800</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>481300</v>
+        <v>410800</v>
       </c>
       <c r="E18" s="3">
-        <v>155200</v>
+        <v>132500</v>
       </c>
       <c r="F18" s="3">
-        <v>189900</v>
+        <v>162100</v>
       </c>
       <c r="G18" s="3">
-        <v>329000</v>
+        <v>280800</v>
       </c>
       <c r="H18" s="3">
-        <v>216200</v>
+        <v>184500</v>
       </c>
       <c r="I18" s="3">
-        <v>16900</v>
+        <v>14400</v>
       </c>
       <c r="J18" s="3">
-        <v>31100</v>
+        <v>26500</v>
       </c>
       <c r="K18" s="3">
         <v>8800</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-45200</v>
+        <v>-38600</v>
       </c>
       <c r="E20" s="3">
-        <v>50600</v>
+        <v>43200</v>
       </c>
       <c r="F20" s="3">
-        <v>73900</v>
+        <v>63100</v>
       </c>
       <c r="G20" s="3">
-        <v>-259300</v>
+        <v>-221300</v>
       </c>
       <c r="H20" s="3">
-        <v>-34800</v>
+        <v>-29700</v>
       </c>
       <c r="I20" s="3">
-        <v>-3600</v>
+        <v>-3100</v>
       </c>
       <c r="J20" s="3">
-        <v>14700</v>
+        <v>12600</v>
       </c>
       <c r="K20" s="3">
         <v>7100</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>604100</v>
+        <v>515600</v>
       </c>
       <c r="E21" s="3">
-        <v>329600</v>
+        <v>281300</v>
       </c>
       <c r="F21" s="3">
-        <v>382700</v>
+        <v>326700</v>
       </c>
       <c r="G21" s="3">
-        <v>145000</v>
+        <v>123800</v>
       </c>
       <c r="H21" s="3">
-        <v>247500</v>
+        <v>211200</v>
       </c>
       <c r="I21" s="3">
-        <v>32100</v>
+        <v>27400</v>
       </c>
       <c r="J21" s="3">
-        <v>52000</v>
+        <v>44400</v>
       </c>
       <c r="K21" s="3">
         <v>20500</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>110100</v>
+        <v>94000</v>
       </c>
       <c r="E22" s="3">
-        <v>99400</v>
+        <v>84800</v>
       </c>
       <c r="F22" s="3">
-        <v>67900</v>
+        <v>58000</v>
       </c>
       <c r="G22" s="3">
-        <v>50600</v>
+        <v>43200</v>
       </c>
       <c r="H22" s="3">
-        <v>52100</v>
+        <v>44500</v>
       </c>
       <c r="I22" s="3">
-        <v>26300</v>
+        <v>22400</v>
       </c>
       <c r="J22" s="3">
-        <v>8000</v>
+        <v>6800</v>
       </c>
       <c r="K22" s="3">
         <v>9600</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>326000</v>
+        <v>278200</v>
       </c>
       <c r="E23" s="3">
-        <v>106500</v>
+        <v>90900</v>
       </c>
       <c r="F23" s="3">
-        <v>195900</v>
+        <v>167200</v>
       </c>
       <c r="G23" s="3">
-        <v>19100</v>
+        <v>16300</v>
       </c>
       <c r="H23" s="3">
-        <v>129300</v>
+        <v>110300</v>
       </c>
       <c r="I23" s="3">
-        <v>-13000</v>
+        <v>-11100</v>
       </c>
       <c r="J23" s="3">
-        <v>37800</v>
+        <v>32300</v>
       </c>
       <c r="K23" s="3">
         <v>6200</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>62300</v>
+        <v>53200</v>
       </c>
       <c r="E24" s="3">
-        <v>26600</v>
+        <v>22700</v>
       </c>
       <c r="F24" s="3">
-        <v>-38600</v>
+        <v>-33000</v>
       </c>
       <c r="G24" s="3">
-        <v>-10300</v>
+        <v>-8800</v>
       </c>
       <c r="H24" s="3">
-        <v>-8400</v>
+        <v>-7200</v>
       </c>
       <c r="I24" s="3">
-        <v>-10200</v>
+        <v>-8700</v>
       </c>
       <c r="J24" s="3">
-        <v>5000</v>
+        <v>4300</v>
       </c>
       <c r="K24" s="3">
         <v>1000</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>263700</v>
+        <v>225100</v>
       </c>
       <c r="E26" s="3">
-        <v>79900</v>
+        <v>68200</v>
       </c>
       <c r="F26" s="3">
-        <v>234500</v>
+        <v>200200</v>
       </c>
       <c r="G26" s="3">
-        <v>29400</v>
+        <v>25100</v>
       </c>
       <c r="H26" s="3">
-        <v>137700</v>
+        <v>117500</v>
       </c>
       <c r="I26" s="3">
-        <v>-2800</v>
+        <v>-2400</v>
       </c>
       <c r="J26" s="3">
-        <v>32800</v>
+        <v>28000</v>
       </c>
       <c r="K26" s="3">
         <v>5300</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>291900</v>
+        <v>249200</v>
       </c>
       <c r="E27" s="3">
-        <v>152600</v>
+        <v>130200</v>
       </c>
       <c r="F27" s="3">
-        <v>180800</v>
+        <v>154300</v>
       </c>
       <c r="G27" s="3">
-        <v>9200</v>
+        <v>7800</v>
       </c>
       <c r="H27" s="3">
-        <v>108300</v>
+        <v>92400</v>
       </c>
       <c r="I27" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="J27" s="3">
-        <v>26100</v>
+        <v>22300</v>
       </c>
       <c r="K27" s="3">
         <v>7400</v>
@@ -1473,22 +1473,22 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-60800</v>
+        <v>-51900</v>
       </c>
       <c r="E29" s="3">
-        <v>-420800</v>
+        <v>-359100</v>
       </c>
       <c r="F29" s="3">
-        <v>100800</v>
+        <v>86000</v>
       </c>
       <c r="G29" s="3">
-        <v>62800</v>
+        <v>53600</v>
       </c>
       <c r="H29" s="3">
-        <v>-16100</v>
+        <v>-13800</v>
       </c>
       <c r="I29" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>45200</v>
+        <v>38600</v>
       </c>
       <c r="E32" s="3">
-        <v>-50600</v>
+        <v>-43200</v>
       </c>
       <c r="F32" s="3">
-        <v>-73900</v>
+        <v>-63100</v>
       </c>
       <c r="G32" s="3">
-        <v>259300</v>
+        <v>221300</v>
       </c>
       <c r="H32" s="3">
-        <v>34800</v>
+        <v>29700</v>
       </c>
       <c r="I32" s="3">
-        <v>3600</v>
+        <v>3100</v>
       </c>
       <c r="J32" s="3">
-        <v>-14700</v>
+        <v>-12600</v>
       </c>
       <c r="K32" s="3">
         <v>-7100</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>231100</v>
+        <v>197300</v>
       </c>
       <c r="E33" s="3">
-        <v>-268200</v>
+        <v>-228900</v>
       </c>
       <c r="F33" s="3">
-        <v>281600</v>
+        <v>240300</v>
       </c>
       <c r="G33" s="3">
-        <v>72000</v>
+        <v>61400</v>
       </c>
       <c r="H33" s="3">
-        <v>92100</v>
+        <v>78600</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>26100</v>
+        <v>22300</v>
       </c>
       <c r="K33" s="3">
         <v>7400</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>231100</v>
+        <v>197300</v>
       </c>
       <c r="E35" s="3">
-        <v>-268200</v>
+        <v>-228900</v>
       </c>
       <c r="F35" s="3">
-        <v>281600</v>
+        <v>240300</v>
       </c>
       <c r="G35" s="3">
-        <v>72000</v>
+        <v>61400</v>
       </c>
       <c r="H35" s="3">
-        <v>92100</v>
+        <v>78600</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>26100</v>
+        <v>22300</v>
       </c>
       <c r="K35" s="3">
         <v>7400</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>96200</v>
+        <v>82100</v>
       </c>
       <c r="E41" s="3">
-        <v>101500</v>
+        <v>86600</v>
       </c>
       <c r="F41" s="3">
-        <v>115100</v>
+        <v>98300</v>
       </c>
       <c r="G41" s="3">
-        <v>86000</v>
+        <v>73400</v>
       </c>
       <c r="H41" s="3">
-        <v>10100</v>
+        <v>8600</v>
       </c>
       <c r="I41" s="3">
-        <v>12100</v>
+        <v>10300</v>
       </c>
       <c r="J41" s="3">
-        <v>8800</v>
+        <v>7500</v>
       </c>
       <c r="K41" s="3">
         <v>6700</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>405700</v>
+        <v>346300</v>
       </c>
       <c r="E42" s="3">
-        <v>251200</v>
+        <v>214400</v>
       </c>
       <c r="F42" s="3">
-        <v>214000</v>
+        <v>182700</v>
       </c>
       <c r="G42" s="3">
-        <v>157000</v>
+        <v>134000</v>
       </c>
       <c r="H42" s="3">
-        <v>184400</v>
+        <v>157300</v>
       </c>
       <c r="I42" s="3">
-        <v>35900</v>
+        <v>30700</v>
       </c>
       <c r="J42" s="3">
-        <v>34800</v>
+        <v>29700</v>
       </c>
       <c r="K42" s="3">
         <v>10200</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>339700</v>
+        <v>289900</v>
       </c>
       <c r="E43" s="3">
-        <v>241800</v>
+        <v>206400</v>
       </c>
       <c r="F43" s="3">
-        <v>285300</v>
+        <v>243500</v>
       </c>
       <c r="G43" s="3">
-        <v>249100</v>
+        <v>212600</v>
       </c>
       <c r="H43" s="3">
-        <v>240100</v>
+        <v>204900</v>
       </c>
       <c r="I43" s="3">
-        <v>119400</v>
+        <v>101900</v>
       </c>
       <c r="J43" s="3">
-        <v>40700</v>
+        <v>34800</v>
       </c>
       <c r="K43" s="3">
         <v>28200</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>135500</v>
+        <v>115700</v>
       </c>
       <c r="E44" s="3">
-        <v>83300</v>
+        <v>71100</v>
       </c>
       <c r="F44" s="3">
-        <v>78300</v>
+        <v>66800</v>
       </c>
       <c r="G44" s="3">
-        <v>48900</v>
+        <v>41700</v>
       </c>
       <c r="H44" s="3">
-        <v>36400</v>
+        <v>31100</v>
       </c>
       <c r="I44" s="3">
-        <v>28700</v>
+        <v>24500</v>
       </c>
       <c r="J44" s="3">
-        <v>3800</v>
+        <v>3300</v>
       </c>
       <c r="K44" s="3">
         <v>2700</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9200</v>
+        <v>7900</v>
       </c>
       <c r="E45" s="3">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="F45" s="3">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="G45" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="H45" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="I45" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="J45" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="K45" s="3">
         <v>600</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>986400</v>
+        <v>841900</v>
       </c>
       <c r="E46" s="3">
-        <v>680600</v>
+        <v>580900</v>
       </c>
       <c r="F46" s="3">
-        <v>695700</v>
+        <v>593700</v>
       </c>
       <c r="G46" s="3">
-        <v>542300</v>
+        <v>462800</v>
       </c>
       <c r="H46" s="3">
-        <v>472000</v>
+        <v>402800</v>
       </c>
       <c r="I46" s="3">
-        <v>197500</v>
+        <v>168500</v>
       </c>
       <c r="J46" s="3">
-        <v>82700</v>
+        <v>70600</v>
       </c>
       <c r="K46" s="3">
         <v>43700</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>824800</v>
+        <v>704000</v>
       </c>
       <c r="E47" s="3">
-        <v>505200</v>
+        <v>431200</v>
       </c>
       <c r="F47" s="3">
-        <v>316200</v>
+        <v>269900</v>
       </c>
       <c r="G47" s="3">
-        <v>239000</v>
+        <v>204000</v>
       </c>
       <c r="H47" s="3">
-        <v>174300</v>
+        <v>148700</v>
       </c>
       <c r="I47" s="3">
-        <v>83200</v>
+        <v>71000</v>
       </c>
       <c r="J47" s="3">
-        <v>35400</v>
+        <v>30200</v>
       </c>
       <c r="K47" s="3">
         <v>22600</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1463900</v>
+        <v>1249400</v>
       </c>
       <c r="E48" s="3">
-        <v>1162700</v>
+        <v>992400</v>
       </c>
       <c r="F48" s="3">
-        <v>1799700</v>
+        <v>1536000</v>
       </c>
       <c r="G48" s="3">
-        <v>1181900</v>
+        <v>1008700</v>
       </c>
       <c r="H48" s="3">
-        <v>951700</v>
+        <v>812200</v>
       </c>
       <c r="I48" s="3">
-        <v>350600</v>
+        <v>299200</v>
       </c>
       <c r="J48" s="3">
-        <v>123800</v>
+        <v>105600</v>
       </c>
       <c r="K48" s="3">
         <v>91500</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>33700</v>
+        <v>28800</v>
       </c>
       <c r="E49" s="3">
-        <v>29500</v>
+        <v>25200</v>
       </c>
       <c r="F49" s="3">
-        <v>77400</v>
+        <v>66000</v>
       </c>
       <c r="G49" s="3">
-        <v>57500</v>
+        <v>49100</v>
       </c>
       <c r="H49" s="3">
-        <v>54200</v>
+        <v>46300</v>
       </c>
       <c r="I49" s="3">
-        <v>17200</v>
+        <v>14700</v>
       </c>
       <c r="J49" s="3">
-        <v>6300</v>
+        <v>5300</v>
       </c>
       <c r="K49" s="3">
         <v>8700</v>
@@ -2253,22 +2253,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>74500</v>
+        <v>63600</v>
       </c>
       <c r="E52" s="3">
-        <v>1132300</v>
+        <v>966400</v>
       </c>
       <c r="F52" s="3">
-        <v>14900</v>
+        <v>12700</v>
       </c>
       <c r="G52" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="H52" s="3">
-        <v>174000</v>
+        <v>148500</v>
       </c>
       <c r="I52" s="3">
-        <v>10700</v>
+        <v>9100</v>
       </c>
       <c r="J52" s="3">
         <v>400</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3383500</v>
+        <v>2887600</v>
       </c>
       <c r="E54" s="3">
-        <v>3510300</v>
+        <v>2995900</v>
       </c>
       <c r="F54" s="3">
-        <v>2903900</v>
+        <v>2478300</v>
       </c>
       <c r="G54" s="3">
-        <v>2021700</v>
+        <v>1725400</v>
       </c>
       <c r="H54" s="3">
-        <v>1819100</v>
+        <v>1552500</v>
       </c>
       <c r="I54" s="3">
-        <v>659200</v>
+        <v>562600</v>
       </c>
       <c r="J54" s="3">
-        <v>248600</v>
+        <v>212200</v>
       </c>
       <c r="K54" s="3">
         <v>167300</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>147800</v>
+        <v>126200</v>
       </c>
       <c r="E57" s="3">
-        <v>70100</v>
+        <v>59800</v>
       </c>
       <c r="F57" s="3">
-        <v>192800</v>
+        <v>164500</v>
       </c>
       <c r="G57" s="3">
-        <v>204400</v>
+        <v>174400</v>
       </c>
       <c r="H57" s="3">
-        <v>207000</v>
+        <v>176700</v>
       </c>
       <c r="I57" s="3">
-        <v>107300</v>
+        <v>91500</v>
       </c>
       <c r="J57" s="3">
-        <v>56500</v>
+        <v>48200</v>
       </c>
       <c r="K57" s="3">
         <v>45000</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>72900</v>
+        <v>62300</v>
       </c>
       <c r="E58" s="3">
-        <v>173800</v>
+        <v>148300</v>
       </c>
       <c r="F58" s="3">
-        <v>93600</v>
+        <v>79900</v>
       </c>
       <c r="G58" s="3">
-        <v>122000</v>
+        <v>104100</v>
       </c>
       <c r="H58" s="3">
-        <v>73600</v>
+        <v>62800</v>
       </c>
       <c r="I58" s="3">
-        <v>91200</v>
+        <v>77800</v>
       </c>
       <c r="J58" s="3">
-        <v>11200</v>
+        <v>9500</v>
       </c>
       <c r="K58" s="3">
         <v>7800</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>78700</v>
+        <v>67200</v>
       </c>
       <c r="E59" s="3">
-        <v>77900</v>
+        <v>66500</v>
       </c>
       <c r="F59" s="3">
-        <v>149600</v>
+        <v>127700</v>
       </c>
       <c r="G59" s="3">
-        <v>95400</v>
+        <v>81400</v>
       </c>
       <c r="H59" s="3">
-        <v>96700</v>
+        <v>82600</v>
       </c>
       <c r="I59" s="3">
-        <v>58000</v>
+        <v>49500</v>
       </c>
       <c r="J59" s="3">
-        <v>14100</v>
+        <v>12000</v>
       </c>
       <c r="K59" s="3">
         <v>10500</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>299500</v>
+        <v>255600</v>
       </c>
       <c r="E60" s="3">
-        <v>321900</v>
+        <v>274700</v>
       </c>
       <c r="F60" s="3">
-        <v>436000</v>
+        <v>372100</v>
       </c>
       <c r="G60" s="3">
-        <v>421700</v>
+        <v>359900</v>
       </c>
       <c r="H60" s="3">
-        <v>377300</v>
+        <v>322000</v>
       </c>
       <c r="I60" s="3">
-        <v>256400</v>
+        <v>218900</v>
       </c>
       <c r="J60" s="3">
-        <v>81700</v>
+        <v>69800</v>
       </c>
       <c r="K60" s="3">
         <v>63300</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1199200</v>
+        <v>1023500</v>
       </c>
       <c r="E61" s="3">
-        <v>984600</v>
+        <v>840300</v>
       </c>
       <c r="F61" s="3">
-        <v>901000</v>
+        <v>769000</v>
       </c>
       <c r="G61" s="3">
-        <v>654100</v>
+        <v>558300</v>
       </c>
       <c r="H61" s="3">
-        <v>467600</v>
+        <v>399100</v>
       </c>
       <c r="I61" s="3">
-        <v>130400</v>
+        <v>111300</v>
       </c>
       <c r="J61" s="3">
-        <v>57000</v>
+        <v>48700</v>
       </c>
       <c r="K61" s="3">
         <v>37600</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>314900</v>
+        <v>268800</v>
       </c>
       <c r="E62" s="3">
-        <v>201200</v>
+        <v>171700</v>
       </c>
       <c r="F62" s="3">
-        <v>336300</v>
+        <v>287000</v>
       </c>
       <c r="G62" s="3">
-        <v>305900</v>
+        <v>261100</v>
       </c>
       <c r="H62" s="3">
-        <v>310800</v>
+        <v>265200</v>
       </c>
       <c r="I62" s="3">
-        <v>152300</v>
+        <v>130000</v>
       </c>
       <c r="J62" s="3">
-        <v>38400</v>
+        <v>32800</v>
       </c>
       <c r="K62" s="3">
         <v>31200</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1818800</v>
+        <v>1552300</v>
       </c>
       <c r="E66" s="3">
-        <v>2484600</v>
+        <v>2120500</v>
       </c>
       <c r="F66" s="3">
-        <v>1924100</v>
+        <v>1642100</v>
       </c>
       <c r="G66" s="3">
-        <v>1534600</v>
+        <v>1309700</v>
       </c>
       <c r="H66" s="3">
-        <v>1337300</v>
+        <v>1141300</v>
       </c>
       <c r="I66" s="3">
-        <v>564900</v>
+        <v>482100</v>
       </c>
       <c r="J66" s="3">
-        <v>189000</v>
+        <v>161300</v>
       </c>
       <c r="K66" s="3">
         <v>138300</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>884000</v>
+        <v>754500</v>
       </c>
       <c r="E72" s="3">
-        <v>529000</v>
+        <v>451500</v>
       </c>
       <c r="F72" s="3">
-        <v>601800</v>
+        <v>513600</v>
       </c>
       <c r="G72" s="3">
-        <v>217200</v>
+        <v>185300</v>
       </c>
       <c r="H72" s="3">
-        <v>217200</v>
+        <v>185300</v>
       </c>
       <c r="I72" s="3">
-        <v>34800</v>
+        <v>29700</v>
       </c>
       <c r="J72" s="3">
-        <v>34900</v>
+        <v>29800</v>
       </c>
       <c r="K72" s="3">
         <v>12800</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1564700</v>
+        <v>1335400</v>
       </c>
       <c r="E76" s="3">
-        <v>1025700</v>
+        <v>875400</v>
       </c>
       <c r="F76" s="3">
-        <v>979800</v>
+        <v>836200</v>
       </c>
       <c r="G76" s="3">
-        <v>487100</v>
+        <v>415700</v>
       </c>
       <c r="H76" s="3">
-        <v>481800</v>
+        <v>411200</v>
       </c>
       <c r="I76" s="3">
-        <v>94300</v>
+        <v>80500</v>
       </c>
       <c r="J76" s="3">
-        <v>59600</v>
+        <v>50900</v>
       </c>
       <c r="K76" s="3">
         <v>29000</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>231100</v>
+        <v>197300</v>
       </c>
       <c r="E81" s="3">
-        <v>-268200</v>
+        <v>-228900</v>
       </c>
       <c r="F81" s="3">
-        <v>281600</v>
+        <v>240300</v>
       </c>
       <c r="G81" s="3">
-        <v>72000</v>
+        <v>61400</v>
       </c>
       <c r="H81" s="3">
-        <v>92100</v>
+        <v>78600</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>26100</v>
+        <v>22300</v>
       </c>
       <c r="K81" s="3">
         <v>7400</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>167800</v>
+        <v>143200</v>
       </c>
       <c r="E83" s="3">
-        <v>123600</v>
+        <v>105500</v>
       </c>
       <c r="F83" s="3">
-        <v>118800</v>
+        <v>101400</v>
       </c>
       <c r="G83" s="3">
-        <v>75200</v>
+        <v>64200</v>
       </c>
       <c r="H83" s="3">
-        <v>66000</v>
+        <v>56300</v>
       </c>
       <c r="I83" s="3">
-        <v>18800</v>
+        <v>16000</v>
       </c>
       <c r="J83" s="3">
-        <v>6100</v>
+        <v>5200</v>
       </c>
       <c r="K83" s="3">
         <v>4600</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>651600</v>
+        <v>556100</v>
       </c>
       <c r="E89" s="3">
-        <v>403200</v>
+        <v>344100</v>
       </c>
       <c r="F89" s="3">
-        <v>321500</v>
+        <v>274400</v>
       </c>
       <c r="G89" s="3">
-        <v>195200</v>
+        <v>166600</v>
       </c>
       <c r="H89" s="3">
-        <v>136500</v>
+        <v>116500</v>
       </c>
       <c r="I89" s="3">
-        <v>50700</v>
+        <v>43300</v>
       </c>
       <c r="J89" s="3">
-        <v>37200</v>
+        <v>31800</v>
       </c>
       <c r="K89" s="3">
         <v>25500</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-166400</v>
+        <v>-142000</v>
       </c>
       <c r="E91" s="3">
-        <v>-71700</v>
+        <v>-61200</v>
       </c>
       <c r="F91" s="3">
-        <v>-245800</v>
+        <v>-209800</v>
       </c>
       <c r="G91" s="3">
-        <v>-216700</v>
+        <v>-185000</v>
       </c>
       <c r="H91" s="3">
-        <v>-156000</v>
+        <v>-133200</v>
       </c>
       <c r="I91" s="3">
-        <v>-53300</v>
+        <v>-45500</v>
       </c>
       <c r="J91" s="3">
-        <v>-40900</v>
+        <v>-34900</v>
       </c>
       <c r="K91" s="3">
         <v>-23100</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-390600</v>
+        <v>-333400</v>
       </c>
       <c r="E94" s="3">
-        <v>-132500</v>
+        <v>-113100</v>
       </c>
       <c r="F94" s="3">
-        <v>-146600</v>
+        <v>-125200</v>
       </c>
       <c r="G94" s="3">
-        <v>6300</v>
+        <v>5400</v>
       </c>
       <c r="H94" s="3">
-        <v>-272400</v>
+        <v>-232500</v>
       </c>
       <c r="I94" s="3">
-        <v>-95800</v>
+        <v>-81800</v>
       </c>
       <c r="J94" s="3">
-        <v>-60700</v>
+        <v>-51800</v>
       </c>
       <c r="K94" s="3">
         <v>-24500</v>
@@ -3767,16 +3767,16 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-5000</v>
+        <v>-4300</v>
       </c>
       <c r="F96" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H96" s="3">
         <v>-500</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-600</v>
       </c>
       <c r="I96" s="3">
         <v>-300</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-271300</v>
+        <v>-231500</v>
       </c>
       <c r="E100" s="3">
-        <v>-255900</v>
+        <v>-218400</v>
       </c>
       <c r="F100" s="3">
-        <v>-180600</v>
+        <v>-154100</v>
       </c>
       <c r="G100" s="3">
-        <v>-151100</v>
+        <v>-129000</v>
       </c>
       <c r="H100" s="3">
-        <v>119300</v>
+        <v>101900</v>
       </c>
       <c r="I100" s="3">
-        <v>49700</v>
+        <v>42400</v>
       </c>
       <c r="J100" s="3">
-        <v>24300</v>
+        <v>20800</v>
       </c>
       <c r="K100" s="3">
         <v>-1500</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5000</v>
+        <v>4300</v>
       </c>
       <c r="E101" s="3">
-        <v>-28500</v>
+        <v>-24300</v>
       </c>
       <c r="F101" s="3">
-        <v>43200</v>
+        <v>36900</v>
       </c>
       <c r="G101" s="3">
-        <v>17200</v>
+        <v>14600</v>
       </c>
       <c r="H101" s="3">
-        <v>4300</v>
+        <v>3700</v>
       </c>
       <c r="I101" s="3">
-        <v>3100</v>
+        <v>2600</v>
       </c>
       <c r="J101" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K101" s="3">
         <v>400</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-5300</v>
+        <v>-4500</v>
       </c>
       <c r="E102" s="3">
-        <v>-13600</v>
+        <v>-11600</v>
       </c>
       <c r="F102" s="3">
-        <v>37500</v>
+        <v>32000</v>
       </c>
       <c r="G102" s="3">
-        <v>67500</v>
+        <v>57600</v>
       </c>
       <c r="H102" s="3">
-        <v>-12200</v>
+        <v>-10400</v>
       </c>
       <c r="I102" s="3">
-        <v>7700</v>
+        <v>6600</v>
       </c>
       <c r="J102" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="K102" s="3">
         <v>-100</v>

--- a/AAII_Financials/Yearly/PAM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PAM_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1053000</v>
+        <v>902600</v>
       </c>
       <c r="E8" s="3">
-        <v>558900</v>
+        <v>479100</v>
       </c>
       <c r="F8" s="3">
-        <v>471000</v>
+        <v>403700</v>
       </c>
       <c r="G8" s="3">
-        <v>394000</v>
+        <v>337700</v>
       </c>
       <c r="H8" s="3">
-        <v>597000</v>
+        <v>511700</v>
       </c>
       <c r="I8" s="3">
-        <v>182800</v>
+        <v>156700</v>
       </c>
       <c r="J8" s="3">
-        <v>52100</v>
+        <v>44700</v>
       </c>
       <c r="K8" s="3">
         <v>61600</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>663600</v>
+        <v>568800</v>
       </c>
       <c r="E9" s="3">
-        <v>343300</v>
+        <v>294200</v>
       </c>
       <c r="F9" s="3">
-        <v>284600</v>
+        <v>244000</v>
       </c>
       <c r="G9" s="3">
-        <v>227800</v>
+        <v>195300</v>
       </c>
       <c r="H9" s="3">
-        <v>428900</v>
+        <v>367600</v>
       </c>
       <c r="I9" s="3">
-        <v>129400</v>
+        <v>110900</v>
       </c>
       <c r="J9" s="3">
-        <v>49700</v>
+        <v>42600</v>
       </c>
       <c r="K9" s="3">
         <v>59800</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>389400</v>
+        <v>333700</v>
       </c>
       <c r="E10" s="3">
-        <v>215600</v>
+        <v>184800</v>
       </c>
       <c r="F10" s="3">
-        <v>186400</v>
+        <v>159700</v>
       </c>
       <c r="G10" s="3">
-        <v>166200</v>
+        <v>142500</v>
       </c>
       <c r="H10" s="3">
-        <v>168100</v>
+        <v>144100</v>
       </c>
       <c r="I10" s="3">
-        <v>53400</v>
+        <v>45800</v>
       </c>
       <c r="J10" s="3">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K10" s="3">
         <v>1700</v>
@@ -863,16 +863,16 @@
         <v>200</v>
       </c>
       <c r="F12" s="3">
-        <v>3400</v>
+        <v>2900</v>
       </c>
       <c r="G12" s="3">
         <v>300</v>
       </c>
       <c r="H12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I12" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>8</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>5400</v>
+        <v>4600</v>
       </c>
       <c r="E14" s="3">
-        <v>79700</v>
+        <v>68300</v>
       </c>
       <c r="F14" s="3">
-        <v>37200</v>
+        <v>31900</v>
       </c>
       <c r="G14" s="3">
-        <v>-101700</v>
+        <v>-87200</v>
       </c>
       <c r="H14" s="3">
-        <v>-81300</v>
+        <v>-69700</v>
       </c>
       <c r="I14" s="3">
-        <v>37500</v>
+        <v>32100</v>
       </c>
       <c r="J14" s="3">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="K14" s="3">
         <v>-700</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3600</v>
+        <v>3100</v>
       </c>
       <c r="E15" s="3">
-        <v>2700</v>
+        <v>2300</v>
       </c>
       <c r="F15" s="3">
-        <v>3300</v>
+        <v>2800</v>
       </c>
       <c r="G15" s="3">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="H15" s="3">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="I15" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J15" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K15" s="3">
         <v>400</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>642200</v>
+        <v>550500</v>
       </c>
       <c r="E17" s="3">
-        <v>426400</v>
+        <v>365500</v>
       </c>
       <c r="F17" s="3">
-        <v>308900</v>
+        <v>264800</v>
       </c>
       <c r="G17" s="3">
-        <v>113200</v>
+        <v>97100</v>
       </c>
       <c r="H17" s="3">
-        <v>412500</v>
+        <v>353600</v>
       </c>
       <c r="I17" s="3">
-        <v>168400</v>
+        <v>144300</v>
       </c>
       <c r="J17" s="3">
-        <v>25600</v>
+        <v>21900</v>
       </c>
       <c r="K17" s="3">
         <v>52800</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>410800</v>
+        <v>352100</v>
       </c>
       <c r="E18" s="3">
-        <v>132500</v>
+        <v>113600</v>
       </c>
       <c r="F18" s="3">
-        <v>162100</v>
+        <v>138900</v>
       </c>
       <c r="G18" s="3">
-        <v>280800</v>
+        <v>240700</v>
       </c>
       <c r="H18" s="3">
-        <v>184500</v>
+        <v>158200</v>
       </c>
       <c r="I18" s="3">
-        <v>14400</v>
+        <v>12400</v>
       </c>
       <c r="J18" s="3">
-        <v>26500</v>
+        <v>22700</v>
       </c>
       <c r="K18" s="3">
         <v>8800</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-38600</v>
+        <v>-33100</v>
       </c>
       <c r="E20" s="3">
-        <v>43200</v>
+        <v>37000</v>
       </c>
       <c r="F20" s="3">
-        <v>63100</v>
+        <v>54100</v>
       </c>
       <c r="G20" s="3">
-        <v>-221300</v>
+        <v>-189700</v>
       </c>
       <c r="H20" s="3">
-        <v>-29700</v>
+        <v>-25500</v>
       </c>
       <c r="I20" s="3">
-        <v>-3100</v>
+        <v>-2700</v>
       </c>
       <c r="J20" s="3">
-        <v>12600</v>
+        <v>10800</v>
       </c>
       <c r="K20" s="3">
         <v>7100</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>515600</v>
+        <v>442000</v>
       </c>
       <c r="E21" s="3">
-        <v>281300</v>
+        <v>241100</v>
       </c>
       <c r="F21" s="3">
-        <v>326700</v>
+        <v>280000</v>
       </c>
       <c r="G21" s="3">
-        <v>123800</v>
+        <v>106100</v>
       </c>
       <c r="H21" s="3">
-        <v>211200</v>
+        <v>181100</v>
       </c>
       <c r="I21" s="3">
-        <v>27400</v>
+        <v>23500</v>
       </c>
       <c r="J21" s="3">
-        <v>44400</v>
+        <v>38000</v>
       </c>
       <c r="K21" s="3">
         <v>20500</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>94000</v>
+        <v>80600</v>
       </c>
       <c r="E22" s="3">
-        <v>84800</v>
+        <v>72700</v>
       </c>
       <c r="F22" s="3">
-        <v>58000</v>
+        <v>49700</v>
       </c>
       <c r="G22" s="3">
-        <v>43200</v>
+        <v>37000</v>
       </c>
       <c r="H22" s="3">
-        <v>44500</v>
+        <v>38100</v>
       </c>
       <c r="I22" s="3">
-        <v>22400</v>
+        <v>19200</v>
       </c>
       <c r="J22" s="3">
-        <v>6800</v>
+        <v>5800</v>
       </c>
       <c r="K22" s="3">
         <v>9600</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>278200</v>
+        <v>238500</v>
       </c>
       <c r="E23" s="3">
-        <v>90900</v>
+        <v>77900</v>
       </c>
       <c r="F23" s="3">
-        <v>167200</v>
+        <v>143300</v>
       </c>
       <c r="G23" s="3">
-        <v>16300</v>
+        <v>14000</v>
       </c>
       <c r="H23" s="3">
-        <v>110300</v>
+        <v>94600</v>
       </c>
       <c r="I23" s="3">
-        <v>-11100</v>
+        <v>-9500</v>
       </c>
       <c r="J23" s="3">
-        <v>32300</v>
+        <v>27700</v>
       </c>
       <c r="K23" s="3">
         <v>6200</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>53200</v>
+        <v>45600</v>
       </c>
       <c r="E24" s="3">
-        <v>22700</v>
+        <v>19500</v>
       </c>
       <c r="F24" s="3">
-        <v>-33000</v>
+        <v>-28300</v>
       </c>
       <c r="G24" s="3">
-        <v>-8800</v>
+        <v>-7500</v>
       </c>
       <c r="H24" s="3">
-        <v>-7200</v>
+        <v>-6100</v>
       </c>
       <c r="I24" s="3">
-        <v>-8700</v>
+        <v>-7500</v>
       </c>
       <c r="J24" s="3">
-        <v>4300</v>
+        <v>3700</v>
       </c>
       <c r="K24" s="3">
         <v>1000</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>225100</v>
+        <v>192900</v>
       </c>
       <c r="E26" s="3">
-        <v>68200</v>
+        <v>58400</v>
       </c>
       <c r="F26" s="3">
-        <v>200200</v>
+        <v>171600</v>
       </c>
       <c r="G26" s="3">
-        <v>25100</v>
+        <v>21500</v>
       </c>
       <c r="H26" s="3">
-        <v>117500</v>
+        <v>100700</v>
       </c>
       <c r="I26" s="3">
-        <v>-2400</v>
+        <v>-2000</v>
       </c>
       <c r="J26" s="3">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="K26" s="3">
         <v>5300</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>249200</v>
+        <v>213600</v>
       </c>
       <c r="E27" s="3">
-        <v>130200</v>
+        <v>111600</v>
       </c>
       <c r="F27" s="3">
-        <v>154300</v>
+        <v>132300</v>
       </c>
       <c r="G27" s="3">
-        <v>7800</v>
+        <v>6700</v>
       </c>
       <c r="H27" s="3">
-        <v>92400</v>
+        <v>79200</v>
       </c>
       <c r="I27" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="J27" s="3">
-        <v>22300</v>
+        <v>19100</v>
       </c>
       <c r="K27" s="3">
         <v>7400</v>
@@ -1473,22 +1473,22 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-51900</v>
+        <v>-44500</v>
       </c>
       <c r="E29" s="3">
-        <v>-359100</v>
+        <v>-307800</v>
       </c>
       <c r="F29" s="3">
-        <v>86000</v>
+        <v>73700</v>
       </c>
       <c r="G29" s="3">
-        <v>53600</v>
+        <v>45900</v>
       </c>
       <c r="H29" s="3">
-        <v>-13800</v>
+        <v>-11800</v>
       </c>
       <c r="I29" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>38600</v>
+        <v>33100</v>
       </c>
       <c r="E32" s="3">
-        <v>-43200</v>
+        <v>-37000</v>
       </c>
       <c r="F32" s="3">
-        <v>-63100</v>
+        <v>-54100</v>
       </c>
       <c r="G32" s="3">
-        <v>221300</v>
+        <v>189700</v>
       </c>
       <c r="H32" s="3">
-        <v>29700</v>
+        <v>25500</v>
       </c>
       <c r="I32" s="3">
-        <v>3100</v>
+        <v>2700</v>
       </c>
       <c r="J32" s="3">
-        <v>-12600</v>
+        <v>-10800</v>
       </c>
       <c r="K32" s="3">
         <v>-7100</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>197300</v>
+        <v>169100</v>
       </c>
       <c r="E33" s="3">
-        <v>-228900</v>
+        <v>-196200</v>
       </c>
       <c r="F33" s="3">
-        <v>240300</v>
+        <v>206000</v>
       </c>
       <c r="G33" s="3">
-        <v>61400</v>
+        <v>52600</v>
       </c>
       <c r="H33" s="3">
-        <v>78600</v>
+        <v>67400</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>22300</v>
+        <v>19100</v>
       </c>
       <c r="K33" s="3">
         <v>7400</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>197300</v>
+        <v>169100</v>
       </c>
       <c r="E35" s="3">
-        <v>-228900</v>
+        <v>-196200</v>
       </c>
       <c r="F35" s="3">
-        <v>240300</v>
+        <v>206000</v>
       </c>
       <c r="G35" s="3">
-        <v>61400</v>
+        <v>52600</v>
       </c>
       <c r="H35" s="3">
-        <v>78600</v>
+        <v>67400</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>22300</v>
+        <v>19100</v>
       </c>
       <c r="K35" s="3">
         <v>7400</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>82100</v>
+        <v>70400</v>
       </c>
       <c r="E41" s="3">
-        <v>86600</v>
+        <v>74300</v>
       </c>
       <c r="F41" s="3">
-        <v>98300</v>
+        <v>84200</v>
       </c>
       <c r="G41" s="3">
-        <v>73400</v>
+        <v>62900</v>
       </c>
       <c r="H41" s="3">
-        <v>8600</v>
+        <v>7400</v>
       </c>
       <c r="I41" s="3">
-        <v>10300</v>
+        <v>8900</v>
       </c>
       <c r="J41" s="3">
-        <v>7500</v>
+        <v>6400</v>
       </c>
       <c r="K41" s="3">
         <v>6700</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>346300</v>
+        <v>296800</v>
       </c>
       <c r="E42" s="3">
-        <v>214400</v>
+        <v>183700</v>
       </c>
       <c r="F42" s="3">
-        <v>182700</v>
+        <v>156600</v>
       </c>
       <c r="G42" s="3">
-        <v>134000</v>
+        <v>114800</v>
       </c>
       <c r="H42" s="3">
-        <v>157300</v>
+        <v>134900</v>
       </c>
       <c r="I42" s="3">
-        <v>30700</v>
+        <v>26300</v>
       </c>
       <c r="J42" s="3">
-        <v>29700</v>
+        <v>25500</v>
       </c>
       <c r="K42" s="3">
         <v>10200</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>289900</v>
+        <v>248500</v>
       </c>
       <c r="E43" s="3">
-        <v>206400</v>
+        <v>176900</v>
       </c>
       <c r="F43" s="3">
-        <v>243500</v>
+        <v>208700</v>
       </c>
       <c r="G43" s="3">
-        <v>212600</v>
+        <v>182200</v>
       </c>
       <c r="H43" s="3">
-        <v>204900</v>
+        <v>175600</v>
       </c>
       <c r="I43" s="3">
-        <v>101900</v>
+        <v>87400</v>
       </c>
       <c r="J43" s="3">
-        <v>34800</v>
+        <v>29800</v>
       </c>
       <c r="K43" s="3">
         <v>28200</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>115700</v>
+        <v>99100</v>
       </c>
       <c r="E44" s="3">
-        <v>71100</v>
+        <v>60900</v>
       </c>
       <c r="F44" s="3">
-        <v>66800</v>
+        <v>57300</v>
       </c>
       <c r="G44" s="3">
-        <v>41700</v>
+        <v>35700</v>
       </c>
       <c r="H44" s="3">
-        <v>31100</v>
+        <v>26600</v>
       </c>
       <c r="I44" s="3">
-        <v>24500</v>
+        <v>21000</v>
       </c>
       <c r="J44" s="3">
-        <v>3300</v>
+        <v>2800</v>
       </c>
       <c r="K44" s="3">
         <v>2700</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7900</v>
+        <v>6800</v>
       </c>
       <c r="E45" s="3">
-        <v>2400</v>
+        <v>2100</v>
       </c>
       <c r="F45" s="3">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="G45" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="H45" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I45" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="J45" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K45" s="3">
         <v>600</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>841900</v>
+        <v>721600</v>
       </c>
       <c r="E46" s="3">
-        <v>580900</v>
+        <v>497900</v>
       </c>
       <c r="F46" s="3">
-        <v>593700</v>
+        <v>508900</v>
       </c>
       <c r="G46" s="3">
-        <v>462800</v>
+        <v>396700</v>
       </c>
       <c r="H46" s="3">
-        <v>402800</v>
+        <v>345300</v>
       </c>
       <c r="I46" s="3">
-        <v>168500</v>
+        <v>144500</v>
       </c>
       <c r="J46" s="3">
-        <v>70600</v>
+        <v>60500</v>
       </c>
       <c r="K46" s="3">
         <v>43700</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>704000</v>
+        <v>603400</v>
       </c>
       <c r="E47" s="3">
-        <v>431200</v>
+        <v>369600</v>
       </c>
       <c r="F47" s="3">
-        <v>269900</v>
+        <v>231300</v>
       </c>
       <c r="G47" s="3">
-        <v>204000</v>
+        <v>174800</v>
       </c>
       <c r="H47" s="3">
-        <v>148700</v>
+        <v>127500</v>
       </c>
       <c r="I47" s="3">
-        <v>71000</v>
+        <v>60900</v>
       </c>
       <c r="J47" s="3">
-        <v>30200</v>
+        <v>25900</v>
       </c>
       <c r="K47" s="3">
         <v>22600</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1249400</v>
+        <v>1070900</v>
       </c>
       <c r="E48" s="3">
-        <v>992400</v>
+        <v>850600</v>
       </c>
       <c r="F48" s="3">
-        <v>1536000</v>
+        <v>1316600</v>
       </c>
       <c r="G48" s="3">
-        <v>1008700</v>
+        <v>864600</v>
       </c>
       <c r="H48" s="3">
-        <v>812200</v>
+        <v>696200</v>
       </c>
       <c r="I48" s="3">
-        <v>299200</v>
+        <v>256500</v>
       </c>
       <c r="J48" s="3">
-        <v>105600</v>
+        <v>90600</v>
       </c>
       <c r="K48" s="3">
         <v>91500</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>28800</v>
+        <v>24700</v>
       </c>
       <c r="E49" s="3">
-        <v>25200</v>
+        <v>21600</v>
       </c>
       <c r="F49" s="3">
-        <v>66000</v>
+        <v>56600</v>
       </c>
       <c r="G49" s="3">
-        <v>49100</v>
+        <v>42100</v>
       </c>
       <c r="H49" s="3">
-        <v>46300</v>
+        <v>39600</v>
       </c>
       <c r="I49" s="3">
-        <v>14700</v>
+        <v>12600</v>
       </c>
       <c r="J49" s="3">
-        <v>5300</v>
+        <v>4600</v>
       </c>
       <c r="K49" s="3">
         <v>8700</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>63600</v>
+        <v>54500</v>
       </c>
       <c r="E52" s="3">
-        <v>966400</v>
+        <v>828300</v>
       </c>
       <c r="F52" s="3">
-        <v>12700</v>
+        <v>10900</v>
       </c>
       <c r="G52" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H52" s="3">
-        <v>148500</v>
+        <v>127300</v>
       </c>
       <c r="I52" s="3">
-        <v>9100</v>
+        <v>7800</v>
       </c>
       <c r="J52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K52" s="3">
         <v>900</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2887600</v>
+        <v>2475100</v>
       </c>
       <c r="E54" s="3">
-        <v>2995900</v>
+        <v>2567900</v>
       </c>
       <c r="F54" s="3">
-        <v>2478300</v>
+        <v>2124300</v>
       </c>
       <c r="G54" s="3">
-        <v>1725400</v>
+        <v>1479000</v>
       </c>
       <c r="H54" s="3">
-        <v>1552500</v>
+        <v>1330700</v>
       </c>
       <c r="I54" s="3">
-        <v>562600</v>
+        <v>482200</v>
       </c>
       <c r="J54" s="3">
-        <v>212200</v>
+        <v>181900</v>
       </c>
       <c r="K54" s="3">
         <v>167300</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>126200</v>
+        <v>108100</v>
       </c>
       <c r="E57" s="3">
-        <v>59800</v>
+        <v>51300</v>
       </c>
       <c r="F57" s="3">
-        <v>164500</v>
+        <v>141000</v>
       </c>
       <c r="G57" s="3">
-        <v>174400</v>
+        <v>149500</v>
       </c>
       <c r="H57" s="3">
-        <v>176700</v>
+        <v>151500</v>
       </c>
       <c r="I57" s="3">
-        <v>91500</v>
+        <v>78500</v>
       </c>
       <c r="J57" s="3">
-        <v>48200</v>
+        <v>41300</v>
       </c>
       <c r="K57" s="3">
         <v>45000</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>62300</v>
+        <v>53400</v>
       </c>
       <c r="E58" s="3">
-        <v>148300</v>
+        <v>127200</v>
       </c>
       <c r="F58" s="3">
-        <v>79900</v>
+        <v>68500</v>
       </c>
       <c r="G58" s="3">
-        <v>104100</v>
+        <v>89200</v>
       </c>
       <c r="H58" s="3">
-        <v>62800</v>
+        <v>53800</v>
       </c>
       <c r="I58" s="3">
-        <v>77800</v>
+        <v>66700</v>
       </c>
       <c r="J58" s="3">
-        <v>9500</v>
+        <v>8200</v>
       </c>
       <c r="K58" s="3">
         <v>7800</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>67200</v>
+        <v>57600</v>
       </c>
       <c r="E59" s="3">
-        <v>66500</v>
+        <v>57000</v>
       </c>
       <c r="F59" s="3">
-        <v>127700</v>
+        <v>109400</v>
       </c>
       <c r="G59" s="3">
-        <v>81400</v>
+        <v>69800</v>
       </c>
       <c r="H59" s="3">
-        <v>82600</v>
+        <v>70800</v>
       </c>
       <c r="I59" s="3">
-        <v>49500</v>
+        <v>42500</v>
       </c>
       <c r="J59" s="3">
-        <v>12000</v>
+        <v>10300</v>
       </c>
       <c r="K59" s="3">
         <v>10500</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>255600</v>
+        <v>219100</v>
       </c>
       <c r="E60" s="3">
-        <v>274700</v>
+        <v>235500</v>
       </c>
       <c r="F60" s="3">
-        <v>372100</v>
+        <v>318900</v>
       </c>
       <c r="G60" s="3">
-        <v>359900</v>
+        <v>308500</v>
       </c>
       <c r="H60" s="3">
-        <v>322000</v>
+        <v>276000</v>
       </c>
       <c r="I60" s="3">
-        <v>218900</v>
+        <v>187600</v>
       </c>
       <c r="J60" s="3">
-        <v>69800</v>
+        <v>59800</v>
       </c>
       <c r="K60" s="3">
         <v>63300</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1023500</v>
+        <v>877200</v>
       </c>
       <c r="E61" s="3">
-        <v>840300</v>
+        <v>720300</v>
       </c>
       <c r="F61" s="3">
-        <v>769000</v>
+        <v>659100</v>
       </c>
       <c r="G61" s="3">
-        <v>558300</v>
+        <v>478500</v>
       </c>
       <c r="H61" s="3">
-        <v>399100</v>
+        <v>342100</v>
       </c>
       <c r="I61" s="3">
-        <v>111300</v>
+        <v>95400</v>
       </c>
       <c r="J61" s="3">
-        <v>48700</v>
+        <v>41700</v>
       </c>
       <c r="K61" s="3">
         <v>37600</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>268800</v>
+        <v>230400</v>
       </c>
       <c r="E62" s="3">
-        <v>171700</v>
+        <v>147200</v>
       </c>
       <c r="F62" s="3">
-        <v>287000</v>
+        <v>246000</v>
       </c>
       <c r="G62" s="3">
-        <v>261100</v>
+        <v>223800</v>
       </c>
       <c r="H62" s="3">
-        <v>265200</v>
+        <v>227300</v>
       </c>
       <c r="I62" s="3">
-        <v>130000</v>
+        <v>111400</v>
       </c>
       <c r="J62" s="3">
-        <v>32800</v>
+        <v>28100</v>
       </c>
       <c r="K62" s="3">
         <v>31200</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1552300</v>
+        <v>1330500</v>
       </c>
       <c r="E66" s="3">
-        <v>2120500</v>
+        <v>1817600</v>
       </c>
       <c r="F66" s="3">
-        <v>1642100</v>
+        <v>1407500</v>
       </c>
       <c r="G66" s="3">
-        <v>1309700</v>
+        <v>1122600</v>
       </c>
       <c r="H66" s="3">
-        <v>1141300</v>
+        <v>978300</v>
       </c>
       <c r="I66" s="3">
-        <v>482100</v>
+        <v>413200</v>
       </c>
       <c r="J66" s="3">
-        <v>161300</v>
+        <v>138300</v>
       </c>
       <c r="K66" s="3">
         <v>138300</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>754500</v>
+        <v>646700</v>
       </c>
       <c r="E72" s="3">
-        <v>451500</v>
+        <v>387000</v>
       </c>
       <c r="F72" s="3">
-        <v>513600</v>
+        <v>440300</v>
       </c>
       <c r="G72" s="3">
-        <v>185300</v>
+        <v>158900</v>
       </c>
       <c r="H72" s="3">
-        <v>185300</v>
+        <v>158900</v>
       </c>
       <c r="I72" s="3">
-        <v>29700</v>
+        <v>25500</v>
       </c>
       <c r="J72" s="3">
-        <v>29800</v>
+        <v>25500</v>
       </c>
       <c r="K72" s="3">
         <v>12800</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1335400</v>
+        <v>1144600</v>
       </c>
       <c r="E76" s="3">
-        <v>875400</v>
+        <v>750300</v>
       </c>
       <c r="F76" s="3">
-        <v>836200</v>
+        <v>716800</v>
       </c>
       <c r="G76" s="3">
-        <v>415700</v>
+        <v>356300</v>
       </c>
       <c r="H76" s="3">
-        <v>411200</v>
+        <v>352400</v>
       </c>
       <c r="I76" s="3">
-        <v>80500</v>
+        <v>69000</v>
       </c>
       <c r="J76" s="3">
-        <v>50900</v>
+        <v>43600</v>
       </c>
       <c r="K76" s="3">
         <v>29000</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>197300</v>
+        <v>169100</v>
       </c>
       <c r="E81" s="3">
-        <v>-228900</v>
+        <v>-196200</v>
       </c>
       <c r="F81" s="3">
-        <v>240300</v>
+        <v>206000</v>
       </c>
       <c r="G81" s="3">
-        <v>61400</v>
+        <v>52600</v>
       </c>
       <c r="H81" s="3">
-        <v>78600</v>
+        <v>67400</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>22300</v>
+        <v>19100</v>
       </c>
       <c r="K81" s="3">
         <v>7400</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>143200</v>
+        <v>122800</v>
       </c>
       <c r="E83" s="3">
-        <v>105500</v>
+        <v>90400</v>
       </c>
       <c r="F83" s="3">
-        <v>101400</v>
+        <v>86900</v>
       </c>
       <c r="G83" s="3">
-        <v>64200</v>
+        <v>55000</v>
       </c>
       <c r="H83" s="3">
-        <v>56300</v>
+        <v>48300</v>
       </c>
       <c r="I83" s="3">
-        <v>16000</v>
+        <v>13700</v>
       </c>
       <c r="J83" s="3">
-        <v>5200</v>
+        <v>4500</v>
       </c>
       <c r="K83" s="3">
         <v>4600</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>556100</v>
+        <v>476700</v>
       </c>
       <c r="E89" s="3">
-        <v>344100</v>
+        <v>295000</v>
       </c>
       <c r="F89" s="3">
-        <v>274400</v>
+        <v>235200</v>
       </c>
       <c r="G89" s="3">
-        <v>166600</v>
+        <v>142800</v>
       </c>
       <c r="H89" s="3">
-        <v>116500</v>
+        <v>99900</v>
       </c>
       <c r="I89" s="3">
-        <v>43300</v>
+        <v>37100</v>
       </c>
       <c r="J89" s="3">
-        <v>31800</v>
+        <v>27200</v>
       </c>
       <c r="K89" s="3">
         <v>25500</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-142000</v>
+        <v>-121700</v>
       </c>
       <c r="E91" s="3">
-        <v>-61200</v>
+        <v>-52400</v>
       </c>
       <c r="F91" s="3">
-        <v>-209800</v>
+        <v>-179800</v>
       </c>
       <c r="G91" s="3">
-        <v>-185000</v>
+        <v>-158500</v>
       </c>
       <c r="H91" s="3">
-        <v>-133200</v>
+        <v>-114100</v>
       </c>
       <c r="I91" s="3">
-        <v>-45500</v>
+        <v>-39000</v>
       </c>
       <c r="J91" s="3">
-        <v>-34900</v>
+        <v>-29900</v>
       </c>
       <c r="K91" s="3">
         <v>-23100</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-333400</v>
+        <v>-285700</v>
       </c>
       <c r="E94" s="3">
-        <v>-113100</v>
+        <v>-96900</v>
       </c>
       <c r="F94" s="3">
-        <v>-125200</v>
+        <v>-107300</v>
       </c>
       <c r="G94" s="3">
-        <v>5400</v>
+        <v>4600</v>
       </c>
       <c r="H94" s="3">
-        <v>-232500</v>
+        <v>-199300</v>
       </c>
       <c r="I94" s="3">
-        <v>-81800</v>
+        <v>-70100</v>
       </c>
       <c r="J94" s="3">
-        <v>-51800</v>
+        <v>-44400</v>
       </c>
       <c r="K94" s="3">
         <v>-24500</v>
@@ -3767,19 +3767,19 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-4300</v>
+        <v>-3700</v>
       </c>
       <c r="F96" s="3">
         <v>-400</v>
       </c>
       <c r="G96" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="H96" s="3">
         <v>-500</v>
       </c>
       <c r="I96" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="J96" s="3">
         <v>-200</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-231500</v>
+        <v>-198500</v>
       </c>
       <c r="E100" s="3">
-        <v>-218400</v>
+        <v>-187200</v>
       </c>
       <c r="F100" s="3">
-        <v>-154100</v>
+        <v>-132100</v>
       </c>
       <c r="G100" s="3">
-        <v>-129000</v>
+        <v>-110500</v>
       </c>
       <c r="H100" s="3">
-        <v>101900</v>
+        <v>87300</v>
       </c>
       <c r="I100" s="3">
-        <v>42400</v>
+        <v>36400</v>
       </c>
       <c r="J100" s="3">
-        <v>20800</v>
+        <v>17800</v>
       </c>
       <c r="K100" s="3">
         <v>-1500</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>4300</v>
+        <v>3700</v>
       </c>
       <c r="E101" s="3">
-        <v>-24300</v>
+        <v>-20800</v>
       </c>
       <c r="F101" s="3">
-        <v>36900</v>
+        <v>31600</v>
       </c>
       <c r="G101" s="3">
-        <v>14600</v>
+        <v>12500</v>
       </c>
       <c r="H101" s="3">
-        <v>3700</v>
+        <v>3200</v>
       </c>
       <c r="I101" s="3">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="J101" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K101" s="3">
         <v>400</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-4500</v>
+        <v>-3900</v>
       </c>
       <c r="E102" s="3">
-        <v>-11600</v>
+        <v>-10000</v>
       </c>
       <c r="F102" s="3">
-        <v>32000</v>
+        <v>27400</v>
       </c>
       <c r="G102" s="3">
-        <v>57600</v>
+        <v>49400</v>
       </c>
       <c r="H102" s="3">
-        <v>-10400</v>
+        <v>-8900</v>
       </c>
       <c r="I102" s="3">
-        <v>6600</v>
+        <v>5600</v>
       </c>
       <c r="J102" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="K102" s="3">
         <v>-100</v>

--- a/AAII_Financials/Yearly/PAM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PAM_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>902600</v>
+        <v>721800</v>
       </c>
       <c r="E8" s="3">
-        <v>479100</v>
+        <v>383100</v>
       </c>
       <c r="F8" s="3">
-        <v>403700</v>
+        <v>322800</v>
       </c>
       <c r="G8" s="3">
-        <v>337700</v>
+        <v>270100</v>
       </c>
       <c r="H8" s="3">
-        <v>511700</v>
+        <v>409200</v>
       </c>
       <c r="I8" s="3">
-        <v>156700</v>
+        <v>125300</v>
       </c>
       <c r="J8" s="3">
-        <v>44700</v>
+        <v>35700</v>
       </c>
       <c r="K8" s="3">
         <v>61600</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>568800</v>
+        <v>454900</v>
       </c>
       <c r="E9" s="3">
-        <v>294200</v>
+        <v>235300</v>
       </c>
       <c r="F9" s="3">
-        <v>244000</v>
+        <v>195100</v>
       </c>
       <c r="G9" s="3">
-        <v>195300</v>
+        <v>156200</v>
       </c>
       <c r="H9" s="3">
-        <v>367600</v>
+        <v>294000</v>
       </c>
       <c r="I9" s="3">
-        <v>110900</v>
+        <v>88700</v>
       </c>
       <c r="J9" s="3">
-        <v>42600</v>
+        <v>34100</v>
       </c>
       <c r="K9" s="3">
         <v>59800</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>333700</v>
+        <v>266900</v>
       </c>
       <c r="E10" s="3">
-        <v>184800</v>
+        <v>147800</v>
       </c>
       <c r="F10" s="3">
-        <v>159700</v>
+        <v>127700</v>
       </c>
       <c r="G10" s="3">
-        <v>142500</v>
+        <v>113900</v>
       </c>
       <c r="H10" s="3">
-        <v>144100</v>
+        <v>115200</v>
       </c>
       <c r="I10" s="3">
-        <v>45800</v>
+        <v>36600</v>
       </c>
       <c r="J10" s="3">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="K10" s="3">
         <v>1700</v>
@@ -857,22 +857,22 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E12" s="3">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G12" s="3">
         <v>200</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2900</v>
-      </c>
-      <c r="G12" s="3">
-        <v>300</v>
       </c>
       <c r="H12" s="3">
         <v>400</v>
       </c>
       <c r="I12" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>8</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>4600</v>
+        <v>3700</v>
       </c>
       <c r="E14" s="3">
-        <v>68300</v>
+        <v>54600</v>
       </c>
       <c r="F14" s="3">
-        <v>31900</v>
+        <v>25500</v>
       </c>
       <c r="G14" s="3">
-        <v>-87200</v>
+        <v>-69700</v>
       </c>
       <c r="H14" s="3">
-        <v>-69700</v>
+        <v>-55700</v>
       </c>
       <c r="I14" s="3">
-        <v>32100</v>
+        <v>25700</v>
       </c>
       <c r="J14" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="K14" s="3">
         <v>-700</v>
@@ -974,22 +974,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3100</v>
+        <v>2500</v>
       </c>
       <c r="E15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F15" s="3">
         <v>2300</v>
       </c>
-      <c r="F15" s="3">
-        <v>2800</v>
-      </c>
       <c r="G15" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="H15" s="3">
-        <v>2100</v>
+        <v>1700</v>
       </c>
       <c r="I15" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J15" s="3">
         <v>300</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>550500</v>
+        <v>440200</v>
       </c>
       <c r="E17" s="3">
-        <v>365500</v>
+        <v>292300</v>
       </c>
       <c r="F17" s="3">
-        <v>264800</v>
+        <v>211800</v>
       </c>
       <c r="G17" s="3">
-        <v>97100</v>
+        <v>77600</v>
       </c>
       <c r="H17" s="3">
-        <v>353600</v>
+        <v>282700</v>
       </c>
       <c r="I17" s="3">
-        <v>144300</v>
+        <v>115400</v>
       </c>
       <c r="J17" s="3">
-        <v>21900</v>
+        <v>17600</v>
       </c>
       <c r="K17" s="3">
         <v>52800</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>352100</v>
+        <v>281600</v>
       </c>
       <c r="E18" s="3">
-        <v>113600</v>
+        <v>90800</v>
       </c>
       <c r="F18" s="3">
-        <v>138900</v>
+        <v>111100</v>
       </c>
       <c r="G18" s="3">
-        <v>240700</v>
+        <v>192500</v>
       </c>
       <c r="H18" s="3">
-        <v>158200</v>
+        <v>126500</v>
       </c>
       <c r="I18" s="3">
-        <v>12400</v>
+        <v>9900</v>
       </c>
       <c r="J18" s="3">
-        <v>22700</v>
+        <v>18200</v>
       </c>
       <c r="K18" s="3">
         <v>8800</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-33100</v>
+        <v>-26400</v>
       </c>
       <c r="E20" s="3">
-        <v>37000</v>
+        <v>29600</v>
       </c>
       <c r="F20" s="3">
-        <v>54100</v>
+        <v>43300</v>
       </c>
       <c r="G20" s="3">
-        <v>-189700</v>
+        <v>-151700</v>
       </c>
       <c r="H20" s="3">
-        <v>-25500</v>
+        <v>-20400</v>
       </c>
       <c r="I20" s="3">
-        <v>-2700</v>
+        <v>-2100</v>
       </c>
       <c r="J20" s="3">
-        <v>10800</v>
+        <v>8600</v>
       </c>
       <c r="K20" s="3">
         <v>7100</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>442000</v>
+        <v>353500</v>
       </c>
       <c r="E21" s="3">
-        <v>241100</v>
+        <v>192900</v>
       </c>
       <c r="F21" s="3">
-        <v>280000</v>
+        <v>224000</v>
       </c>
       <c r="G21" s="3">
-        <v>106100</v>
+        <v>84900</v>
       </c>
       <c r="H21" s="3">
-        <v>181100</v>
+        <v>144800</v>
       </c>
       <c r="I21" s="3">
-        <v>23500</v>
+        <v>18800</v>
       </c>
       <c r="J21" s="3">
-        <v>38000</v>
+        <v>30400</v>
       </c>
       <c r="K21" s="3">
         <v>20500</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>80600</v>
+        <v>64400</v>
       </c>
       <c r="E22" s="3">
-        <v>72700</v>
+        <v>58100</v>
       </c>
       <c r="F22" s="3">
-        <v>49700</v>
+        <v>39800</v>
       </c>
       <c r="G22" s="3">
-        <v>37000</v>
+        <v>29600</v>
       </c>
       <c r="H22" s="3">
-        <v>38100</v>
+        <v>30500</v>
       </c>
       <c r="I22" s="3">
-        <v>19200</v>
+        <v>15400</v>
       </c>
       <c r="J22" s="3">
-        <v>5800</v>
+        <v>4700</v>
       </c>
       <c r="K22" s="3">
         <v>9600</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>238500</v>
+        <v>190700</v>
       </c>
       <c r="E23" s="3">
-        <v>77900</v>
+        <v>62300</v>
       </c>
       <c r="F23" s="3">
-        <v>143300</v>
+        <v>114600</v>
       </c>
       <c r="G23" s="3">
-        <v>14000</v>
+        <v>11200</v>
       </c>
       <c r="H23" s="3">
-        <v>94600</v>
+        <v>75600</v>
       </c>
       <c r="I23" s="3">
-        <v>-9500</v>
+        <v>-7600</v>
       </c>
       <c r="J23" s="3">
-        <v>27700</v>
+        <v>22100</v>
       </c>
       <c r="K23" s="3">
         <v>6200</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>45600</v>
+        <v>36400</v>
       </c>
       <c r="E24" s="3">
-        <v>19500</v>
+        <v>15600</v>
       </c>
       <c r="F24" s="3">
-        <v>-28300</v>
+        <v>-22600</v>
       </c>
       <c r="G24" s="3">
-        <v>-7500</v>
+        <v>-6000</v>
       </c>
       <c r="H24" s="3">
-        <v>-6100</v>
+        <v>-4900</v>
       </c>
       <c r="I24" s="3">
-        <v>-7500</v>
+        <v>-6000</v>
       </c>
       <c r="J24" s="3">
-        <v>3700</v>
+        <v>2900</v>
       </c>
       <c r="K24" s="3">
         <v>1000</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>192900</v>
+        <v>154300</v>
       </c>
       <c r="E26" s="3">
-        <v>58400</v>
+        <v>46700</v>
       </c>
       <c r="F26" s="3">
-        <v>171600</v>
+        <v>137200</v>
       </c>
       <c r="G26" s="3">
-        <v>21500</v>
+        <v>17200</v>
       </c>
       <c r="H26" s="3">
-        <v>100700</v>
+        <v>80500</v>
       </c>
       <c r="I26" s="3">
-        <v>-2000</v>
+        <v>-1600</v>
       </c>
       <c r="J26" s="3">
-        <v>24000</v>
+        <v>19200</v>
       </c>
       <c r="K26" s="3">
         <v>5300</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>213600</v>
+        <v>170800</v>
       </c>
       <c r="E27" s="3">
-        <v>111600</v>
+        <v>89300</v>
       </c>
       <c r="F27" s="3">
-        <v>132300</v>
+        <v>105800</v>
       </c>
       <c r="G27" s="3">
-        <v>6700</v>
+        <v>5400</v>
       </c>
       <c r="H27" s="3">
-        <v>79200</v>
+        <v>63300</v>
       </c>
       <c r="I27" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="J27" s="3">
-        <v>19100</v>
+        <v>15300</v>
       </c>
       <c r="K27" s="3">
         <v>7400</v>
@@ -1473,19 +1473,19 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-44500</v>
+        <v>-35600</v>
       </c>
       <c r="E29" s="3">
-        <v>-307800</v>
+        <v>-246200</v>
       </c>
       <c r="F29" s="3">
-        <v>73700</v>
+        <v>58900</v>
       </c>
       <c r="G29" s="3">
-        <v>45900</v>
+        <v>36700</v>
       </c>
       <c r="H29" s="3">
-        <v>-11800</v>
+        <v>-9400</v>
       </c>
       <c r="I29" s="3">
         <v>400</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>33100</v>
+        <v>26400</v>
       </c>
       <c r="E32" s="3">
-        <v>-37000</v>
+        <v>-29600</v>
       </c>
       <c r="F32" s="3">
-        <v>-54100</v>
+        <v>-43300</v>
       </c>
       <c r="G32" s="3">
-        <v>189700</v>
+        <v>151700</v>
       </c>
       <c r="H32" s="3">
-        <v>25500</v>
+        <v>20400</v>
       </c>
       <c r="I32" s="3">
-        <v>2700</v>
+        <v>2100</v>
       </c>
       <c r="J32" s="3">
-        <v>-10800</v>
+        <v>-8600</v>
       </c>
       <c r="K32" s="3">
         <v>-7100</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>169100</v>
+        <v>135200</v>
       </c>
       <c r="E33" s="3">
-        <v>-196200</v>
+        <v>-156900</v>
       </c>
       <c r="F33" s="3">
-        <v>206000</v>
+        <v>164700</v>
       </c>
       <c r="G33" s="3">
-        <v>52600</v>
+        <v>42100</v>
       </c>
       <c r="H33" s="3">
-        <v>67400</v>
+        <v>53900</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>19100</v>
+        <v>15300</v>
       </c>
       <c r="K33" s="3">
         <v>7400</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>169100</v>
+        <v>135200</v>
       </c>
       <c r="E35" s="3">
-        <v>-196200</v>
+        <v>-156900</v>
       </c>
       <c r="F35" s="3">
-        <v>206000</v>
+        <v>164700</v>
       </c>
       <c r="G35" s="3">
-        <v>52600</v>
+        <v>42100</v>
       </c>
       <c r="H35" s="3">
-        <v>67400</v>
+        <v>53900</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>19100</v>
+        <v>15300</v>
       </c>
       <c r="K35" s="3">
         <v>7400</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>70400</v>
+        <v>56300</v>
       </c>
       <c r="E41" s="3">
-        <v>74300</v>
+        <v>59400</v>
       </c>
       <c r="F41" s="3">
-        <v>84200</v>
+        <v>67300</v>
       </c>
       <c r="G41" s="3">
-        <v>62900</v>
+        <v>50300</v>
       </c>
       <c r="H41" s="3">
-        <v>7400</v>
+        <v>5900</v>
       </c>
       <c r="I41" s="3">
-        <v>8900</v>
+        <v>7100</v>
       </c>
       <c r="J41" s="3">
-        <v>6400</v>
+        <v>5200</v>
       </c>
       <c r="K41" s="3">
         <v>6700</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>296800</v>
+        <v>237300</v>
       </c>
       <c r="E42" s="3">
-        <v>183700</v>
+        <v>146900</v>
       </c>
       <c r="F42" s="3">
-        <v>156600</v>
+        <v>125200</v>
       </c>
       <c r="G42" s="3">
-        <v>114800</v>
+        <v>91800</v>
       </c>
       <c r="H42" s="3">
-        <v>134900</v>
+        <v>107800</v>
       </c>
       <c r="I42" s="3">
-        <v>26300</v>
+        <v>21000</v>
       </c>
       <c r="J42" s="3">
-        <v>25500</v>
+        <v>20400</v>
       </c>
       <c r="K42" s="3">
         <v>10200</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>248500</v>
+        <v>198700</v>
       </c>
       <c r="E43" s="3">
-        <v>176900</v>
+        <v>141400</v>
       </c>
       <c r="F43" s="3">
-        <v>208700</v>
+        <v>166900</v>
       </c>
       <c r="G43" s="3">
-        <v>182200</v>
+        <v>145700</v>
       </c>
       <c r="H43" s="3">
-        <v>175600</v>
+        <v>140500</v>
       </c>
       <c r="I43" s="3">
-        <v>87400</v>
+        <v>69900</v>
       </c>
       <c r="J43" s="3">
-        <v>29800</v>
+        <v>23800</v>
       </c>
       <c r="K43" s="3">
         <v>28200</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>99100</v>
+        <v>79300</v>
       </c>
       <c r="E44" s="3">
-        <v>60900</v>
+        <v>48700</v>
       </c>
       <c r="F44" s="3">
-        <v>57300</v>
+        <v>45800</v>
       </c>
       <c r="G44" s="3">
-        <v>35700</v>
+        <v>28600</v>
       </c>
       <c r="H44" s="3">
-        <v>26600</v>
+        <v>21300</v>
       </c>
       <c r="I44" s="3">
-        <v>21000</v>
+        <v>16800</v>
       </c>
       <c r="J44" s="3">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="K44" s="3">
         <v>2700</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6800</v>
+        <v>5400</v>
       </c>
       <c r="E45" s="3">
-        <v>2100</v>
+        <v>1700</v>
       </c>
       <c r="F45" s="3">
-        <v>2200</v>
+        <v>1700</v>
       </c>
       <c r="G45" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="H45" s="3">
+        <v>600</v>
+      </c>
+      <c r="I45" s="3">
         <v>800</v>
       </c>
-      <c r="I45" s="3">
-        <v>1000</v>
-      </c>
       <c r="J45" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K45" s="3">
         <v>600</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>721600</v>
+        <v>577100</v>
       </c>
       <c r="E46" s="3">
-        <v>497900</v>
+        <v>398100</v>
       </c>
       <c r="F46" s="3">
-        <v>508900</v>
+        <v>407000</v>
       </c>
       <c r="G46" s="3">
-        <v>396700</v>
+        <v>317200</v>
       </c>
       <c r="H46" s="3">
-        <v>345300</v>
+        <v>276100</v>
       </c>
       <c r="I46" s="3">
-        <v>144500</v>
+        <v>115500</v>
       </c>
       <c r="J46" s="3">
-        <v>60500</v>
+        <v>48400</v>
       </c>
       <c r="K46" s="3">
         <v>43700</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>603400</v>
+        <v>482500</v>
       </c>
       <c r="E47" s="3">
-        <v>369600</v>
+        <v>295600</v>
       </c>
       <c r="F47" s="3">
-        <v>231300</v>
+        <v>185000</v>
       </c>
       <c r="G47" s="3">
-        <v>174800</v>
+        <v>139800</v>
       </c>
       <c r="H47" s="3">
-        <v>127500</v>
+        <v>101900</v>
       </c>
       <c r="I47" s="3">
-        <v>60900</v>
+        <v>48700</v>
       </c>
       <c r="J47" s="3">
-        <v>25900</v>
+        <v>20700</v>
       </c>
       <c r="K47" s="3">
         <v>22600</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1070900</v>
+        <v>856400</v>
       </c>
       <c r="E48" s="3">
-        <v>850600</v>
+        <v>680200</v>
       </c>
       <c r="F48" s="3">
-        <v>1316600</v>
+        <v>1052800</v>
       </c>
       <c r="G48" s="3">
-        <v>864600</v>
+        <v>691400</v>
       </c>
       <c r="H48" s="3">
-        <v>696200</v>
+        <v>556700</v>
       </c>
       <c r="I48" s="3">
-        <v>256500</v>
+        <v>205100</v>
       </c>
       <c r="J48" s="3">
-        <v>90600</v>
+        <v>72400</v>
       </c>
       <c r="K48" s="3">
         <v>91500</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>24700</v>
+        <v>19700</v>
       </c>
       <c r="E49" s="3">
-        <v>21600</v>
+        <v>17200</v>
       </c>
       <c r="F49" s="3">
-        <v>56600</v>
+        <v>45200</v>
       </c>
       <c r="G49" s="3">
-        <v>42100</v>
+        <v>33600</v>
       </c>
       <c r="H49" s="3">
-        <v>39600</v>
+        <v>31700</v>
       </c>
       <c r="I49" s="3">
-        <v>12600</v>
+        <v>10000</v>
       </c>
       <c r="J49" s="3">
-        <v>4600</v>
+        <v>3700</v>
       </c>
       <c r="K49" s="3">
         <v>8700</v>
@@ -2253,22 +2253,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>54500</v>
+        <v>43600</v>
       </c>
       <c r="E52" s="3">
-        <v>828300</v>
+        <v>662400</v>
       </c>
       <c r="F52" s="3">
-        <v>10900</v>
+        <v>8700</v>
       </c>
       <c r="G52" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="H52" s="3">
-        <v>127300</v>
+        <v>101800</v>
       </c>
       <c r="I52" s="3">
-        <v>7800</v>
+        <v>6200</v>
       </c>
       <c r="J52" s="3">
         <v>300</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2475100</v>
+        <v>1979300</v>
       </c>
       <c r="E54" s="3">
-        <v>2567900</v>
+        <v>2053500</v>
       </c>
       <c r="F54" s="3">
-        <v>2124300</v>
+        <v>1698700</v>
       </c>
       <c r="G54" s="3">
-        <v>1479000</v>
+        <v>1182700</v>
       </c>
       <c r="H54" s="3">
-        <v>1330700</v>
+        <v>1064100</v>
       </c>
       <c r="I54" s="3">
-        <v>482200</v>
+        <v>385600</v>
       </c>
       <c r="J54" s="3">
-        <v>181900</v>
+        <v>145500</v>
       </c>
       <c r="K54" s="3">
         <v>167300</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>108100</v>
+        <v>86500</v>
       </c>
       <c r="E57" s="3">
-        <v>51300</v>
+        <v>41000</v>
       </c>
       <c r="F57" s="3">
-        <v>141000</v>
+        <v>112800</v>
       </c>
       <c r="G57" s="3">
-        <v>149500</v>
+        <v>119500</v>
       </c>
       <c r="H57" s="3">
-        <v>151500</v>
+        <v>121100</v>
       </c>
       <c r="I57" s="3">
-        <v>78500</v>
+        <v>62700</v>
       </c>
       <c r="J57" s="3">
-        <v>41300</v>
+        <v>33000</v>
       </c>
       <c r="K57" s="3">
         <v>45000</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>53400</v>
+        <v>42700</v>
       </c>
       <c r="E58" s="3">
-        <v>127200</v>
+        <v>101700</v>
       </c>
       <c r="F58" s="3">
-        <v>68500</v>
+        <v>54800</v>
       </c>
       <c r="G58" s="3">
-        <v>89200</v>
+        <v>71400</v>
       </c>
       <c r="H58" s="3">
-        <v>53800</v>
+        <v>43000</v>
       </c>
       <c r="I58" s="3">
-        <v>66700</v>
+        <v>53300</v>
       </c>
       <c r="J58" s="3">
-        <v>8200</v>
+        <v>6500</v>
       </c>
       <c r="K58" s="3">
         <v>7800</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>57600</v>
+        <v>46000</v>
       </c>
       <c r="E59" s="3">
-        <v>57000</v>
+        <v>45600</v>
       </c>
       <c r="F59" s="3">
-        <v>109400</v>
+        <v>87500</v>
       </c>
       <c r="G59" s="3">
-        <v>69800</v>
+        <v>55800</v>
       </c>
       <c r="H59" s="3">
-        <v>70800</v>
+        <v>56600</v>
       </c>
       <c r="I59" s="3">
-        <v>42500</v>
+        <v>33900</v>
       </c>
       <c r="J59" s="3">
-        <v>10300</v>
+        <v>8300</v>
       </c>
       <c r="K59" s="3">
         <v>10500</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>219100</v>
+        <v>175200</v>
       </c>
       <c r="E60" s="3">
-        <v>235500</v>
+        <v>188300</v>
       </c>
       <c r="F60" s="3">
-        <v>318900</v>
+        <v>255000</v>
       </c>
       <c r="G60" s="3">
-        <v>308500</v>
+        <v>246700</v>
       </c>
       <c r="H60" s="3">
-        <v>276000</v>
+        <v>220700</v>
       </c>
       <c r="I60" s="3">
-        <v>187600</v>
+        <v>150000</v>
       </c>
       <c r="J60" s="3">
-        <v>59800</v>
+        <v>47800</v>
       </c>
       <c r="K60" s="3">
         <v>63300</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>877200</v>
+        <v>701500</v>
       </c>
       <c r="E61" s="3">
-        <v>720300</v>
+        <v>576000</v>
       </c>
       <c r="F61" s="3">
-        <v>659100</v>
+        <v>527100</v>
       </c>
       <c r="G61" s="3">
-        <v>478500</v>
+        <v>382700</v>
       </c>
       <c r="H61" s="3">
-        <v>342100</v>
+        <v>273500</v>
       </c>
       <c r="I61" s="3">
-        <v>95400</v>
+        <v>76300</v>
       </c>
       <c r="J61" s="3">
-        <v>41700</v>
+        <v>33400</v>
       </c>
       <c r="K61" s="3">
         <v>37600</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>230400</v>
+        <v>184200</v>
       </c>
       <c r="E62" s="3">
-        <v>147200</v>
+        <v>117700</v>
       </c>
       <c r="F62" s="3">
-        <v>246000</v>
+        <v>196700</v>
       </c>
       <c r="G62" s="3">
-        <v>223800</v>
+        <v>179000</v>
       </c>
       <c r="H62" s="3">
-        <v>227300</v>
+        <v>181800</v>
       </c>
       <c r="I62" s="3">
-        <v>111400</v>
+        <v>89100</v>
       </c>
       <c r="J62" s="3">
-        <v>28100</v>
+        <v>22500</v>
       </c>
       <c r="K62" s="3">
         <v>31200</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1330500</v>
+        <v>1064000</v>
       </c>
       <c r="E66" s="3">
-        <v>1817600</v>
+        <v>1453500</v>
       </c>
       <c r="F66" s="3">
-        <v>1407500</v>
+        <v>1125600</v>
       </c>
       <c r="G66" s="3">
-        <v>1122600</v>
+        <v>897700</v>
       </c>
       <c r="H66" s="3">
-        <v>978300</v>
+        <v>782300</v>
       </c>
       <c r="I66" s="3">
-        <v>413200</v>
+        <v>330500</v>
       </c>
       <c r="J66" s="3">
-        <v>138300</v>
+        <v>110600</v>
       </c>
       <c r="K66" s="3">
         <v>138300</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>646700</v>
+        <v>517100</v>
       </c>
       <c r="E72" s="3">
-        <v>387000</v>
+        <v>309500</v>
       </c>
       <c r="F72" s="3">
-        <v>440300</v>
+        <v>352100</v>
       </c>
       <c r="G72" s="3">
-        <v>158900</v>
+        <v>127000</v>
       </c>
       <c r="H72" s="3">
-        <v>158900</v>
+        <v>127000</v>
       </c>
       <c r="I72" s="3">
-        <v>25500</v>
+        <v>20400</v>
       </c>
       <c r="J72" s="3">
-        <v>25500</v>
+        <v>20400</v>
       </c>
       <c r="K72" s="3">
         <v>12800</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1144600</v>
+        <v>915300</v>
       </c>
       <c r="E76" s="3">
-        <v>750300</v>
+        <v>600000</v>
       </c>
       <c r="F76" s="3">
-        <v>716800</v>
+        <v>573200</v>
       </c>
       <c r="G76" s="3">
-        <v>356300</v>
+        <v>285000</v>
       </c>
       <c r="H76" s="3">
-        <v>352400</v>
+        <v>281800</v>
       </c>
       <c r="I76" s="3">
-        <v>69000</v>
+        <v>55200</v>
       </c>
       <c r="J76" s="3">
-        <v>43600</v>
+        <v>34900</v>
       </c>
       <c r="K76" s="3">
         <v>29000</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>169100</v>
+        <v>135200</v>
       </c>
       <c r="E81" s="3">
-        <v>-196200</v>
+        <v>-156900</v>
       </c>
       <c r="F81" s="3">
-        <v>206000</v>
+        <v>164700</v>
       </c>
       <c r="G81" s="3">
-        <v>52600</v>
+        <v>42100</v>
       </c>
       <c r="H81" s="3">
-        <v>67400</v>
+        <v>53900</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>19100</v>
+        <v>15300</v>
       </c>
       <c r="K81" s="3">
         <v>7400</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>122800</v>
+        <v>98200</v>
       </c>
       <c r="E83" s="3">
-        <v>90400</v>
+        <v>72300</v>
       </c>
       <c r="F83" s="3">
-        <v>86900</v>
+        <v>69500</v>
       </c>
       <c r="G83" s="3">
-        <v>55000</v>
+        <v>44000</v>
       </c>
       <c r="H83" s="3">
-        <v>48300</v>
+        <v>38600</v>
       </c>
       <c r="I83" s="3">
-        <v>13700</v>
+        <v>11000</v>
       </c>
       <c r="J83" s="3">
-        <v>4500</v>
+        <v>3600</v>
       </c>
       <c r="K83" s="3">
         <v>4600</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>476700</v>
+        <v>381200</v>
       </c>
       <c r="E89" s="3">
-        <v>295000</v>
+        <v>235900</v>
       </c>
       <c r="F89" s="3">
-        <v>235200</v>
+        <v>188100</v>
       </c>
       <c r="G89" s="3">
-        <v>142800</v>
+        <v>114200</v>
       </c>
       <c r="H89" s="3">
-        <v>99900</v>
+        <v>79900</v>
       </c>
       <c r="I89" s="3">
-        <v>37100</v>
+        <v>29700</v>
       </c>
       <c r="J89" s="3">
-        <v>27200</v>
+        <v>21800</v>
       </c>
       <c r="K89" s="3">
         <v>25500</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-121700</v>
+        <v>-97300</v>
       </c>
       <c r="E91" s="3">
-        <v>-52400</v>
+        <v>-41900</v>
       </c>
       <c r="F91" s="3">
-        <v>-179800</v>
+        <v>-143800</v>
       </c>
       <c r="G91" s="3">
-        <v>-158500</v>
+        <v>-126800</v>
       </c>
       <c r="H91" s="3">
-        <v>-114100</v>
+        <v>-91300</v>
       </c>
       <c r="I91" s="3">
-        <v>-39000</v>
+        <v>-31200</v>
       </c>
       <c r="J91" s="3">
-        <v>-29900</v>
+        <v>-23900</v>
       </c>
       <c r="K91" s="3">
         <v>-23100</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-285700</v>
+        <v>-228500</v>
       </c>
       <c r="E94" s="3">
-        <v>-96900</v>
+        <v>-77500</v>
       </c>
       <c r="F94" s="3">
-        <v>-107300</v>
+        <v>-85800</v>
       </c>
       <c r="G94" s="3">
-        <v>4600</v>
+        <v>3700</v>
       </c>
       <c r="H94" s="3">
-        <v>-199300</v>
+        <v>-159400</v>
       </c>
       <c r="I94" s="3">
-        <v>-70100</v>
+        <v>-56000</v>
       </c>
       <c r="J94" s="3">
-        <v>-44400</v>
+        <v>-35500</v>
       </c>
       <c r="K94" s="3">
         <v>-24500</v>
@@ -3767,22 +3767,22 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-3700</v>
+        <v>-2900</v>
       </c>
       <c r="F96" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G96" s="3">
         <v>-400</v>
       </c>
-      <c r="G96" s="3">
-        <v>-500</v>
-      </c>
       <c r="H96" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="I96" s="3">
         <v>-200</v>
       </c>
       <c r="J96" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K96" s="3">
         <v>-200</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-198500</v>
+        <v>-158700</v>
       </c>
       <c r="E100" s="3">
-        <v>-187200</v>
+        <v>-149700</v>
       </c>
       <c r="F100" s="3">
-        <v>-132100</v>
+        <v>-105600</v>
       </c>
       <c r="G100" s="3">
-        <v>-110500</v>
+        <v>-88400</v>
       </c>
       <c r="H100" s="3">
-        <v>87300</v>
+        <v>69800</v>
       </c>
       <c r="I100" s="3">
-        <v>36400</v>
+        <v>29100</v>
       </c>
       <c r="J100" s="3">
-        <v>17800</v>
+        <v>14200</v>
       </c>
       <c r="K100" s="3">
         <v>-1500</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3700</v>
+        <v>2900</v>
       </c>
       <c r="E101" s="3">
-        <v>-20800</v>
+        <v>-16700</v>
       </c>
       <c r="F101" s="3">
-        <v>31600</v>
+        <v>25300</v>
       </c>
       <c r="G101" s="3">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="H101" s="3">
-        <v>3200</v>
+        <v>2500</v>
       </c>
       <c r="I101" s="3">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="J101" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K101" s="3">
         <v>400</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3900</v>
+        <v>-3100</v>
       </c>
       <c r="E102" s="3">
-        <v>-10000</v>
+        <v>-8000</v>
       </c>
       <c r="F102" s="3">
-        <v>27400</v>
+        <v>22000</v>
       </c>
       <c r="G102" s="3">
-        <v>49400</v>
+        <v>39500</v>
       </c>
       <c r="H102" s="3">
-        <v>-8900</v>
+        <v>-7200</v>
       </c>
       <c r="I102" s="3">
-        <v>5600</v>
+        <v>4500</v>
       </c>
       <c r="J102" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="K102" s="3">
         <v>-100</v>

--- a/AAII_Financials/Yearly/PAM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PAM_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>721800</v>
+        <v>623400</v>
       </c>
       <c r="E8" s="3">
-        <v>383100</v>
+        <v>330900</v>
       </c>
       <c r="F8" s="3">
-        <v>322800</v>
+        <v>278900</v>
       </c>
       <c r="G8" s="3">
-        <v>270100</v>
+        <v>233300</v>
       </c>
       <c r="H8" s="3">
-        <v>409200</v>
+        <v>353500</v>
       </c>
       <c r="I8" s="3">
-        <v>125300</v>
+        <v>108200</v>
       </c>
       <c r="J8" s="3">
-        <v>35700</v>
+        <v>30900</v>
       </c>
       <c r="K8" s="3">
         <v>61600</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>454900</v>
+        <v>392900</v>
       </c>
       <c r="E9" s="3">
-        <v>235300</v>
+        <v>203200</v>
       </c>
       <c r="F9" s="3">
-        <v>195100</v>
+        <v>168500</v>
       </c>
       <c r="G9" s="3">
-        <v>156200</v>
+        <v>134900</v>
       </c>
       <c r="H9" s="3">
-        <v>294000</v>
+        <v>253900</v>
       </c>
       <c r="I9" s="3">
-        <v>88700</v>
+        <v>76600</v>
       </c>
       <c r="J9" s="3">
-        <v>34100</v>
+        <v>29400</v>
       </c>
       <c r="K9" s="3">
         <v>59800</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>266900</v>
+        <v>230500</v>
       </c>
       <c r="E10" s="3">
-        <v>147800</v>
+        <v>127700</v>
       </c>
       <c r="F10" s="3">
-        <v>127700</v>
+        <v>110300</v>
       </c>
       <c r="G10" s="3">
-        <v>113900</v>
+        <v>98400</v>
       </c>
       <c r="H10" s="3">
-        <v>115200</v>
+        <v>99500</v>
       </c>
       <c r="I10" s="3">
-        <v>36600</v>
+        <v>31600</v>
       </c>
       <c r="J10" s="3">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K10" s="3">
         <v>1700</v>
@@ -863,16 +863,16 @@
         <v>100</v>
       </c>
       <c r="F12" s="3">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="G12" s="3">
         <v>200</v>
       </c>
       <c r="H12" s="3">
+        <v>300</v>
+      </c>
+      <c r="I12" s="3">
         <v>400</v>
-      </c>
-      <c r="I12" s="3">
-        <v>500</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>8</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3700</v>
+        <v>3200</v>
       </c>
       <c r="E14" s="3">
-        <v>54600</v>
+        <v>47200</v>
       </c>
       <c r="F14" s="3">
-        <v>25500</v>
+        <v>22000</v>
       </c>
       <c r="G14" s="3">
-        <v>-69700</v>
+        <v>-60200</v>
       </c>
       <c r="H14" s="3">
-        <v>-55700</v>
+        <v>-48100</v>
       </c>
       <c r="I14" s="3">
-        <v>25700</v>
+        <v>22200</v>
       </c>
       <c r="J14" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="K14" s="3">
         <v>-700</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="E15" s="3">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="F15" s="3">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="G15" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="H15" s="3">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="I15" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J15" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K15" s="3">
         <v>400</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>440200</v>
+        <v>380200</v>
       </c>
       <c r="E17" s="3">
-        <v>292300</v>
+        <v>252500</v>
       </c>
       <c r="F17" s="3">
-        <v>211800</v>
+        <v>182900</v>
       </c>
       <c r="G17" s="3">
-        <v>77600</v>
+        <v>67000</v>
       </c>
       <c r="H17" s="3">
-        <v>282700</v>
+        <v>244200</v>
       </c>
       <c r="I17" s="3">
-        <v>115400</v>
+        <v>99700</v>
       </c>
       <c r="J17" s="3">
-        <v>17600</v>
+        <v>15200</v>
       </c>
       <c r="K17" s="3">
         <v>52800</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>281600</v>
+        <v>243200</v>
       </c>
       <c r="E18" s="3">
-        <v>90800</v>
+        <v>78400</v>
       </c>
       <c r="F18" s="3">
-        <v>111100</v>
+        <v>95900</v>
       </c>
       <c r="G18" s="3">
-        <v>192500</v>
+        <v>166200</v>
       </c>
       <c r="H18" s="3">
-        <v>126500</v>
+        <v>109200</v>
       </c>
       <c r="I18" s="3">
-        <v>9900</v>
+        <v>8500</v>
       </c>
       <c r="J18" s="3">
-        <v>18200</v>
+        <v>15700</v>
       </c>
       <c r="K18" s="3">
         <v>8800</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-26400</v>
+        <v>-22800</v>
       </c>
       <c r="E20" s="3">
-        <v>29600</v>
+        <v>25600</v>
       </c>
       <c r="F20" s="3">
-        <v>43300</v>
+        <v>37400</v>
       </c>
       <c r="G20" s="3">
-        <v>-151700</v>
+        <v>-131000</v>
       </c>
       <c r="H20" s="3">
-        <v>-20400</v>
+        <v>-17600</v>
       </c>
       <c r="I20" s="3">
-        <v>-2100</v>
+        <v>-1800</v>
       </c>
       <c r="J20" s="3">
-        <v>8600</v>
+        <v>7500</v>
       </c>
       <c r="K20" s="3">
         <v>7100</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>353500</v>
+        <v>305400</v>
       </c>
       <c r="E21" s="3">
-        <v>192900</v>
+        <v>166600</v>
       </c>
       <c r="F21" s="3">
-        <v>224000</v>
+        <v>193500</v>
       </c>
       <c r="G21" s="3">
-        <v>84900</v>
+        <v>73300</v>
       </c>
       <c r="H21" s="3">
-        <v>144800</v>
+        <v>125100</v>
       </c>
       <c r="I21" s="3">
-        <v>18800</v>
+        <v>16200</v>
       </c>
       <c r="J21" s="3">
-        <v>30400</v>
+        <v>26300</v>
       </c>
       <c r="K21" s="3">
         <v>20500</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>64400</v>
+        <v>55700</v>
       </c>
       <c r="E22" s="3">
-        <v>58100</v>
+        <v>50200</v>
       </c>
       <c r="F22" s="3">
-        <v>39800</v>
+        <v>34300</v>
       </c>
       <c r="G22" s="3">
-        <v>29600</v>
+        <v>25600</v>
       </c>
       <c r="H22" s="3">
-        <v>30500</v>
+        <v>26300</v>
       </c>
       <c r="I22" s="3">
-        <v>15400</v>
+        <v>13300</v>
       </c>
       <c r="J22" s="3">
-        <v>4700</v>
+        <v>4000</v>
       </c>
       <c r="K22" s="3">
         <v>9600</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>190700</v>
+        <v>164700</v>
       </c>
       <c r="E23" s="3">
-        <v>62300</v>
+        <v>53800</v>
       </c>
       <c r="F23" s="3">
-        <v>114600</v>
+        <v>99000</v>
       </c>
       <c r="G23" s="3">
-        <v>11200</v>
+        <v>9700</v>
       </c>
       <c r="H23" s="3">
-        <v>75600</v>
+        <v>65300</v>
       </c>
       <c r="I23" s="3">
-        <v>-7600</v>
+        <v>-6600</v>
       </c>
       <c r="J23" s="3">
-        <v>22100</v>
+        <v>19100</v>
       </c>
       <c r="K23" s="3">
         <v>6200</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>36400</v>
+        <v>31500</v>
       </c>
       <c r="E24" s="3">
-        <v>15600</v>
+        <v>13500</v>
       </c>
       <c r="F24" s="3">
-        <v>-22600</v>
+        <v>-19500</v>
       </c>
       <c r="G24" s="3">
-        <v>-6000</v>
+        <v>-5200</v>
       </c>
       <c r="H24" s="3">
-        <v>-4900</v>
+        <v>-4200</v>
       </c>
       <c r="I24" s="3">
-        <v>-6000</v>
+        <v>-5200</v>
       </c>
       <c r="J24" s="3">
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="K24" s="3">
         <v>1000</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>154300</v>
+        <v>133200</v>
       </c>
       <c r="E26" s="3">
-        <v>46700</v>
+        <v>40400</v>
       </c>
       <c r="F26" s="3">
-        <v>137200</v>
+        <v>118500</v>
       </c>
       <c r="G26" s="3">
-        <v>17200</v>
+        <v>14900</v>
       </c>
       <c r="H26" s="3">
-        <v>80500</v>
+        <v>69600</v>
       </c>
       <c r="I26" s="3">
-        <v>-1600</v>
+        <v>-1400</v>
       </c>
       <c r="J26" s="3">
-        <v>19200</v>
+        <v>16600</v>
       </c>
       <c r="K26" s="3">
         <v>5300</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>170800</v>
+        <v>147500</v>
       </c>
       <c r="E27" s="3">
-        <v>89300</v>
+        <v>77100</v>
       </c>
       <c r="F27" s="3">
-        <v>105800</v>
+        <v>91400</v>
       </c>
       <c r="G27" s="3">
-        <v>5400</v>
+        <v>4600</v>
       </c>
       <c r="H27" s="3">
-        <v>63300</v>
+        <v>54700</v>
       </c>
       <c r="I27" s="3">
         <v>-400</v>
       </c>
       <c r="J27" s="3">
-        <v>15300</v>
+        <v>13200</v>
       </c>
       <c r="K27" s="3">
         <v>7400</v>
@@ -1473,22 +1473,22 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-35600</v>
+        <v>-30700</v>
       </c>
       <c r="E29" s="3">
-        <v>-246200</v>
+        <v>-212600</v>
       </c>
       <c r="F29" s="3">
-        <v>58900</v>
+        <v>50900</v>
       </c>
       <c r="G29" s="3">
-        <v>36700</v>
+        <v>31700</v>
       </c>
       <c r="H29" s="3">
-        <v>-9400</v>
+        <v>-8200</v>
       </c>
       <c r="I29" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>26400</v>
+        <v>22800</v>
       </c>
       <c r="E32" s="3">
-        <v>-29600</v>
+        <v>-25600</v>
       </c>
       <c r="F32" s="3">
-        <v>-43300</v>
+        <v>-37400</v>
       </c>
       <c r="G32" s="3">
-        <v>151700</v>
+        <v>131000</v>
       </c>
       <c r="H32" s="3">
-        <v>20400</v>
+        <v>17600</v>
       </c>
       <c r="I32" s="3">
-        <v>2100</v>
+        <v>1800</v>
       </c>
       <c r="J32" s="3">
-        <v>-8600</v>
+        <v>-7500</v>
       </c>
       <c r="K32" s="3">
         <v>-7100</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>135200</v>
+        <v>116800</v>
       </c>
       <c r="E33" s="3">
-        <v>-156900</v>
+        <v>-135500</v>
       </c>
       <c r="F33" s="3">
-        <v>164700</v>
+        <v>142300</v>
       </c>
       <c r="G33" s="3">
-        <v>42100</v>
+        <v>36400</v>
       </c>
       <c r="H33" s="3">
-        <v>53900</v>
+        <v>46500</v>
       </c>
       <c r="I33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>15300</v>
+        <v>13200</v>
       </c>
       <c r="K33" s="3">
         <v>7400</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>135200</v>
+        <v>116800</v>
       </c>
       <c r="E35" s="3">
-        <v>-156900</v>
+        <v>-135500</v>
       </c>
       <c r="F35" s="3">
-        <v>164700</v>
+        <v>142300</v>
       </c>
       <c r="G35" s="3">
-        <v>42100</v>
+        <v>36400</v>
       </c>
       <c r="H35" s="3">
-        <v>53900</v>
+        <v>46500</v>
       </c>
       <c r="I35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>15300</v>
+        <v>13200</v>
       </c>
       <c r="K35" s="3">
         <v>7400</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>56300</v>
+        <v>48600</v>
       </c>
       <c r="E41" s="3">
-        <v>59400</v>
+        <v>51300</v>
       </c>
       <c r="F41" s="3">
-        <v>67300</v>
+        <v>58200</v>
       </c>
       <c r="G41" s="3">
-        <v>50300</v>
+        <v>43500</v>
       </c>
       <c r="H41" s="3">
-        <v>5900</v>
+        <v>5100</v>
       </c>
       <c r="I41" s="3">
-        <v>7100</v>
+        <v>6100</v>
       </c>
       <c r="J41" s="3">
-        <v>5200</v>
+        <v>4500</v>
       </c>
       <c r="K41" s="3">
         <v>6700</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>237300</v>
+        <v>205000</v>
       </c>
       <c r="E42" s="3">
-        <v>146900</v>
+        <v>126900</v>
       </c>
       <c r="F42" s="3">
-        <v>125200</v>
+        <v>108100</v>
       </c>
       <c r="G42" s="3">
-        <v>91800</v>
+        <v>79300</v>
       </c>
       <c r="H42" s="3">
-        <v>107800</v>
+        <v>93200</v>
       </c>
       <c r="I42" s="3">
-        <v>21000</v>
+        <v>18100</v>
       </c>
       <c r="J42" s="3">
-        <v>20400</v>
+        <v>17600</v>
       </c>
       <c r="K42" s="3">
         <v>10200</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>198700</v>
+        <v>171700</v>
       </c>
       <c r="E43" s="3">
-        <v>141400</v>
+        <v>122200</v>
       </c>
       <c r="F43" s="3">
-        <v>166900</v>
+        <v>144200</v>
       </c>
       <c r="G43" s="3">
-        <v>145700</v>
+        <v>125900</v>
       </c>
       <c r="H43" s="3">
-        <v>140500</v>
+        <v>121300</v>
       </c>
       <c r="I43" s="3">
-        <v>69900</v>
+        <v>60300</v>
       </c>
       <c r="J43" s="3">
-        <v>23800</v>
+        <v>20600</v>
       </c>
       <c r="K43" s="3">
         <v>28200</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>79300</v>
+        <v>68500</v>
       </c>
       <c r="E44" s="3">
-        <v>48700</v>
+        <v>42100</v>
       </c>
       <c r="F44" s="3">
-        <v>45800</v>
+        <v>39500</v>
       </c>
       <c r="G44" s="3">
-        <v>28600</v>
+        <v>24700</v>
       </c>
       <c r="H44" s="3">
-        <v>21300</v>
+        <v>18400</v>
       </c>
       <c r="I44" s="3">
-        <v>16800</v>
+        <v>14500</v>
       </c>
       <c r="J44" s="3">
-        <v>2300</v>
+        <v>1900</v>
       </c>
       <c r="K44" s="3">
         <v>2700</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5400</v>
+        <v>4700</v>
       </c>
       <c r="E45" s="3">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="F45" s="3">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="G45" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H45" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I45" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J45" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K45" s="3">
         <v>600</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>577100</v>
+        <v>498400</v>
       </c>
       <c r="E46" s="3">
-        <v>398100</v>
+        <v>343900</v>
       </c>
       <c r="F46" s="3">
-        <v>407000</v>
+        <v>351500</v>
       </c>
       <c r="G46" s="3">
-        <v>317200</v>
+        <v>274000</v>
       </c>
       <c r="H46" s="3">
-        <v>276100</v>
+        <v>238500</v>
       </c>
       <c r="I46" s="3">
-        <v>115500</v>
+        <v>99800</v>
       </c>
       <c r="J46" s="3">
-        <v>48400</v>
+        <v>41800</v>
       </c>
       <c r="K46" s="3">
         <v>43700</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>482500</v>
+        <v>416800</v>
       </c>
       <c r="E47" s="3">
-        <v>295600</v>
+        <v>255300</v>
       </c>
       <c r="F47" s="3">
-        <v>185000</v>
+        <v>159800</v>
       </c>
       <c r="G47" s="3">
-        <v>139800</v>
+        <v>120700</v>
       </c>
       <c r="H47" s="3">
-        <v>101900</v>
+        <v>88000</v>
       </c>
       <c r="I47" s="3">
-        <v>48700</v>
+        <v>42100</v>
       </c>
       <c r="J47" s="3">
-        <v>20700</v>
+        <v>17900</v>
       </c>
       <c r="K47" s="3">
         <v>22600</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>856400</v>
+        <v>739700</v>
       </c>
       <c r="E48" s="3">
-        <v>680200</v>
+        <v>587500</v>
       </c>
       <c r="F48" s="3">
-        <v>1052800</v>
+        <v>909300</v>
       </c>
       <c r="G48" s="3">
-        <v>691400</v>
+        <v>597200</v>
       </c>
       <c r="H48" s="3">
-        <v>556700</v>
+        <v>480900</v>
       </c>
       <c r="I48" s="3">
-        <v>205100</v>
+        <v>177200</v>
       </c>
       <c r="J48" s="3">
-        <v>72400</v>
+        <v>62500</v>
       </c>
       <c r="K48" s="3">
         <v>91500</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>19700</v>
+        <v>17100</v>
       </c>
       <c r="E49" s="3">
-        <v>17200</v>
+        <v>14900</v>
       </c>
       <c r="F49" s="3">
-        <v>45200</v>
+        <v>39100</v>
       </c>
       <c r="G49" s="3">
-        <v>33600</v>
+        <v>29000</v>
       </c>
       <c r="H49" s="3">
-        <v>31700</v>
+        <v>27400</v>
       </c>
       <c r="I49" s="3">
-        <v>10000</v>
+        <v>8700</v>
       </c>
       <c r="J49" s="3">
-        <v>3700</v>
+        <v>3200</v>
       </c>
       <c r="K49" s="3">
         <v>8700</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>43600</v>
+        <v>37700</v>
       </c>
       <c r="E52" s="3">
-        <v>662400</v>
+        <v>572100</v>
       </c>
       <c r="F52" s="3">
-        <v>8700</v>
+        <v>7500</v>
       </c>
       <c r="G52" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H52" s="3">
-        <v>101800</v>
+        <v>87900</v>
       </c>
       <c r="I52" s="3">
-        <v>6200</v>
+        <v>5400</v>
       </c>
       <c r="J52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K52" s="3">
         <v>900</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1979300</v>
+        <v>1709600</v>
       </c>
       <c r="E54" s="3">
-        <v>2053500</v>
+        <v>1773700</v>
       </c>
       <c r="F54" s="3">
-        <v>1698700</v>
+        <v>1467200</v>
       </c>
       <c r="G54" s="3">
-        <v>1182700</v>
+        <v>1021500</v>
       </c>
       <c r="H54" s="3">
-        <v>1064100</v>
+        <v>919100</v>
       </c>
       <c r="I54" s="3">
-        <v>385600</v>
+        <v>333100</v>
       </c>
       <c r="J54" s="3">
-        <v>145500</v>
+        <v>125600</v>
       </c>
       <c r="K54" s="3">
         <v>167300</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>86500</v>
+        <v>74700</v>
       </c>
       <c r="E57" s="3">
-        <v>41000</v>
+        <v>35400</v>
       </c>
       <c r="F57" s="3">
-        <v>112800</v>
+        <v>97400</v>
       </c>
       <c r="G57" s="3">
-        <v>119500</v>
+        <v>103300</v>
       </c>
       <c r="H57" s="3">
-        <v>121100</v>
+        <v>104600</v>
       </c>
       <c r="I57" s="3">
-        <v>62700</v>
+        <v>54200</v>
       </c>
       <c r="J57" s="3">
-        <v>33000</v>
+        <v>28500</v>
       </c>
       <c r="K57" s="3">
         <v>45000</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>42700</v>
+        <v>36900</v>
       </c>
       <c r="E58" s="3">
-        <v>101700</v>
+        <v>87800</v>
       </c>
       <c r="F58" s="3">
-        <v>54800</v>
+        <v>47300</v>
       </c>
       <c r="G58" s="3">
-        <v>71400</v>
+        <v>61600</v>
       </c>
       <c r="H58" s="3">
-        <v>43000</v>
+        <v>37200</v>
       </c>
       <c r="I58" s="3">
-        <v>53300</v>
+        <v>46100</v>
       </c>
       <c r="J58" s="3">
-        <v>6500</v>
+        <v>5600</v>
       </c>
       <c r="K58" s="3">
         <v>7800</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>46000</v>
+        <v>39800</v>
       </c>
       <c r="E59" s="3">
-        <v>45600</v>
+        <v>39400</v>
       </c>
       <c r="F59" s="3">
-        <v>87500</v>
+        <v>75600</v>
       </c>
       <c r="G59" s="3">
-        <v>55800</v>
+        <v>48200</v>
       </c>
       <c r="H59" s="3">
-        <v>56600</v>
+        <v>48900</v>
       </c>
       <c r="I59" s="3">
-        <v>33900</v>
+        <v>29300</v>
       </c>
       <c r="J59" s="3">
-        <v>8300</v>
+        <v>7100</v>
       </c>
       <c r="K59" s="3">
         <v>10500</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>175200</v>
+        <v>151300</v>
       </c>
       <c r="E60" s="3">
-        <v>188300</v>
+        <v>162600</v>
       </c>
       <c r="F60" s="3">
-        <v>255000</v>
+        <v>220300</v>
       </c>
       <c r="G60" s="3">
-        <v>246700</v>
+        <v>213100</v>
       </c>
       <c r="H60" s="3">
-        <v>220700</v>
+        <v>190700</v>
       </c>
       <c r="I60" s="3">
-        <v>150000</v>
+        <v>129600</v>
       </c>
       <c r="J60" s="3">
-        <v>47800</v>
+        <v>41300</v>
       </c>
       <c r="K60" s="3">
         <v>63300</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>701500</v>
+        <v>605900</v>
       </c>
       <c r="E61" s="3">
-        <v>576000</v>
+        <v>497500</v>
       </c>
       <c r="F61" s="3">
-        <v>527100</v>
+        <v>455300</v>
       </c>
       <c r="G61" s="3">
-        <v>382700</v>
+        <v>330500</v>
       </c>
       <c r="H61" s="3">
-        <v>273500</v>
+        <v>236300</v>
       </c>
       <c r="I61" s="3">
-        <v>76300</v>
+        <v>65900</v>
       </c>
       <c r="J61" s="3">
-        <v>33400</v>
+        <v>28800</v>
       </c>
       <c r="K61" s="3">
         <v>37600</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>184200</v>
+        <v>159100</v>
       </c>
       <c r="E62" s="3">
-        <v>117700</v>
+        <v>101700</v>
       </c>
       <c r="F62" s="3">
-        <v>196700</v>
+        <v>169900</v>
       </c>
       <c r="G62" s="3">
-        <v>179000</v>
+        <v>154600</v>
       </c>
       <c r="H62" s="3">
-        <v>181800</v>
+        <v>157000</v>
       </c>
       <c r="I62" s="3">
-        <v>89100</v>
+        <v>77000</v>
       </c>
       <c r="J62" s="3">
-        <v>22500</v>
+        <v>19400</v>
       </c>
       <c r="K62" s="3">
         <v>31200</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1064000</v>
+        <v>919000</v>
       </c>
       <c r="E66" s="3">
-        <v>1453500</v>
+        <v>1255400</v>
       </c>
       <c r="F66" s="3">
-        <v>1125600</v>
+        <v>972200</v>
       </c>
       <c r="G66" s="3">
-        <v>897700</v>
+        <v>775400</v>
       </c>
       <c r="H66" s="3">
-        <v>782300</v>
+        <v>675700</v>
       </c>
       <c r="I66" s="3">
-        <v>330500</v>
+        <v>285400</v>
       </c>
       <c r="J66" s="3">
-        <v>110600</v>
+        <v>95500</v>
       </c>
       <c r="K66" s="3">
         <v>138300</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>517100</v>
+        <v>446700</v>
       </c>
       <c r="E72" s="3">
-        <v>309500</v>
+        <v>267300</v>
       </c>
       <c r="F72" s="3">
-        <v>352100</v>
+        <v>304100</v>
       </c>
       <c r="G72" s="3">
-        <v>127000</v>
+        <v>109700</v>
       </c>
       <c r="H72" s="3">
-        <v>127000</v>
+        <v>109700</v>
       </c>
       <c r="I72" s="3">
-        <v>20400</v>
+        <v>17600</v>
       </c>
       <c r="J72" s="3">
-        <v>20400</v>
+        <v>17600</v>
       </c>
       <c r="K72" s="3">
         <v>12800</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>915300</v>
+        <v>790600</v>
       </c>
       <c r="E76" s="3">
-        <v>600000</v>
+        <v>518300</v>
       </c>
       <c r="F76" s="3">
-        <v>573200</v>
+        <v>495100</v>
       </c>
       <c r="G76" s="3">
-        <v>285000</v>
+        <v>246100</v>
       </c>
       <c r="H76" s="3">
-        <v>281800</v>
+        <v>243400</v>
       </c>
       <c r="I76" s="3">
-        <v>55200</v>
+        <v>47600</v>
       </c>
       <c r="J76" s="3">
-        <v>34900</v>
+        <v>30100</v>
       </c>
       <c r="K76" s="3">
         <v>29000</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>135200</v>
+        <v>116800</v>
       </c>
       <c r="E81" s="3">
-        <v>-156900</v>
+        <v>-135500</v>
       </c>
       <c r="F81" s="3">
-        <v>164700</v>
+        <v>142300</v>
       </c>
       <c r="G81" s="3">
-        <v>42100</v>
+        <v>36400</v>
       </c>
       <c r="H81" s="3">
-        <v>53900</v>
+        <v>46500</v>
       </c>
       <c r="I81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>15300</v>
+        <v>13200</v>
       </c>
       <c r="K81" s="3">
         <v>7400</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>98200</v>
+        <v>84800</v>
       </c>
       <c r="E83" s="3">
-        <v>72300</v>
+        <v>62400</v>
       </c>
       <c r="F83" s="3">
-        <v>69500</v>
+        <v>60000</v>
       </c>
       <c r="G83" s="3">
-        <v>44000</v>
+        <v>38000</v>
       </c>
       <c r="H83" s="3">
-        <v>38600</v>
+        <v>33400</v>
       </c>
       <c r="I83" s="3">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="J83" s="3">
-        <v>3600</v>
+        <v>3100</v>
       </c>
       <c r="K83" s="3">
         <v>4600</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>381200</v>
+        <v>329200</v>
       </c>
       <c r="E89" s="3">
-        <v>235900</v>
+        <v>203700</v>
       </c>
       <c r="F89" s="3">
-        <v>188100</v>
+        <v>162500</v>
       </c>
       <c r="G89" s="3">
-        <v>114200</v>
+        <v>98600</v>
       </c>
       <c r="H89" s="3">
-        <v>79900</v>
+        <v>69000</v>
       </c>
       <c r="I89" s="3">
-        <v>29700</v>
+        <v>25600</v>
       </c>
       <c r="J89" s="3">
-        <v>21800</v>
+        <v>18800</v>
       </c>
       <c r="K89" s="3">
         <v>25500</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-97300</v>
+        <v>-84100</v>
       </c>
       <c r="E91" s="3">
-        <v>-41900</v>
+        <v>-36200</v>
       </c>
       <c r="F91" s="3">
-        <v>-143800</v>
+        <v>-124200</v>
       </c>
       <c r="G91" s="3">
-        <v>-126800</v>
+        <v>-109500</v>
       </c>
       <c r="H91" s="3">
-        <v>-91300</v>
+        <v>-78800</v>
       </c>
       <c r="I91" s="3">
-        <v>-31200</v>
+        <v>-26900</v>
       </c>
       <c r="J91" s="3">
-        <v>-23900</v>
+        <v>-20700</v>
       </c>
       <c r="K91" s="3">
         <v>-23100</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-228500</v>
+        <v>-197400</v>
       </c>
       <c r="E94" s="3">
-        <v>-77500</v>
+        <v>-66900</v>
       </c>
       <c r="F94" s="3">
-        <v>-85800</v>
+        <v>-74100</v>
       </c>
       <c r="G94" s="3">
-        <v>3700</v>
+        <v>3200</v>
       </c>
       <c r="H94" s="3">
-        <v>-159400</v>
+        <v>-137700</v>
       </c>
       <c r="I94" s="3">
-        <v>-56000</v>
+        <v>-48400</v>
       </c>
       <c r="J94" s="3">
-        <v>-35500</v>
+        <v>-30700</v>
       </c>
       <c r="K94" s="3">
         <v>-24500</v>
@@ -3767,16 +3767,16 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-2900</v>
+        <v>-2500</v>
       </c>
       <c r="F96" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G96" s="3">
         <v>-400</v>
       </c>
       <c r="H96" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I96" s="3">
         <v>-200</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-158700</v>
+        <v>-137100</v>
       </c>
       <c r="E100" s="3">
-        <v>-149700</v>
+        <v>-129300</v>
       </c>
       <c r="F100" s="3">
-        <v>-105600</v>
+        <v>-91300</v>
       </c>
       <c r="G100" s="3">
-        <v>-88400</v>
+        <v>-76300</v>
       </c>
       <c r="H100" s="3">
-        <v>69800</v>
+        <v>60300</v>
       </c>
       <c r="I100" s="3">
-        <v>29100</v>
+        <v>25100</v>
       </c>
       <c r="J100" s="3">
-        <v>14200</v>
+        <v>12300</v>
       </c>
       <c r="K100" s="3">
         <v>-1500</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="E101" s="3">
-        <v>-16700</v>
+        <v>-14400</v>
       </c>
       <c r="F101" s="3">
-        <v>25300</v>
+        <v>21800</v>
       </c>
       <c r="G101" s="3">
-        <v>10000</v>
+        <v>8700</v>
       </c>
       <c r="H101" s="3">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="I101" s="3">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="J101" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K101" s="3">
         <v>400</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3100</v>
+        <v>-2700</v>
       </c>
       <c r="E102" s="3">
-        <v>-8000</v>
+        <v>-6900</v>
       </c>
       <c r="F102" s="3">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="G102" s="3">
-        <v>39500</v>
+        <v>34100</v>
       </c>
       <c r="H102" s="3">
-        <v>-7200</v>
+        <v>-6200</v>
       </c>
       <c r="I102" s="3">
-        <v>4500</v>
+        <v>3900</v>
       </c>
       <c r="J102" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K102" s="3">
         <v>-100</v>
